--- a/testdata/Topup.xlsx
+++ b/testdata/Topup.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\karthik\MightyPay System API\Test data\Test data - 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MightyPay\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581C27FB-E027-45C5-A5D5-06761ECB2C3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8940" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
@@ -29,17 +30,23 @@
     <definedName name="OLE_LINK63" localSheetId="1">Topup!$P$1</definedName>
     <definedName name="OLE_LINK8" localSheetId="1">Topup!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3325" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3327" uniqueCount="445">
   <si>
     <t>S.NO</t>
   </si>
@@ -1728,11 +1735,17 @@
   <si>
     <t>Response Pane</t>
   </si>
+  <si>
+    <t>availableQuantity</t>
+  </si>
+  <si>
+    <t>trxnTimeZone</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2143,15 +2156,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2182,11 +2186,20 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 8" xfId="1"/>
+    <cellStyle name="Normal 8" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2463,7 +2476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2541,14 +2554,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB237"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AD237"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C238" sqref="C238"/>
+      <selection pane="bottomRight" activeCell="AE7" sqref="AE7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="51.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2572,7 +2585,7 @@
     <col min="18" max="16384" width="51.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2621,7 +2634,7 @@
       <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="59" t="s">
         <v>442</v>
       </c>
       <c r="R1" s="48" t="s">
@@ -2637,32 +2650,38 @@
         <v>437</v>
       </c>
       <c r="V1" s="48" t="s">
-        <v>12</v>
+        <v>438</v>
       </c>
       <c r="W1" s="48" t="s">
-        <v>438</v>
+        <v>7</v>
       </c>
       <c r="X1" s="48" t="s">
-        <v>439</v>
+        <v>8</v>
       </c>
       <c r="Y1" s="48" t="s">
         <v>9</v>
       </c>
       <c r="Z1" s="48" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AA1" s="48" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB1" s="46" t="s">
+        <v>443</v>
+      </c>
+      <c r="AB1" s="48" t="s">
+        <v>439</v>
+      </c>
+      <c r="AC1" s="48" t="s">
+        <v>444</v>
+      </c>
+      <c r="AD1" s="46" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="52">
+    <row r="2" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="49">
         <v>1</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="52" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -2707,7 +2726,7 @@
       <c r="P2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="50"/>
+      <c r="Q2" s="60"/>
       <c r="R2" s="45"/>
       <c r="S2" s="45"/>
       <c r="T2" s="45"/>
@@ -2718,14 +2737,16 @@
       <c r="Y2" s="45"/>
       <c r="Z2" s="45"/>
       <c r="AA2" s="45"/>
-      <c r="AB2" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="58" t="s">
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="50"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="55" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="15" t="s">
@@ -2767,7 +2788,7 @@
       <c r="P3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="50"/>
+      <c r="Q3" s="60"/>
       <c r="R3" s="45"/>
       <c r="S3" s="45"/>
       <c r="T3" s="45"/>
@@ -2778,14 +2799,16 @@
       <c r="Y3" s="45"/>
       <c r="Z3" s="45"/>
       <c r="AA3" s="45"/>
-      <c r="AB3" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="58"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" s="50"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="55"/>
       <c r="D4" s="15" t="s">
         <v>33</v>
       </c>
@@ -2825,7 +2848,7 @@
       <c r="P4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="50"/>
+      <c r="Q4" s="60"/>
       <c r="R4" s="45"/>
       <c r="S4" s="45"/>
       <c r="T4" s="45"/>
@@ -2836,14 +2859,16 @@
       <c r="Y4" s="45"/>
       <c r="Z4" s="45"/>
       <c r="AA4" s="45"/>
-      <c r="AB4" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
-      <c r="B5" s="56"/>
-      <c r="C5" s="58"/>
+      <c r="AB4" s="45"/>
+      <c r="AC4" s="45"/>
+      <c r="AD4" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" s="50"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="15" t="s">
         <v>36</v>
       </c>
@@ -2883,7 +2908,7 @@
       <c r="P5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="50"/>
+      <c r="Q5" s="60"/>
       <c r="R5" s="45"/>
       <c r="S5" s="45"/>
       <c r="T5" s="45"/>
@@ -2894,14 +2919,16 @@
       <c r="Y5" s="45"/>
       <c r="Z5" s="45"/>
       <c r="AA5" s="45"/>
-      <c r="AB5" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="58"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="45"/>
+      <c r="AD5" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" s="50"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="15" t="s">
         <v>38</v>
       </c>
@@ -2941,7 +2968,7 @@
       <c r="P6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q6" s="50"/>
+      <c r="Q6" s="60"/>
       <c r="R6" s="45"/>
       <c r="S6" s="45"/>
       <c r="T6" s="45"/>
@@ -2952,14 +2979,16 @@
       <c r="Y6" s="45"/>
       <c r="Z6" s="45"/>
       <c r="AA6" s="45"/>
-      <c r="AB6" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="58"/>
+      <c r="AB6" s="45"/>
+      <c r="AC6" s="45"/>
+      <c r="AD6" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" s="50"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="15" t="s">
         <v>41</v>
       </c>
@@ -2999,7 +3028,7 @@
       <c r="P7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" s="50"/>
+      <c r="Q7" s="60"/>
       <c r="R7" s="45"/>
       <c r="S7" s="45"/>
       <c r="T7" s="45"/>
@@ -3010,14 +3039,16 @@
       <c r="Y7" s="45"/>
       <c r="Z7" s="45"/>
       <c r="AA7" s="45"/>
-      <c r="AB7" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
-      <c r="B8" s="56"/>
-      <c r="C8" s="58"/>
+      <c r="AB7" s="45"/>
+      <c r="AC7" s="45"/>
+      <c r="AD7" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="50"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="15" t="s">
         <v>44</v>
       </c>
@@ -3057,7 +3088,7 @@
       <c r="P8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q8" s="50"/>
+      <c r="Q8" s="60"/>
       <c r="R8" s="45"/>
       <c r="S8" s="45"/>
       <c r="T8" s="45"/>
@@ -3068,14 +3099,16 @@
       <c r="Y8" s="45"/>
       <c r="Z8" s="45"/>
       <c r="AA8" s="45"/>
-      <c r="AB8" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
-      <c r="B9" s="56"/>
-      <c r="C9" s="58"/>
+      <c r="AB8" s="45"/>
+      <c r="AC8" s="45"/>
+      <c r="AD8" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="50"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="55"/>
       <c r="D9" s="15" t="s">
         <v>47</v>
       </c>
@@ -3115,7 +3148,7 @@
       <c r="P9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q9" s="50"/>
+      <c r="Q9" s="60"/>
       <c r="R9" s="45"/>
       <c r="S9" s="45"/>
       <c r="T9" s="45"/>
@@ -3126,14 +3159,16 @@
       <c r="Y9" s="45"/>
       <c r="Z9" s="45"/>
       <c r="AA9" s="45"/>
-      <c r="AB9" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
-      <c r="B10" s="56"/>
-      <c r="C10" s="58"/>
+      <c r="AB9" s="45"/>
+      <c r="AC9" s="45"/>
+      <c r="AD9" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" s="50"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="55"/>
       <c r="D10" s="15" t="s">
         <v>47</v>
       </c>
@@ -3173,7 +3208,7 @@
       <c r="P10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q10" s="50"/>
+      <c r="Q10" s="60"/>
       <c r="R10" s="45"/>
       <c r="S10" s="45"/>
       <c r="T10" s="45"/>
@@ -3184,14 +3219,16 @@
       <c r="Y10" s="45"/>
       <c r="Z10" s="45"/>
       <c r="AA10" s="45"/>
-      <c r="AB10" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="58"/>
+      <c r="AB10" s="45"/>
+      <c r="AC10" s="45"/>
+      <c r="AD10" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="50"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="55"/>
       <c r="D11" s="15" t="s">
         <v>47</v>
       </c>
@@ -3231,7 +3268,7 @@
       <c r="P11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q11" s="50"/>
+      <c r="Q11" s="60"/>
       <c r="R11" s="45"/>
       <c r="S11" s="45"/>
       <c r="T11" s="45"/>
@@ -3242,14 +3279,16 @@
       <c r="Y11" s="45"/>
       <c r="Z11" s="45"/>
       <c r="AA11" s="45"/>
-      <c r="AB11" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="58"/>
+      <c r="AB11" s="45"/>
+      <c r="AC11" s="45"/>
+      <c r="AD11" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="50"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="55"/>
       <c r="D12" s="15" t="s">
         <v>47</v>
       </c>
@@ -3289,7 +3328,7 @@
       <c r="P12" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q12" s="50"/>
+      <c r="Q12" s="60"/>
       <c r="R12" s="45"/>
       <c r="S12" s="45"/>
       <c r="T12" s="45"/>
@@ -3300,14 +3339,16 @@
       <c r="Y12" s="45"/>
       <c r="Z12" s="45"/>
       <c r="AA12" s="45"/>
-      <c r="AB12" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
-      <c r="B13" s="56"/>
-      <c r="C13" s="58"/>
+      <c r="AB12" s="45"/>
+      <c r="AC12" s="45"/>
+      <c r="AD12" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" s="50"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="55"/>
       <c r="D13" s="15" t="s">
         <v>47</v>
       </c>
@@ -3347,7 +3388,7 @@
       <c r="P13" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q13" s="50"/>
+      <c r="Q13" s="60"/>
       <c r="R13" s="45"/>
       <c r="S13" s="45"/>
       <c r="T13" s="45"/>
@@ -3358,14 +3399,16 @@
       <c r="Y13" s="45"/>
       <c r="Z13" s="45"/>
       <c r="AA13" s="45"/>
-      <c r="AB13" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="58"/>
+      <c r="AB13" s="45"/>
+      <c r="AC13" s="45"/>
+      <c r="AD13" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" s="50"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="55"/>
       <c r="D14" s="15" t="s">
         <v>47</v>
       </c>
@@ -3405,7 +3448,7 @@
       <c r="P14" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q14" s="50"/>
+      <c r="Q14" s="60"/>
       <c r="R14" s="45"/>
       <c r="S14" s="45"/>
       <c r="T14" s="45"/>
@@ -3416,14 +3459,16 @@
       <c r="Y14" s="45"/>
       <c r="Z14" s="45"/>
       <c r="AA14" s="45"/>
-      <c r="AB14" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="58"/>
+      <c r="AB14" s="45"/>
+      <c r="AC14" s="45"/>
+      <c r="AD14" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" s="50"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="55"/>
       <c r="D15" s="15" t="s">
         <v>61</v>
       </c>
@@ -3463,7 +3508,7 @@
       <c r="P15" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q15" s="50"/>
+      <c r="Q15" s="60"/>
       <c r="R15" s="45"/>
       <c r="S15" s="45"/>
       <c r="T15" s="45"/>
@@ -3474,14 +3519,16 @@
       <c r="Y15" s="45"/>
       <c r="Z15" s="45"/>
       <c r="AA15" s="45"/>
-      <c r="AB15" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
-      <c r="B16" s="56"/>
-      <c r="C16" s="58"/>
+      <c r="AB15" s="45"/>
+      <c r="AC15" s="45"/>
+      <c r="AD15" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" s="50"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="15" t="s">
         <v>64</v>
       </c>
@@ -3521,7 +3568,7 @@
       <c r="P16" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q16" s="50"/>
+      <c r="Q16" s="60"/>
       <c r="R16" s="45"/>
       <c r="S16" s="45"/>
       <c r="T16" s="45"/>
@@ -3532,14 +3579,16 @@
       <c r="Y16" s="45"/>
       <c r="Z16" s="45"/>
       <c r="AA16" s="45"/>
-      <c r="AB16" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
-      <c r="B17" s="56"/>
-      <c r="C17" s="58"/>
+      <c r="AB16" s="45"/>
+      <c r="AC16" s="45"/>
+      <c r="AD16" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17" s="50"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="55"/>
       <c r="D17" s="15" t="s">
         <v>67</v>
       </c>
@@ -3579,7 +3628,7 @@
       <c r="P17" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q17" s="50"/>
+      <c r="Q17" s="60"/>
       <c r="R17" s="45"/>
       <c r="S17" s="45"/>
       <c r="T17" s="45"/>
@@ -3590,14 +3639,16 @@
       <c r="Y17" s="45"/>
       <c r="Z17" s="45"/>
       <c r="AA17" s="45"/>
-      <c r="AB17" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="18" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="58"/>
+      <c r="AB17" s="45"/>
+      <c r="AC17" s="45"/>
+      <c r="AD17" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="50"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="55"/>
       <c r="D18" s="15" t="s">
         <v>69</v>
       </c>
@@ -3637,7 +3688,7 @@
       <c r="P18" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q18" s="50"/>
+      <c r="Q18" s="60"/>
       <c r="R18" s="45"/>
       <c r="S18" s="45"/>
       <c r="T18" s="45"/>
@@ -3648,14 +3699,16 @@
       <c r="Y18" s="45"/>
       <c r="Z18" s="45"/>
       <c r="AA18" s="45"/>
-      <c r="AB18" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="19" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
-      <c r="B19" s="56"/>
-      <c r="C19" s="58"/>
+      <c r="AB18" s="45"/>
+      <c r="AC18" s="45"/>
+      <c r="AD18" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="50"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="55"/>
       <c r="D19" s="15" t="s">
         <v>72</v>
       </c>
@@ -3695,7 +3748,7 @@
       <c r="P19" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q19" s="50"/>
+      <c r="Q19" s="60"/>
       <c r="R19" s="45"/>
       <c r="S19" s="45"/>
       <c r="T19" s="45"/>
@@ -3706,14 +3759,16 @@
       <c r="Y19" s="45"/>
       <c r="Z19" s="45"/>
       <c r="AA19" s="45"/>
-      <c r="AB19" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="20" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="58"/>
+      <c r="AB19" s="45"/>
+      <c r="AC19" s="45"/>
+      <c r="AD19" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="50"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="55"/>
       <c r="D20" s="15" t="s">
         <v>75</v>
       </c>
@@ -3753,7 +3808,7 @@
       <c r="P20" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q20" s="50"/>
+      <c r="Q20" s="60"/>
       <c r="R20" s="45"/>
       <c r="S20" s="45"/>
       <c r="T20" s="45"/>
@@ -3764,14 +3819,16 @@
       <c r="Y20" s="45"/>
       <c r="Z20" s="45"/>
       <c r="AA20" s="45"/>
-      <c r="AB20" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="21" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="58"/>
+      <c r="AB20" s="45"/>
+      <c r="AC20" s="45"/>
+      <c r="AD20" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="50"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="55"/>
       <c r="D21" s="15" t="s">
         <v>78</v>
       </c>
@@ -3809,7 +3866,7 @@
       <c r="P21" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q21" s="50"/>
+      <c r="Q21" s="60"/>
       <c r="R21" s="45"/>
       <c r="S21" s="45"/>
       <c r="T21" s="45"/>
@@ -3820,14 +3877,16 @@
       <c r="Y21" s="45"/>
       <c r="Z21" s="45"/>
       <c r="AA21" s="45"/>
-      <c r="AB21" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="58"/>
+      <c r="AB21" s="45"/>
+      <c r="AC21" s="45"/>
+      <c r="AD21" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22" s="50"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="55"/>
       <c r="D22" s="15" t="s">
         <v>81</v>
       </c>
@@ -3865,7 +3924,7 @@
       <c r="P22" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q22" s="50"/>
+      <c r="Q22" s="60"/>
       <c r="R22" s="45"/>
       <c r="S22" s="45"/>
       <c r="T22" s="45"/>
@@ -3876,14 +3935,16 @@
       <c r="Y22" s="45"/>
       <c r="Z22" s="45"/>
       <c r="AA22" s="45"/>
-      <c r="AB22" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
-      <c r="B23" s="56"/>
-      <c r="C23" s="59" t="s">
+      <c r="AB22" s="45"/>
+      <c r="AC22" s="45"/>
+      <c r="AD22" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23" s="50"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="56" t="s">
         <v>84</v>
       </c>
       <c r="D23" s="15" t="s">
@@ -3925,7 +3986,7 @@
       <c r="P23" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q23" s="50"/>
+      <c r="Q23" s="60"/>
       <c r="R23" s="45"/>
       <c r="S23" s="45"/>
       <c r="T23" s="45"/>
@@ -3936,14 +3997,16 @@
       <c r="Y23" s="45"/>
       <c r="Z23" s="45"/>
       <c r="AA23" s="45"/>
-      <c r="AB23" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
-      <c r="B24" s="56"/>
-      <c r="C24" s="60"/>
+      <c r="AB23" s="45"/>
+      <c r="AC23" s="45"/>
+      <c r="AD23" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24" s="50"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="57"/>
       <c r="D24" s="15" t="s">
         <v>87</v>
       </c>
@@ -3981,7 +4044,7 @@
       <c r="P24" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q24" s="50"/>
+      <c r="Q24" s="60"/>
       <c r="R24" s="45"/>
       <c r="S24" s="45"/>
       <c r="T24" s="45"/>
@@ -3992,14 +4055,16 @@
       <c r="Y24" s="45"/>
       <c r="Z24" s="45"/>
       <c r="AA24" s="45"/>
-      <c r="AB24" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A25" s="54"/>
-      <c r="B25" s="57"/>
-      <c r="C25" s="61"/>
+      <c r="AB24" s="45"/>
+      <c r="AC24" s="45"/>
+      <c r="AD24" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A25" s="51"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="58"/>
       <c r="D25" s="17" t="s">
         <v>89</v>
       </c>
@@ -4039,7 +4104,7 @@
       <c r="P25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q25" s="50"/>
+      <c r="Q25" s="60"/>
       <c r="R25" s="45"/>
       <c r="S25" s="45"/>
       <c r="T25" s="45"/>
@@ -4050,15 +4115,17 @@
       <c r="Y25" s="45"/>
       <c r="Z25" s="45"/>
       <c r="AA25" s="45"/>
-      <c r="AB25" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="26" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="52">
+      <c r="AB25" s="45"/>
+      <c r="AC25" s="45"/>
+      <c r="AD25" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="49">
         <v>2</v>
       </c>
-      <c r="B26" s="55" t="s">
+      <c r="B26" s="52" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -4103,7 +4170,7 @@
       <c r="P26" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q26" s="50"/>
+      <c r="Q26" s="60"/>
       <c r="R26" s="45"/>
       <c r="S26" s="45"/>
       <c r="T26" s="45"/>
@@ -4114,14 +4181,16 @@
       <c r="Y26" s="45"/>
       <c r="Z26" s="45"/>
       <c r="AA26" s="45"/>
-      <c r="AB26" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A27" s="53"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="58" t="s">
+      <c r="AB26" s="45"/>
+      <c r="AC26" s="45"/>
+      <c r="AD26" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A27" s="50"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="55" t="s">
         <v>94</v>
       </c>
       <c r="D27" s="15" t="s">
@@ -4163,7 +4232,7 @@
       <c r="P27" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q27" s="50"/>
+      <c r="Q27" s="60"/>
       <c r="R27" s="45"/>
       <c r="S27" s="45"/>
       <c r="T27" s="45"/>
@@ -4174,14 +4243,16 @@
       <c r="Y27" s="45"/>
       <c r="Z27" s="45"/>
       <c r="AA27" s="45"/>
-      <c r="AB27" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="58"/>
+      <c r="AB27" s="45"/>
+      <c r="AC27" s="45"/>
+      <c r="AD27" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A28" s="50"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="55"/>
       <c r="D28" s="15" t="s">
         <v>33</v>
       </c>
@@ -4221,7 +4292,7 @@
       <c r="P28" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q28" s="50"/>
+      <c r="Q28" s="60"/>
       <c r="R28" s="45"/>
       <c r="S28" s="45"/>
       <c r="T28" s="45"/>
@@ -4232,14 +4303,16 @@
       <c r="Y28" s="45"/>
       <c r="Z28" s="45"/>
       <c r="AA28" s="45"/>
-      <c r="AB28" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
-      <c r="B29" s="56"/>
-      <c r="C29" s="58"/>
+      <c r="AB28" s="45"/>
+      <c r="AC28" s="45"/>
+      <c r="AD28" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A29" s="50"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="55"/>
       <c r="D29" s="15" t="s">
         <v>36</v>
       </c>
@@ -4279,7 +4352,7 @@
       <c r="P29" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q29" s="50"/>
+      <c r="Q29" s="60"/>
       <c r="R29" s="45"/>
       <c r="S29" s="45"/>
       <c r="T29" s="45"/>
@@ -4290,14 +4363,16 @@
       <c r="Y29" s="45"/>
       <c r="Z29" s="45"/>
       <c r="AA29" s="45"/>
-      <c r="AB29" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="58"/>
+      <c r="AB29" s="45"/>
+      <c r="AC29" s="45"/>
+      <c r="AD29" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A30" s="50"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="55"/>
       <c r="D30" s="15" t="s">
         <v>38</v>
       </c>
@@ -4337,7 +4412,7 @@
       <c r="P30" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q30" s="50"/>
+      <c r="Q30" s="60"/>
       <c r="R30" s="45"/>
       <c r="S30" s="45"/>
       <c r="T30" s="45"/>
@@ -4348,14 +4423,16 @@
       <c r="Y30" s="45"/>
       <c r="Z30" s="45"/>
       <c r="AA30" s="45"/>
-      <c r="AB30" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A31" s="53"/>
-      <c r="B31" s="56"/>
-      <c r="C31" s="58"/>
+      <c r="AB30" s="45"/>
+      <c r="AC30" s="45"/>
+      <c r="AD30" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A31" s="50"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="55"/>
       <c r="D31" s="15" t="s">
         <v>41</v>
       </c>
@@ -4395,7 +4472,7 @@
       <c r="P31" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q31" s="50"/>
+      <c r="Q31" s="60"/>
       <c r="R31" s="45"/>
       <c r="S31" s="45"/>
       <c r="T31" s="45"/>
@@ -4406,14 +4483,16 @@
       <c r="Y31" s="45"/>
       <c r="Z31" s="45"/>
       <c r="AA31" s="45"/>
-      <c r="AB31" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="32" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A32" s="53"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="58"/>
+      <c r="AB31" s="45"/>
+      <c r="AC31" s="45"/>
+      <c r="AD31" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A32" s="50"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="55"/>
       <c r="D32" s="15" t="s">
         <v>44</v>
       </c>
@@ -4453,7 +4532,7 @@
       <c r="P32" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q32" s="50"/>
+      <c r="Q32" s="60"/>
       <c r="R32" s="45"/>
       <c r="S32" s="45"/>
       <c r="T32" s="45"/>
@@ -4464,14 +4543,16 @@
       <c r="Y32" s="45"/>
       <c r="Z32" s="45"/>
       <c r="AA32" s="45"/>
-      <c r="AB32" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="33" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A33" s="53"/>
-      <c r="B33" s="56"/>
-      <c r="C33" s="58"/>
+      <c r="AB32" s="45"/>
+      <c r="AC32" s="45"/>
+      <c r="AD32" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A33" s="50"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="55"/>
       <c r="D33" s="15" t="s">
         <v>47</v>
       </c>
@@ -4511,7 +4592,7 @@
       <c r="P33" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q33" s="50"/>
+      <c r="Q33" s="60"/>
       <c r="R33" s="45"/>
       <c r="S33" s="45"/>
       <c r="T33" s="45"/>
@@ -4522,14 +4603,16 @@
       <c r="Y33" s="45"/>
       <c r="Z33" s="45"/>
       <c r="AA33" s="45"/>
-      <c r="AB33" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="34" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A34" s="53"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="58"/>
+      <c r="AB33" s="45"/>
+      <c r="AC33" s="45"/>
+      <c r="AD33" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A34" s="50"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="55"/>
       <c r="D34" s="15" t="s">
         <v>47</v>
       </c>
@@ -4569,7 +4652,7 @@
       <c r="P34" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q34" s="50"/>
+      <c r="Q34" s="60"/>
       <c r="R34" s="45"/>
       <c r="S34" s="45"/>
       <c r="T34" s="45"/>
@@ -4580,14 +4663,16 @@
       <c r="Y34" s="45"/>
       <c r="Z34" s="45"/>
       <c r="AA34" s="45"/>
-      <c r="AB34" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="35" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A35" s="53"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="58"/>
+      <c r="AB34" s="45"/>
+      <c r="AC34" s="45"/>
+      <c r="AD34" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A35" s="50"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="55"/>
       <c r="D35" s="15" t="s">
         <v>47</v>
       </c>
@@ -4627,7 +4712,7 @@
       <c r="P35" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q35" s="50"/>
+      <c r="Q35" s="60"/>
       <c r="R35" s="45"/>
       <c r="S35" s="45"/>
       <c r="T35" s="45"/>
@@ -4638,14 +4723,16 @@
       <c r="Y35" s="45"/>
       <c r="Z35" s="45"/>
       <c r="AA35" s="45"/>
-      <c r="AB35" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="36" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A36" s="53"/>
-      <c r="B36" s="56"/>
-      <c r="C36" s="58"/>
+      <c r="AB35" s="45"/>
+      <c r="AC35" s="45"/>
+      <c r="AD35" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A36" s="50"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="55"/>
       <c r="D36" s="15" t="s">
         <v>61</v>
       </c>
@@ -4685,7 +4772,7 @@
       <c r="P36" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q36" s="50"/>
+      <c r="Q36" s="60"/>
       <c r="R36" s="45"/>
       <c r="S36" s="45"/>
       <c r="T36" s="45"/>
@@ -4696,14 +4783,16 @@
       <c r="Y36" s="45"/>
       <c r="Z36" s="45"/>
       <c r="AA36" s="45"/>
-      <c r="AB36" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="37" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A37" s="53"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="58"/>
+      <c r="AB36" s="45"/>
+      <c r="AC36" s="45"/>
+      <c r="AD36" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A37" s="50"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="55"/>
       <c r="D37" s="15" t="s">
         <v>64</v>
       </c>
@@ -4743,7 +4832,7 @@
       <c r="P37" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q37" s="50"/>
+      <c r="Q37" s="60"/>
       <c r="R37" s="45"/>
       <c r="S37" s="45"/>
       <c r="T37" s="45"/>
@@ -4754,14 +4843,16 @@
       <c r="Y37" s="45"/>
       <c r="Z37" s="45"/>
       <c r="AA37" s="45"/>
-      <c r="AB37" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="38" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A38" s="53"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="58"/>
+      <c r="AB37" s="45"/>
+      <c r="AC37" s="45"/>
+      <c r="AD37" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A38" s="50"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="55"/>
       <c r="D38" s="15" t="s">
         <v>67</v>
       </c>
@@ -4801,7 +4892,7 @@
       <c r="P38" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q38" s="50"/>
+      <c r="Q38" s="60"/>
       <c r="R38" s="45"/>
       <c r="S38" s="45"/>
       <c r="T38" s="45"/>
@@ -4812,14 +4903,16 @@
       <c r="Y38" s="45"/>
       <c r="Z38" s="45"/>
       <c r="AA38" s="45"/>
-      <c r="AB38" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="39" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="53"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="58"/>
+      <c r="AB38" s="45"/>
+      <c r="AC38" s="45"/>
+      <c r="AD38" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="39" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="50"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="55"/>
       <c r="D39" s="15" t="s">
         <v>69</v>
       </c>
@@ -4859,7 +4952,7 @@
       <c r="P39" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q39" s="50"/>
+      <c r="Q39" s="60"/>
       <c r="R39" s="45"/>
       <c r="S39" s="45"/>
       <c r="T39" s="45"/>
@@ -4870,14 +4963,16 @@
       <c r="Y39" s="45"/>
       <c r="Z39" s="45"/>
       <c r="AA39" s="45"/>
-      <c r="AB39" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="40" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="53"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="58"/>
+      <c r="AB39" s="45"/>
+      <c r="AC39" s="45"/>
+      <c r="AD39" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="40" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="50"/>
+      <c r="B40" s="53"/>
+      <c r="C40" s="55"/>
       <c r="D40" s="15" t="s">
         <v>72</v>
       </c>
@@ -4917,7 +5012,7 @@
       <c r="P40" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q40" s="50"/>
+      <c r="Q40" s="60"/>
       <c r="R40" s="45"/>
       <c r="S40" s="45"/>
       <c r="T40" s="45"/>
@@ -4928,14 +5023,16 @@
       <c r="Y40" s="45"/>
       <c r="Z40" s="45"/>
       <c r="AA40" s="45"/>
-      <c r="AB40" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="41" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="53"/>
-      <c r="B41" s="56"/>
-      <c r="C41" s="58"/>
+      <c r="AB40" s="45"/>
+      <c r="AC40" s="45"/>
+      <c r="AD40" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="41" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="50"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="55"/>
       <c r="D41" s="15" t="s">
         <v>75</v>
       </c>
@@ -4975,7 +5072,7 @@
       <c r="P41" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q41" s="50"/>
+      <c r="Q41" s="60"/>
       <c r="R41" s="45"/>
       <c r="S41" s="45"/>
       <c r="T41" s="45"/>
@@ -4986,14 +5083,16 @@
       <c r="Y41" s="45"/>
       <c r="Z41" s="45"/>
       <c r="AA41" s="45"/>
-      <c r="AB41" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="42" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="53"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="58"/>
+      <c r="AB41" s="45"/>
+      <c r="AC41" s="45"/>
+      <c r="AD41" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="42" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="50"/>
+      <c r="B42" s="53"/>
+      <c r="C42" s="55"/>
       <c r="D42" s="15" t="s">
         <v>78</v>
       </c>
@@ -5031,7 +5130,7 @@
       <c r="P42" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q42" s="50"/>
+      <c r="Q42" s="60"/>
       <c r="R42" s="45"/>
       <c r="S42" s="45"/>
       <c r="T42" s="45"/>
@@ -5042,14 +5141,16 @@
       <c r="Y42" s="45"/>
       <c r="Z42" s="45"/>
       <c r="AA42" s="45"/>
-      <c r="AB42" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="43" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A43" s="53"/>
-      <c r="B43" s="56"/>
-      <c r="C43" s="58"/>
+      <c r="AB42" s="45"/>
+      <c r="AC42" s="45"/>
+      <c r="AD42" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="43" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A43" s="50"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="55"/>
       <c r="D43" s="15" t="s">
         <v>81</v>
       </c>
@@ -5087,7 +5188,7 @@
       <c r="P43" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q43" s="50"/>
+      <c r="Q43" s="60"/>
       <c r="R43" s="45"/>
       <c r="S43" s="45"/>
       <c r="T43" s="45"/>
@@ -5098,14 +5199,16 @@
       <c r="Y43" s="45"/>
       <c r="Z43" s="45"/>
       <c r="AA43" s="45"/>
-      <c r="AB43" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="44" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A44" s="53"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="59" t="s">
+      <c r="AB43" s="45"/>
+      <c r="AC43" s="45"/>
+      <c r="AD43" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="44" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A44" s="50"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="56" t="s">
         <v>84</v>
       </c>
       <c r="D44" s="15" t="s">
@@ -5147,7 +5250,7 @@
       <c r="P44" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q44" s="50"/>
+      <c r="Q44" s="60"/>
       <c r="R44" s="45"/>
       <c r="S44" s="45"/>
       <c r="T44" s="45"/>
@@ -5158,14 +5261,16 @@
       <c r="Y44" s="45"/>
       <c r="Z44" s="45"/>
       <c r="AA44" s="45"/>
-      <c r="AB44" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="45" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A45" s="53"/>
-      <c r="B45" s="56"/>
-      <c r="C45" s="60"/>
+      <c r="AB44" s="45"/>
+      <c r="AC44" s="45"/>
+      <c r="AD44" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="45" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A45" s="50"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="57"/>
       <c r="D45" s="15" t="s">
         <v>87</v>
       </c>
@@ -5203,7 +5308,7 @@
       <c r="P45" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q45" s="50"/>
+      <c r="Q45" s="60"/>
       <c r="R45" s="45"/>
       <c r="S45" s="45"/>
       <c r="T45" s="45"/>
@@ -5214,14 +5319,16 @@
       <c r="Y45" s="45"/>
       <c r="Z45" s="45"/>
       <c r="AA45" s="45"/>
-      <c r="AB45" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="46" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A46" s="54"/>
-      <c r="B46" s="57"/>
-      <c r="C46" s="61"/>
+      <c r="AB45" s="45"/>
+      <c r="AC45" s="45"/>
+      <c r="AD45" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="46" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A46" s="51"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="58"/>
       <c r="D46" s="17" t="s">
         <v>89</v>
       </c>
@@ -5261,7 +5368,7 @@
       <c r="P46" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q46" s="50"/>
+      <c r="Q46" s="60"/>
       <c r="R46" s="45"/>
       <c r="S46" s="45"/>
       <c r="T46" s="45"/>
@@ -5272,15 +5379,17 @@
       <c r="Y46" s="45"/>
       <c r="Z46" s="45"/>
       <c r="AA46" s="45"/>
-      <c r="AB46" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="47" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="52">
+      <c r="AB46" s="45"/>
+      <c r="AC46" s="45"/>
+      <c r="AD46" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="49">
         <v>3</v>
       </c>
-      <c r="B47" s="55" t="s">
+      <c r="B47" s="52" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="5" t="s">
@@ -5325,7 +5434,7 @@
       <c r="P47" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q47" s="50"/>
+      <c r="Q47" s="60"/>
       <c r="R47" s="45"/>
       <c r="S47" s="45"/>
       <c r="T47" s="45"/>
@@ -5336,14 +5445,16 @@
       <c r="Y47" s="45"/>
       <c r="Z47" s="45"/>
       <c r="AA47" s="45"/>
-      <c r="AB47" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="48" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A48" s="53"/>
-      <c r="B48" s="56"/>
-      <c r="C48" s="58" t="s">
+      <c r="AB47" s="45"/>
+      <c r="AC47" s="45"/>
+      <c r="AD47" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A48" s="50"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="55" t="s">
         <v>134</v>
       </c>
       <c r="D48" s="15" t="s">
@@ -5385,7 +5496,7 @@
       <c r="P48" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q48" s="50"/>
+      <c r="Q48" s="60"/>
       <c r="R48" s="45"/>
       <c r="S48" s="45"/>
       <c r="T48" s="45"/>
@@ -5396,14 +5507,16 @@
       <c r="Y48" s="45"/>
       <c r="Z48" s="45"/>
       <c r="AA48" s="45"/>
-      <c r="AB48" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="49" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A49" s="53"/>
-      <c r="B49" s="56"/>
-      <c r="C49" s="58"/>
+      <c r="AB48" s="45"/>
+      <c r="AC48" s="45"/>
+      <c r="AD48" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A49" s="50"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="55"/>
       <c r="D49" s="15" t="s">
         <v>33</v>
       </c>
@@ -5443,7 +5556,7 @@
       <c r="P49" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q49" s="50"/>
+      <c r="Q49" s="60"/>
       <c r="R49" s="45"/>
       <c r="S49" s="45"/>
       <c r="T49" s="45"/>
@@ -5454,14 +5567,16 @@
       <c r="Y49" s="45"/>
       <c r="Z49" s="45"/>
       <c r="AA49" s="45"/>
-      <c r="AB49" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A50" s="53"/>
-      <c r="B50" s="56"/>
-      <c r="C50" s="58"/>
+      <c r="AB49" s="45"/>
+      <c r="AC49" s="45"/>
+      <c r="AD49" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="50" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A50" s="50"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="55"/>
       <c r="D50" s="15" t="s">
         <v>36</v>
       </c>
@@ -5501,7 +5616,7 @@
       <c r="P50" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q50" s="50"/>
+      <c r="Q50" s="60"/>
       <c r="R50" s="45"/>
       <c r="S50" s="45"/>
       <c r="T50" s="45"/>
@@ -5512,14 +5627,16 @@
       <c r="Y50" s="45"/>
       <c r="Z50" s="45"/>
       <c r="AA50" s="45"/>
-      <c r="AB50" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="51" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A51" s="53"/>
-      <c r="B51" s="56"/>
-      <c r="C51" s="58"/>
+      <c r="AB50" s="45"/>
+      <c r="AC50" s="45"/>
+      <c r="AD50" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="51" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A51" s="50"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="55"/>
       <c r="D51" s="15" t="s">
         <v>38</v>
       </c>
@@ -5559,7 +5676,7 @@
       <c r="P51" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q51" s="50"/>
+      <c r="Q51" s="60"/>
       <c r="R51" s="45"/>
       <c r="S51" s="45"/>
       <c r="T51" s="45"/>
@@ -5570,14 +5687,16 @@
       <c r="Y51" s="45"/>
       <c r="Z51" s="45"/>
       <c r="AA51" s="45"/>
-      <c r="AB51" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A52" s="53"/>
-      <c r="B52" s="56"/>
-      <c r="C52" s="58"/>
+      <c r="AB51" s="45"/>
+      <c r="AC51" s="45"/>
+      <c r="AD51" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="52" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A52" s="50"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="55"/>
       <c r="D52" s="15" t="s">
         <v>41</v>
       </c>
@@ -5617,7 +5736,7 @@
       <c r="P52" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q52" s="50"/>
+      <c r="Q52" s="60"/>
       <c r="R52" s="45"/>
       <c r="S52" s="45"/>
       <c r="T52" s="45"/>
@@ -5628,14 +5747,16 @@
       <c r="Y52" s="45"/>
       <c r="Z52" s="45"/>
       <c r="AA52" s="45"/>
-      <c r="AB52" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="53" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A53" s="53"/>
-      <c r="B53" s="56"/>
-      <c r="C53" s="58"/>
+      <c r="AB52" s="45"/>
+      <c r="AC52" s="45"/>
+      <c r="AD52" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A53" s="50"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="55"/>
       <c r="D53" s="15" t="s">
         <v>44</v>
       </c>
@@ -5675,7 +5796,7 @@
       <c r="P53" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q53" s="50"/>
+      <c r="Q53" s="60"/>
       <c r="R53" s="45"/>
       <c r="S53" s="45"/>
       <c r="T53" s="45"/>
@@ -5686,14 +5807,16 @@
       <c r="Y53" s="45"/>
       <c r="Z53" s="45"/>
       <c r="AA53" s="45"/>
-      <c r="AB53" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="54" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A54" s="53"/>
-      <c r="B54" s="56"/>
-      <c r="C54" s="58"/>
+      <c r="AB53" s="45"/>
+      <c r="AC53" s="45"/>
+      <c r="AD53" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A54" s="50"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="55"/>
       <c r="D54" s="15" t="s">
         <v>47</v>
       </c>
@@ -5733,7 +5856,7 @@
       <c r="P54" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q54" s="50"/>
+      <c r="Q54" s="60"/>
       <c r="R54" s="45"/>
       <c r="S54" s="45"/>
       <c r="T54" s="45"/>
@@ -5744,14 +5867,16 @@
       <c r="Y54" s="45"/>
       <c r="Z54" s="45"/>
       <c r="AA54" s="45"/>
-      <c r="AB54" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="55" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A55" s="53"/>
-      <c r="B55" s="56"/>
-      <c r="C55" s="58"/>
+      <c r="AB54" s="45"/>
+      <c r="AC54" s="45"/>
+      <c r="AD54" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A55" s="50"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="55"/>
       <c r="D55" s="15" t="s">
         <v>47</v>
       </c>
@@ -5791,7 +5916,7 @@
       <c r="P55" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q55" s="50"/>
+      <c r="Q55" s="60"/>
       <c r="R55" s="45"/>
       <c r="S55" s="45"/>
       <c r="T55" s="45"/>
@@ -5802,14 +5927,16 @@
       <c r="Y55" s="45"/>
       <c r="Z55" s="45"/>
       <c r="AA55" s="45"/>
-      <c r="AB55" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="56" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A56" s="53"/>
-      <c r="B56" s="56"/>
-      <c r="C56" s="58"/>
+      <c r="AB55" s="45"/>
+      <c r="AC55" s="45"/>
+      <c r="AD55" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A56" s="50"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="55"/>
       <c r="D56" s="15" t="s">
         <v>47</v>
       </c>
@@ -5849,7 +5976,7 @@
       <c r="P56" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q56" s="50"/>
+      <c r="Q56" s="60"/>
       <c r="R56" s="45"/>
       <c r="S56" s="45"/>
       <c r="T56" s="45"/>
@@ -5860,14 +5987,16 @@
       <c r="Y56" s="45"/>
       <c r="Z56" s="45"/>
       <c r="AA56" s="45"/>
-      <c r="AB56" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="57" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A57" s="53"/>
-      <c r="B57" s="56"/>
-      <c r="C57" s="58"/>
+      <c r="AB56" s="45"/>
+      <c r="AC56" s="45"/>
+      <c r="AD56" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="57" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A57" s="50"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="55"/>
       <c r="D57" s="15" t="s">
         <v>61</v>
       </c>
@@ -5907,7 +6036,7 @@
       <c r="P57" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q57" s="50"/>
+      <c r="Q57" s="60"/>
       <c r="R57" s="45"/>
       <c r="S57" s="45"/>
       <c r="T57" s="45"/>
@@ -5918,14 +6047,16 @@
       <c r="Y57" s="45"/>
       <c r="Z57" s="45"/>
       <c r="AA57" s="45"/>
-      <c r="AB57" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="58" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A58" s="53"/>
-      <c r="B58" s="56"/>
-      <c r="C58" s="58"/>
+      <c r="AB57" s="45"/>
+      <c r="AC57" s="45"/>
+      <c r="AD57" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="58" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A58" s="50"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="55"/>
       <c r="D58" s="15" t="s">
         <v>64</v>
       </c>
@@ -5965,7 +6096,7 @@
       <c r="P58" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q58" s="50"/>
+      <c r="Q58" s="60"/>
       <c r="R58" s="45"/>
       <c r="S58" s="45"/>
       <c r="T58" s="45"/>
@@ -5976,14 +6107,16 @@
       <c r="Y58" s="45"/>
       <c r="Z58" s="45"/>
       <c r="AA58" s="45"/>
-      <c r="AB58" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="59" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A59" s="53"/>
-      <c r="B59" s="56"/>
-      <c r="C59" s="58"/>
+      <c r="AB58" s="45"/>
+      <c r="AC58" s="45"/>
+      <c r="AD58" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="59" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A59" s="50"/>
+      <c r="B59" s="53"/>
+      <c r="C59" s="55"/>
       <c r="D59" s="15" t="s">
         <v>67</v>
       </c>
@@ -6023,7 +6156,7 @@
       <c r="P59" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q59" s="50"/>
+      <c r="Q59" s="60"/>
       <c r="R59" s="45"/>
       <c r="S59" s="45"/>
       <c r="T59" s="45"/>
@@ -6034,14 +6167,16 @@
       <c r="Y59" s="45"/>
       <c r="Z59" s="45"/>
       <c r="AA59" s="45"/>
-      <c r="AB59" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="60" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="53"/>
-      <c r="B60" s="56"/>
-      <c r="C60" s="58"/>
+      <c r="AB59" s="45"/>
+      <c r="AC59" s="45"/>
+      <c r="AD59" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="60" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A60" s="50"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="55"/>
       <c r="D60" s="15" t="s">
         <v>69</v>
       </c>
@@ -6081,7 +6216,7 @@
       <c r="P60" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q60" s="50"/>
+      <c r="Q60" s="60"/>
       <c r="R60" s="45"/>
       <c r="S60" s="45"/>
       <c r="T60" s="45"/>
@@ -6092,14 +6227,16 @@
       <c r="Y60" s="45"/>
       <c r="Z60" s="45"/>
       <c r="AA60" s="45"/>
-      <c r="AB60" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="61" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="53"/>
-      <c r="B61" s="56"/>
-      <c r="C61" s="58"/>
+      <c r="AB60" s="45"/>
+      <c r="AC60" s="45"/>
+      <c r="AD60" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="61" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="50"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="55"/>
       <c r="D61" s="15" t="s">
         <v>72</v>
       </c>
@@ -6139,7 +6276,7 @@
       <c r="P61" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q61" s="50"/>
+      <c r="Q61" s="60"/>
       <c r="R61" s="45"/>
       <c r="S61" s="45"/>
       <c r="T61" s="45"/>
@@ -6150,14 +6287,16 @@
       <c r="Y61" s="45"/>
       <c r="Z61" s="45"/>
       <c r="AA61" s="45"/>
-      <c r="AB61" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="62" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="53"/>
-      <c r="B62" s="56"/>
-      <c r="C62" s="58"/>
+      <c r="AB61" s="45"/>
+      <c r="AC61" s="45"/>
+      <c r="AD61" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="62" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="50"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="55"/>
       <c r="D62" s="15" t="s">
         <v>75</v>
       </c>
@@ -6197,7 +6336,7 @@
       <c r="P62" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q62" s="50"/>
+      <c r="Q62" s="60"/>
       <c r="R62" s="45"/>
       <c r="S62" s="45"/>
       <c r="T62" s="45"/>
@@ -6208,14 +6347,16 @@
       <c r="Y62" s="45"/>
       <c r="Z62" s="45"/>
       <c r="AA62" s="45"/>
-      <c r="AB62" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="63" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="53"/>
-      <c r="B63" s="56"/>
-      <c r="C63" s="58"/>
+      <c r="AB62" s="45"/>
+      <c r="AC62" s="45"/>
+      <c r="AD62" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="63" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="50"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="55"/>
       <c r="D63" s="15" t="s">
         <v>78</v>
       </c>
@@ -6253,7 +6394,7 @@
       <c r="P63" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q63" s="50"/>
+      <c r="Q63" s="60"/>
       <c r="R63" s="45"/>
       <c r="S63" s="45"/>
       <c r="T63" s="45"/>
@@ -6264,14 +6405,16 @@
       <c r="Y63" s="45"/>
       <c r="Z63" s="45"/>
       <c r="AA63" s="45"/>
-      <c r="AB63" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="64" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A64" s="53"/>
-      <c r="B64" s="56"/>
-      <c r="C64" s="58"/>
+      <c r="AB63" s="45"/>
+      <c r="AC63" s="45"/>
+      <c r="AD63" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="64" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A64" s="50"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="55"/>
       <c r="D64" s="15" t="s">
         <v>81</v>
       </c>
@@ -6309,7 +6452,7 @@
       <c r="P64" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q64" s="50"/>
+      <c r="Q64" s="60"/>
       <c r="R64" s="45"/>
       <c r="S64" s="45"/>
       <c r="T64" s="45"/>
@@ -6320,14 +6463,16 @@
       <c r="Y64" s="45"/>
       <c r="Z64" s="45"/>
       <c r="AA64" s="45"/>
-      <c r="AB64" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="65" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A65" s="53"/>
-      <c r="B65" s="56"/>
-      <c r="C65" s="59" t="s">
+      <c r="AB64" s="45"/>
+      <c r="AC64" s="45"/>
+      <c r="AD64" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="65" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A65" s="50"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="56" t="s">
         <v>84</v>
       </c>
       <c r="D65" s="15" t="s">
@@ -6369,7 +6514,7 @@
       <c r="P65" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q65" s="50"/>
+      <c r="Q65" s="60"/>
       <c r="R65" s="45"/>
       <c r="S65" s="45"/>
       <c r="T65" s="45"/>
@@ -6380,14 +6525,16 @@
       <c r="Y65" s="45"/>
       <c r="Z65" s="45"/>
       <c r="AA65" s="45"/>
-      <c r="AB65" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="66" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A66" s="53"/>
-      <c r="B66" s="56"/>
-      <c r="C66" s="60"/>
+      <c r="AB65" s="45"/>
+      <c r="AC65" s="45"/>
+      <c r="AD65" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="66" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A66" s="50"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="57"/>
       <c r="D66" s="15" t="s">
         <v>87</v>
       </c>
@@ -6425,7 +6572,7 @@
       <c r="P66" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q66" s="50"/>
+      <c r="Q66" s="60"/>
       <c r="R66" s="45"/>
       <c r="S66" s="45"/>
       <c r="T66" s="45"/>
@@ -6436,14 +6583,16 @@
       <c r="Y66" s="45"/>
       <c r="Z66" s="45"/>
       <c r="AA66" s="45"/>
-      <c r="AB66" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="67" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A67" s="54"/>
-      <c r="B67" s="57"/>
-      <c r="C67" s="61"/>
+      <c r="AB66" s="45"/>
+      <c r="AC66" s="45"/>
+      <c r="AD66" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="67" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A67" s="51"/>
+      <c r="B67" s="54"/>
+      <c r="C67" s="58"/>
       <c r="D67" s="17" t="s">
         <v>89</v>
       </c>
@@ -6483,7 +6632,7 @@
       <c r="P67" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q67" s="50"/>
+      <c r="Q67" s="60"/>
       <c r="R67" s="45"/>
       <c r="S67" s="45"/>
       <c r="T67" s="45"/>
@@ -6494,15 +6643,17 @@
       <c r="Y67" s="45"/>
       <c r="Z67" s="45"/>
       <c r="AA67" s="45"/>
-      <c r="AB67" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="68" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="52">
+      <c r="AB67" s="45"/>
+      <c r="AC67" s="45"/>
+      <c r="AD67" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="68" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="49">
         <v>4</v>
       </c>
-      <c r="B68" s="55" t="s">
+      <c r="B68" s="52" t="s">
         <v>9</v>
       </c>
       <c r="C68" s="5" t="s">
@@ -6547,7 +6698,7 @@
       <c r="P68" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q68" s="50"/>
+      <c r="Q68" s="60"/>
       <c r="R68" s="45"/>
       <c r="S68" s="45"/>
       <c r="T68" s="45"/>
@@ -6558,14 +6709,16 @@
       <c r="Y68" s="45"/>
       <c r="Z68" s="45"/>
       <c r="AA68" s="45"/>
-      <c r="AB68" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="69" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A69" s="53"/>
-      <c r="B69" s="56"/>
-      <c r="C69" s="58" t="s">
+      <c r="AB68" s="45"/>
+      <c r="AC68" s="45"/>
+      <c r="AD68" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="69" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A69" s="50"/>
+      <c r="B69" s="53"/>
+      <c r="C69" s="55" t="s">
         <v>168</v>
       </c>
       <c r="D69" s="15" t="s">
@@ -6607,7 +6760,7 @@
       <c r="P69" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q69" s="50"/>
+      <c r="Q69" s="60"/>
       <c r="R69" s="45"/>
       <c r="S69" s="45"/>
       <c r="T69" s="45"/>
@@ -6618,14 +6771,16 @@
       <c r="Y69" s="45"/>
       <c r="Z69" s="45"/>
       <c r="AA69" s="45"/>
-      <c r="AB69" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="70" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A70" s="53"/>
-      <c r="B70" s="56"/>
-      <c r="C70" s="58"/>
+      <c r="AB69" s="45"/>
+      <c r="AC69" s="45"/>
+      <c r="AD69" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="70" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A70" s="50"/>
+      <c r="B70" s="53"/>
+      <c r="C70" s="55"/>
       <c r="D70" s="15" t="s">
         <v>33</v>
       </c>
@@ -6665,7 +6820,7 @@
       <c r="P70" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q70" s="50"/>
+      <c r="Q70" s="60"/>
       <c r="R70" s="45"/>
       <c r="S70" s="45"/>
       <c r="T70" s="45"/>
@@ -6676,14 +6831,16 @@
       <c r="Y70" s="45"/>
       <c r="Z70" s="45"/>
       <c r="AA70" s="45"/>
-      <c r="AB70" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="71" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A71" s="53"/>
-      <c r="B71" s="56"/>
-      <c r="C71" s="58"/>
+      <c r="AB70" s="45"/>
+      <c r="AC70" s="45"/>
+      <c r="AD70" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="71" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A71" s="50"/>
+      <c r="B71" s="53"/>
+      <c r="C71" s="55"/>
       <c r="D71" s="15" t="s">
         <v>36</v>
       </c>
@@ -6723,7 +6880,7 @@
       <c r="P71" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q71" s="50"/>
+      <c r="Q71" s="60"/>
       <c r="R71" s="45"/>
       <c r="S71" s="45"/>
       <c r="T71" s="45"/>
@@ -6734,14 +6891,16 @@
       <c r="Y71" s="45"/>
       <c r="Z71" s="45"/>
       <c r="AA71" s="45"/>
-      <c r="AB71" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="72" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A72" s="53"/>
-      <c r="B72" s="56"/>
-      <c r="C72" s="58"/>
+      <c r="AB71" s="45"/>
+      <c r="AC71" s="45"/>
+      <c r="AD71" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="72" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A72" s="50"/>
+      <c r="B72" s="53"/>
+      <c r="C72" s="55"/>
       <c r="D72" s="15" t="s">
         <v>38</v>
       </c>
@@ -6781,7 +6940,7 @@
       <c r="P72" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q72" s="50"/>
+      <c r="Q72" s="60"/>
       <c r="R72" s="45"/>
       <c r="S72" s="45"/>
       <c r="T72" s="45"/>
@@ -6792,14 +6951,16 @@
       <c r="Y72" s="45"/>
       <c r="Z72" s="45"/>
       <c r="AA72" s="45"/>
-      <c r="AB72" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="73" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A73" s="53"/>
-      <c r="B73" s="56"/>
-      <c r="C73" s="58"/>
+      <c r="AB72" s="45"/>
+      <c r="AC72" s="45"/>
+      <c r="AD72" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="73" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A73" s="50"/>
+      <c r="B73" s="53"/>
+      <c r="C73" s="55"/>
       <c r="D73" s="15" t="s">
         <v>41</v>
       </c>
@@ -6839,7 +7000,7 @@
       <c r="P73" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q73" s="50"/>
+      <c r="Q73" s="60"/>
       <c r="R73" s="45"/>
       <c r="S73" s="45"/>
       <c r="T73" s="45"/>
@@ -6850,14 +7011,16 @@
       <c r="Y73" s="45"/>
       <c r="Z73" s="45"/>
       <c r="AA73" s="45"/>
-      <c r="AB73" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="74" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A74" s="53"/>
-      <c r="B74" s="56"/>
-      <c r="C74" s="58"/>
+      <c r="AB73" s="45"/>
+      <c r="AC73" s="45"/>
+      <c r="AD73" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="74" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A74" s="50"/>
+      <c r="B74" s="53"/>
+      <c r="C74" s="55"/>
       <c r="D74" s="15" t="s">
         <v>44</v>
       </c>
@@ -6897,7 +7060,7 @@
       <c r="P74" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q74" s="50"/>
+      <c r="Q74" s="60"/>
       <c r="R74" s="45"/>
       <c r="S74" s="45"/>
       <c r="T74" s="45"/>
@@ -6908,14 +7071,16 @@
       <c r="Y74" s="45"/>
       <c r="Z74" s="45"/>
       <c r="AA74" s="45"/>
-      <c r="AB74" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="75" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A75" s="53"/>
-      <c r="B75" s="56"/>
-      <c r="C75" s="58"/>
+      <c r="AB74" s="45"/>
+      <c r="AC74" s="45"/>
+      <c r="AD74" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="75" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A75" s="50"/>
+      <c r="B75" s="53"/>
+      <c r="C75" s="55"/>
       <c r="D75" s="15" t="s">
         <v>47</v>
       </c>
@@ -6955,7 +7120,7 @@
       <c r="P75" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q75" s="50"/>
+      <c r="Q75" s="60"/>
       <c r="R75" s="45"/>
       <c r="S75" s="45"/>
       <c r="T75" s="45"/>
@@ -6966,14 +7131,16 @@
       <c r="Y75" s="45"/>
       <c r="Z75" s="45"/>
       <c r="AA75" s="45"/>
-      <c r="AB75" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="76" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A76" s="53"/>
-      <c r="B76" s="56"/>
-      <c r="C76" s="58"/>
+      <c r="AB75" s="45"/>
+      <c r="AC75" s="45"/>
+      <c r="AD75" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="76" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A76" s="50"/>
+      <c r="B76" s="53"/>
+      <c r="C76" s="55"/>
       <c r="D76" s="15" t="s">
         <v>47</v>
       </c>
@@ -7013,7 +7180,7 @@
       <c r="P76" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q76" s="50"/>
+      <c r="Q76" s="60"/>
       <c r="R76" s="45"/>
       <c r="S76" s="45"/>
       <c r="T76" s="45"/>
@@ -7024,14 +7191,16 @@
       <c r="Y76" s="45"/>
       <c r="Z76" s="45"/>
       <c r="AA76" s="45"/>
-      <c r="AB76" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="77" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A77" s="53"/>
-      <c r="B77" s="56"/>
-      <c r="C77" s="58"/>
+      <c r="AB76" s="45"/>
+      <c r="AC76" s="45"/>
+      <c r="AD76" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="77" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A77" s="50"/>
+      <c r="B77" s="53"/>
+      <c r="C77" s="55"/>
       <c r="D77" s="15" t="s">
         <v>47</v>
       </c>
@@ -7071,7 +7240,7 @@
       <c r="P77" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q77" s="50"/>
+      <c r="Q77" s="60"/>
       <c r="R77" s="45"/>
       <c r="S77" s="45"/>
       <c r="T77" s="45"/>
@@ -7082,14 +7251,16 @@
       <c r="Y77" s="45"/>
       <c r="Z77" s="45"/>
       <c r="AA77" s="45"/>
-      <c r="AB77" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="78" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A78" s="53"/>
-      <c r="B78" s="56"/>
-      <c r="C78" s="58"/>
+      <c r="AB77" s="45"/>
+      <c r="AC77" s="45"/>
+      <c r="AD77" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="78" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A78" s="50"/>
+      <c r="B78" s="53"/>
+      <c r="C78" s="55"/>
       <c r="D78" s="15" t="s">
         <v>47</v>
       </c>
@@ -7129,7 +7300,7 @@
       <c r="P78" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q78" s="50"/>
+      <c r="Q78" s="60"/>
       <c r="R78" s="45"/>
       <c r="S78" s="45"/>
       <c r="T78" s="45"/>
@@ -7140,14 +7311,16 @@
       <c r="Y78" s="45"/>
       <c r="Z78" s="45"/>
       <c r="AA78" s="45"/>
-      <c r="AB78" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="79" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A79" s="53"/>
-      <c r="B79" s="56"/>
-      <c r="C79" s="58"/>
+      <c r="AB78" s="45"/>
+      <c r="AC78" s="45"/>
+      <c r="AD78" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="79" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A79" s="50"/>
+      <c r="B79" s="53"/>
+      <c r="C79" s="55"/>
       <c r="D79" s="15" t="s">
         <v>47</v>
       </c>
@@ -7187,7 +7360,7 @@
       <c r="P79" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q79" s="50"/>
+      <c r="Q79" s="60"/>
       <c r="R79" s="45"/>
       <c r="S79" s="45"/>
       <c r="T79" s="45"/>
@@ -7198,14 +7371,16 @@
       <c r="Y79" s="45"/>
       <c r="Z79" s="45"/>
       <c r="AA79" s="45"/>
-      <c r="AB79" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="80" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A80" s="53"/>
-      <c r="B80" s="56"/>
-      <c r="C80" s="58"/>
+      <c r="AB79" s="45"/>
+      <c r="AC79" s="45"/>
+      <c r="AD79" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="80" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A80" s="50"/>
+      <c r="B80" s="53"/>
+      <c r="C80" s="55"/>
       <c r="D80" s="15" t="s">
         <v>47</v>
       </c>
@@ -7245,7 +7420,7 @@
       <c r="P80" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q80" s="50"/>
+      <c r="Q80" s="60"/>
       <c r="R80" s="45"/>
       <c r="S80" s="45"/>
       <c r="T80" s="45"/>
@@ -7256,14 +7431,16 @@
       <c r="Y80" s="45"/>
       <c r="Z80" s="45"/>
       <c r="AA80" s="45"/>
-      <c r="AB80" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="81" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A81" s="53"/>
-      <c r="B81" s="56"/>
-      <c r="C81" s="58"/>
+      <c r="AB80" s="45"/>
+      <c r="AC80" s="45"/>
+      <c r="AD80" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="81" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A81" s="50"/>
+      <c r="B81" s="53"/>
+      <c r="C81" s="55"/>
       <c r="D81" s="15" t="s">
         <v>61</v>
       </c>
@@ -7303,7 +7480,7 @@
       <c r="P81" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q81" s="50"/>
+      <c r="Q81" s="60"/>
       <c r="R81" s="45"/>
       <c r="S81" s="45"/>
       <c r="T81" s="45"/>
@@ -7314,14 +7491,16 @@
       <c r="Y81" s="45"/>
       <c r="Z81" s="45"/>
       <c r="AA81" s="45"/>
-      <c r="AB81" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A82" s="53"/>
-      <c r="B82" s="56"/>
-      <c r="C82" s="58"/>
+      <c r="AB81" s="45"/>
+      <c r="AC81" s="45"/>
+      <c r="AD81" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="82" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A82" s="50"/>
+      <c r="B82" s="53"/>
+      <c r="C82" s="55"/>
       <c r="D82" s="15" t="s">
         <v>64</v>
       </c>
@@ -7361,7 +7540,7 @@
       <c r="P82" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q82" s="50"/>
+      <c r="Q82" s="60"/>
       <c r="R82" s="45"/>
       <c r="S82" s="45"/>
       <c r="T82" s="45"/>
@@ -7372,14 +7551,16 @@
       <c r="Y82" s="45"/>
       <c r="Z82" s="45"/>
       <c r="AA82" s="45"/>
-      <c r="AB82" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="83" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A83" s="53"/>
-      <c r="B83" s="56"/>
-      <c r="C83" s="58"/>
+      <c r="AB82" s="45"/>
+      <c r="AC82" s="45"/>
+      <c r="AD82" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="83" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A83" s="50"/>
+      <c r="B83" s="53"/>
+      <c r="C83" s="55"/>
       <c r="D83" s="15" t="s">
         <v>67</v>
       </c>
@@ -7419,7 +7600,7 @@
       <c r="P83" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q83" s="50"/>
+      <c r="Q83" s="60"/>
       <c r="R83" s="45"/>
       <c r="S83" s="45"/>
       <c r="T83" s="45"/>
@@ -7430,14 +7611,16 @@
       <c r="Y83" s="45"/>
       <c r="Z83" s="45"/>
       <c r="AA83" s="45"/>
-      <c r="AB83" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="84" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="53"/>
-      <c r="B84" s="56"/>
-      <c r="C84" s="58"/>
+      <c r="AB83" s="45"/>
+      <c r="AC83" s="45"/>
+      <c r="AD83" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="84" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A84" s="50"/>
+      <c r="B84" s="53"/>
+      <c r="C84" s="55"/>
       <c r="D84" s="15" t="s">
         <v>69</v>
       </c>
@@ -7477,7 +7660,7 @@
       <c r="P84" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q84" s="50"/>
+      <c r="Q84" s="60"/>
       <c r="R84" s="45"/>
       <c r="S84" s="45"/>
       <c r="T84" s="45"/>
@@ -7488,14 +7671,16 @@
       <c r="Y84" s="45"/>
       <c r="Z84" s="45"/>
       <c r="AA84" s="45"/>
-      <c r="AB84" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="85" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="53"/>
-      <c r="B85" s="56"/>
-      <c r="C85" s="58"/>
+      <c r="AB84" s="45"/>
+      <c r="AC84" s="45"/>
+      <c r="AD84" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="85" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A85" s="50"/>
+      <c r="B85" s="53"/>
+      <c r="C85" s="55"/>
       <c r="D85" s="15" t="s">
         <v>72</v>
       </c>
@@ -7535,7 +7720,7 @@
       <c r="P85" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q85" s="50"/>
+      <c r="Q85" s="60"/>
       <c r="R85" s="45"/>
       <c r="S85" s="45"/>
       <c r="T85" s="45"/>
@@ -7546,14 +7731,16 @@
       <c r="Y85" s="45"/>
       <c r="Z85" s="45"/>
       <c r="AA85" s="45"/>
-      <c r="AB85" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="86" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="53"/>
-      <c r="B86" s="56"/>
-      <c r="C86" s="58"/>
+      <c r="AB85" s="45"/>
+      <c r="AC85" s="45"/>
+      <c r="AD85" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="86" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="50"/>
+      <c r="B86" s="53"/>
+      <c r="C86" s="55"/>
       <c r="D86" s="15" t="s">
         <v>75</v>
       </c>
@@ -7593,7 +7780,7 @@
       <c r="P86" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q86" s="50"/>
+      <c r="Q86" s="60"/>
       <c r="R86" s="45"/>
       <c r="S86" s="45"/>
       <c r="T86" s="45"/>
@@ -7604,14 +7791,16 @@
       <c r="Y86" s="45"/>
       <c r="Z86" s="45"/>
       <c r="AA86" s="45"/>
-      <c r="AB86" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="87" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="53"/>
-      <c r="B87" s="56"/>
-      <c r="C87" s="58"/>
+      <c r="AB86" s="45"/>
+      <c r="AC86" s="45"/>
+      <c r="AD86" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="87" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A87" s="50"/>
+      <c r="B87" s="53"/>
+      <c r="C87" s="55"/>
       <c r="D87" s="15" t="s">
         <v>78</v>
       </c>
@@ -7649,7 +7838,7 @@
       <c r="P87" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q87" s="50"/>
+      <c r="Q87" s="60"/>
       <c r="R87" s="45"/>
       <c r="S87" s="45"/>
       <c r="T87" s="45"/>
@@ -7660,14 +7849,16 @@
       <c r="Y87" s="45"/>
       <c r="Z87" s="45"/>
       <c r="AA87" s="45"/>
-      <c r="AB87" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A88" s="53"/>
-      <c r="B88" s="56"/>
-      <c r="C88" s="58"/>
+      <c r="AB87" s="45"/>
+      <c r="AC87" s="45"/>
+      <c r="AD87" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="88" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A88" s="50"/>
+      <c r="B88" s="53"/>
+      <c r="C88" s="55"/>
       <c r="D88" s="15" t="s">
         <v>81</v>
       </c>
@@ -7705,7 +7896,7 @@
       <c r="P88" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q88" s="50"/>
+      <c r="Q88" s="60"/>
       <c r="R88" s="45"/>
       <c r="S88" s="45"/>
       <c r="T88" s="45"/>
@@ -7716,14 +7907,16 @@
       <c r="Y88" s="45"/>
       <c r="Z88" s="45"/>
       <c r="AA88" s="45"/>
-      <c r="AB88" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A89" s="53"/>
-      <c r="B89" s="56"/>
-      <c r="C89" s="59" t="s">
+      <c r="AB88" s="45"/>
+      <c r="AC88" s="45"/>
+      <c r="AD88" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="89" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A89" s="50"/>
+      <c r="B89" s="53"/>
+      <c r="C89" s="56" t="s">
         <v>84</v>
       </c>
       <c r="D89" s="15" t="s">
@@ -7765,7 +7958,7 @@
       <c r="P89" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q89" s="50"/>
+      <c r="Q89" s="60"/>
       <c r="R89" s="45"/>
       <c r="S89" s="45"/>
       <c r="T89" s="45"/>
@@ -7776,14 +7969,16 @@
       <c r="Y89" s="45"/>
       <c r="Z89" s="45"/>
       <c r="AA89" s="45"/>
-      <c r="AB89" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="90" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A90" s="53"/>
-      <c r="B90" s="56"/>
-      <c r="C90" s="60"/>
+      <c r="AB89" s="45"/>
+      <c r="AC89" s="45"/>
+      <c r="AD89" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="90" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A90" s="50"/>
+      <c r="B90" s="53"/>
+      <c r="C90" s="57"/>
       <c r="D90" s="15" t="s">
         <v>87</v>
       </c>
@@ -7821,7 +8016,7 @@
       <c r="P90" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q90" s="50"/>
+      <c r="Q90" s="60"/>
       <c r="R90" s="45"/>
       <c r="S90" s="45"/>
       <c r="T90" s="45"/>
@@ -7832,14 +8027,16 @@
       <c r="Y90" s="45"/>
       <c r="Z90" s="45"/>
       <c r="AA90" s="45"/>
-      <c r="AB90" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A91" s="54"/>
-      <c r="B91" s="57"/>
-      <c r="C91" s="61"/>
+      <c r="AB90" s="45"/>
+      <c r="AC90" s="45"/>
+      <c r="AD90" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="91" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A91" s="51"/>
+      <c r="B91" s="54"/>
+      <c r="C91" s="58"/>
       <c r="D91" s="17" t="s">
         <v>89</v>
       </c>
@@ -7879,7 +8076,7 @@
       <c r="P91" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q91" s="50"/>
+      <c r="Q91" s="60"/>
       <c r="R91" s="45"/>
       <c r="S91" s="45"/>
       <c r="T91" s="45"/>
@@ -7890,18 +8087,20 @@
       <c r="Y91" s="45"/>
       <c r="Z91" s="45"/>
       <c r="AA91" s="45"/>
-      <c r="AB91" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A92" s="52">
+      <c r="AB91" s="45"/>
+      <c r="AC91" s="45"/>
+      <c r="AD91" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="92" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A92" s="49">
         <v>5</v>
       </c>
-      <c r="B92" s="55" t="s">
+      <c r="B92" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="C92" s="58" t="s">
+      <c r="C92" s="55" t="s">
         <v>195</v>
       </c>
       <c r="D92" s="6" t="s">
@@ -7943,7 +8142,7 @@
       <c r="P92" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q92" s="50"/>
+      <c r="Q92" s="60"/>
       <c r="R92" s="45"/>
       <c r="S92" s="45"/>
       <c r="T92" s="45"/>
@@ -7954,14 +8153,16 @@
       <c r="Y92" s="45"/>
       <c r="Z92" s="45"/>
       <c r="AA92" s="45"/>
-      <c r="AB92" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A93" s="53"/>
-      <c r="B93" s="56"/>
-      <c r="C93" s="58"/>
+      <c r="AB92" s="45"/>
+      <c r="AC92" s="45"/>
+      <c r="AD92" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="93" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A93" s="50"/>
+      <c r="B93" s="53"/>
+      <c r="C93" s="55"/>
       <c r="D93" s="6" t="s">
         <v>198</v>
       </c>
@@ -8001,7 +8202,7 @@
       <c r="P93" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q93" s="50"/>
+      <c r="Q93" s="60"/>
       <c r="R93" s="45"/>
       <c r="S93" s="45"/>
       <c r="T93" s="45"/>
@@ -8012,14 +8213,16 @@
       <c r="Y93" s="45"/>
       <c r="Z93" s="45"/>
       <c r="AA93" s="45"/>
-      <c r="AB93" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A94" s="53"/>
-      <c r="B94" s="56"/>
-      <c r="C94" s="58"/>
+      <c r="AB93" s="45"/>
+      <c r="AC93" s="45"/>
+      <c r="AD93" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="94" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A94" s="50"/>
+      <c r="B94" s="53"/>
+      <c r="C94" s="55"/>
       <c r="D94" s="6" t="s">
         <v>200</v>
       </c>
@@ -8059,7 +8262,7 @@
       <c r="P94" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q94" s="50"/>
+      <c r="Q94" s="60"/>
       <c r="R94" s="45"/>
       <c r="S94" s="45"/>
       <c r="T94" s="45"/>
@@ -8070,14 +8273,16 @@
       <c r="Y94" s="45"/>
       <c r="Z94" s="45"/>
       <c r="AA94" s="45"/>
-      <c r="AB94" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="95" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A95" s="53"/>
-      <c r="B95" s="56"/>
-      <c r="C95" s="58"/>
+      <c r="AB94" s="45"/>
+      <c r="AC94" s="45"/>
+      <c r="AD94" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="95" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A95" s="50"/>
+      <c r="B95" s="53"/>
+      <c r="C95" s="55"/>
       <c r="D95" s="6" t="s">
         <v>203</v>
       </c>
@@ -8117,7 +8322,7 @@
       <c r="P95" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q95" s="50"/>
+      <c r="Q95" s="60"/>
       <c r="R95" s="45"/>
       <c r="S95" s="45"/>
       <c r="T95" s="45"/>
@@ -8128,14 +8333,16 @@
       <c r="Y95" s="45"/>
       <c r="Z95" s="45"/>
       <c r="AA95" s="45"/>
-      <c r="AB95" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="96" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A96" s="53"/>
-      <c r="B96" s="56"/>
-      <c r="C96" s="58"/>
+      <c r="AB95" s="45"/>
+      <c r="AC95" s="45"/>
+      <c r="AD95" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="96" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A96" s="50"/>
+      <c r="B96" s="53"/>
+      <c r="C96" s="55"/>
       <c r="D96" s="6" t="s">
         <v>206</v>
       </c>
@@ -8175,7 +8382,7 @@
       <c r="P96" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q96" s="50"/>
+      <c r="Q96" s="60"/>
       <c r="R96" s="45"/>
       <c r="S96" s="45"/>
       <c r="T96" s="45"/>
@@ -8186,14 +8393,16 @@
       <c r="Y96" s="45"/>
       <c r="Z96" s="45"/>
       <c r="AA96" s="45"/>
-      <c r="AB96" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="97" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A97" s="53"/>
-      <c r="B97" s="56"/>
-      <c r="C97" s="58" t="s">
+      <c r="AB96" s="45"/>
+      <c r="AC96" s="45"/>
+      <c r="AD96" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="97" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A97" s="50"/>
+      <c r="B97" s="53"/>
+      <c r="C97" s="55" t="s">
         <v>209</v>
       </c>
       <c r="D97" s="15" t="s">
@@ -8235,7 +8444,7 @@
       <c r="P97" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q97" s="50"/>
+      <c r="Q97" s="60"/>
       <c r="R97" s="45"/>
       <c r="S97" s="45"/>
       <c r="T97" s="45"/>
@@ -8246,14 +8455,16 @@
       <c r="Y97" s="45"/>
       <c r="Z97" s="45"/>
       <c r="AA97" s="45"/>
-      <c r="AB97" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="98" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A98" s="53"/>
-      <c r="B98" s="56"/>
-      <c r="C98" s="58"/>
+      <c r="AB97" s="45"/>
+      <c r="AC97" s="45"/>
+      <c r="AD97" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="98" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A98" s="50"/>
+      <c r="B98" s="53"/>
+      <c r="C98" s="55"/>
       <c r="D98" s="15" t="s">
         <v>33</v>
       </c>
@@ -8293,7 +8504,7 @@
       <c r="P98" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q98" s="50"/>
+      <c r="Q98" s="60"/>
       <c r="R98" s="45"/>
       <c r="S98" s="45"/>
       <c r="T98" s="45"/>
@@ -8304,14 +8515,16 @@
       <c r="Y98" s="45"/>
       <c r="Z98" s="45"/>
       <c r="AA98" s="45"/>
-      <c r="AB98" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="99" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A99" s="53"/>
-      <c r="B99" s="56"/>
-      <c r="C99" s="58"/>
+      <c r="AB98" s="45"/>
+      <c r="AC98" s="45"/>
+      <c r="AD98" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="99" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A99" s="50"/>
+      <c r="B99" s="53"/>
+      <c r="C99" s="55"/>
       <c r="D99" s="15" t="s">
         <v>36</v>
       </c>
@@ -8351,7 +8564,7 @@
       <c r="P99" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q99" s="50"/>
+      <c r="Q99" s="60"/>
       <c r="R99" s="45"/>
       <c r="S99" s="45"/>
       <c r="T99" s="45"/>
@@ -8362,14 +8575,16 @@
       <c r="Y99" s="45"/>
       <c r="Z99" s="45"/>
       <c r="AA99" s="45"/>
-      <c r="AB99" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="100" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A100" s="53"/>
-      <c r="B100" s="56"/>
-      <c r="C100" s="58"/>
+      <c r="AB99" s="45"/>
+      <c r="AC99" s="45"/>
+      <c r="AD99" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="100" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A100" s="50"/>
+      <c r="B100" s="53"/>
+      <c r="C100" s="55"/>
       <c r="D100" s="15" t="s">
         <v>38</v>
       </c>
@@ -8409,7 +8624,7 @@
       <c r="P100" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q100" s="50"/>
+      <c r="Q100" s="60"/>
       <c r="R100" s="45"/>
       <c r="S100" s="45"/>
       <c r="T100" s="45"/>
@@ -8420,14 +8635,16 @@
       <c r="Y100" s="45"/>
       <c r="Z100" s="45"/>
       <c r="AA100" s="45"/>
-      <c r="AB100" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="101" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A101" s="53"/>
-      <c r="B101" s="56"/>
-      <c r="C101" s="58"/>
+      <c r="AB100" s="45"/>
+      <c r="AC100" s="45"/>
+      <c r="AD100" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="101" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A101" s="50"/>
+      <c r="B101" s="53"/>
+      <c r="C101" s="55"/>
       <c r="D101" s="15" t="s">
         <v>41</v>
       </c>
@@ -8467,7 +8684,7 @@
       <c r="P101" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q101" s="50"/>
+      <c r="Q101" s="60"/>
       <c r="R101" s="45"/>
       <c r="S101" s="45"/>
       <c r="T101" s="45"/>
@@ -8478,14 +8695,16 @@
       <c r="Y101" s="45"/>
       <c r="Z101" s="45"/>
       <c r="AA101" s="45"/>
-      <c r="AB101" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="102" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A102" s="53"/>
-      <c r="B102" s="56"/>
-      <c r="C102" s="58"/>
+      <c r="AB101" s="45"/>
+      <c r="AC101" s="45"/>
+      <c r="AD101" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="102" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A102" s="50"/>
+      <c r="B102" s="53"/>
+      <c r="C102" s="55"/>
       <c r="D102" s="15" t="s">
         <v>44</v>
       </c>
@@ -8525,7 +8744,7 @@
       <c r="P102" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q102" s="50"/>
+      <c r="Q102" s="60"/>
       <c r="R102" s="45"/>
       <c r="S102" s="45"/>
       <c r="T102" s="45"/>
@@ -8536,14 +8755,16 @@
       <c r="Y102" s="45"/>
       <c r="Z102" s="45"/>
       <c r="AA102" s="45"/>
-      <c r="AB102" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="103" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A103" s="53"/>
-      <c r="B103" s="56"/>
-      <c r="C103" s="58"/>
+      <c r="AB102" s="45"/>
+      <c r="AC102" s="45"/>
+      <c r="AD102" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="103" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A103" s="50"/>
+      <c r="B103" s="53"/>
+      <c r="C103" s="55"/>
       <c r="D103" s="15" t="s">
         <v>47</v>
       </c>
@@ -8583,7 +8804,7 @@
       <c r="P103" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q103" s="50"/>
+      <c r="Q103" s="60"/>
       <c r="R103" s="45"/>
       <c r="S103" s="45"/>
       <c r="T103" s="45"/>
@@ -8594,14 +8815,16 @@
       <c r="Y103" s="45"/>
       <c r="Z103" s="45"/>
       <c r="AA103" s="45"/>
-      <c r="AB103" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="104" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A104" s="53"/>
-      <c r="B104" s="56"/>
-      <c r="C104" s="58"/>
+      <c r="AB103" s="45"/>
+      <c r="AC103" s="45"/>
+      <c r="AD103" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="104" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A104" s="50"/>
+      <c r="B104" s="53"/>
+      <c r="C104" s="55"/>
       <c r="D104" s="15" t="s">
         <v>47</v>
       </c>
@@ -8641,7 +8864,7 @@
       <c r="P104" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q104" s="50"/>
+      <c r="Q104" s="60"/>
       <c r="R104" s="45"/>
       <c r="S104" s="45"/>
       <c r="T104" s="45"/>
@@ -8652,14 +8875,16 @@
       <c r="Y104" s="45"/>
       <c r="Z104" s="45"/>
       <c r="AA104" s="45"/>
-      <c r="AB104" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="105" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A105" s="53"/>
-      <c r="B105" s="56"/>
-      <c r="C105" s="58"/>
+      <c r="AB104" s="45"/>
+      <c r="AC104" s="45"/>
+      <c r="AD104" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="105" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A105" s="50"/>
+      <c r="B105" s="53"/>
+      <c r="C105" s="55"/>
       <c r="D105" s="15" t="s">
         <v>47</v>
       </c>
@@ -8699,7 +8924,7 @@
       <c r="P105" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q105" s="50"/>
+      <c r="Q105" s="60"/>
       <c r="R105" s="45"/>
       <c r="S105" s="45"/>
       <c r="T105" s="45"/>
@@ -8710,14 +8935,16 @@
       <c r="Y105" s="45"/>
       <c r="Z105" s="45"/>
       <c r="AA105" s="45"/>
-      <c r="AB105" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="106" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A106" s="53"/>
-      <c r="B106" s="56"/>
-      <c r="C106" s="58"/>
+      <c r="AB105" s="45"/>
+      <c r="AC105" s="45"/>
+      <c r="AD105" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="106" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A106" s="50"/>
+      <c r="B106" s="53"/>
+      <c r="C106" s="55"/>
       <c r="D106" s="15" t="s">
         <v>61</v>
       </c>
@@ -8757,7 +8984,7 @@
       <c r="P106" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q106" s="50"/>
+      <c r="Q106" s="60"/>
       <c r="R106" s="45"/>
       <c r="S106" s="45"/>
       <c r="T106" s="45"/>
@@ -8768,14 +8995,16 @@
       <c r="Y106" s="45"/>
       <c r="Z106" s="45"/>
       <c r="AA106" s="45"/>
-      <c r="AB106" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="107" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A107" s="53"/>
-      <c r="B107" s="56"/>
-      <c r="C107" s="58"/>
+      <c r="AB106" s="45"/>
+      <c r="AC106" s="45"/>
+      <c r="AD106" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="107" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A107" s="50"/>
+      <c r="B107" s="53"/>
+      <c r="C107" s="55"/>
       <c r="D107" s="15" t="s">
         <v>64</v>
       </c>
@@ -8815,7 +9044,7 @@
       <c r="P107" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q107" s="50"/>
+      <c r="Q107" s="60"/>
       <c r="R107" s="45"/>
       <c r="S107" s="45"/>
       <c r="T107" s="45"/>
@@ -8826,14 +9055,16 @@
       <c r="Y107" s="45"/>
       <c r="Z107" s="45"/>
       <c r="AA107" s="45"/>
-      <c r="AB107" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="108" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A108" s="53"/>
-      <c r="B108" s="56"/>
-      <c r="C108" s="58"/>
+      <c r="AB107" s="45"/>
+      <c r="AC107" s="45"/>
+      <c r="AD107" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="108" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A108" s="50"/>
+      <c r="B108" s="53"/>
+      <c r="C108" s="55"/>
       <c r="D108" s="15" t="s">
         <v>67</v>
       </c>
@@ -8873,7 +9104,7 @@
       <c r="P108" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q108" s="50"/>
+      <c r="Q108" s="60"/>
       <c r="R108" s="45"/>
       <c r="S108" s="45"/>
       <c r="T108" s="45"/>
@@ -8884,14 +9115,16 @@
       <c r="Y108" s="45"/>
       <c r="Z108" s="45"/>
       <c r="AA108" s="45"/>
-      <c r="AB108" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="109" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109" s="53"/>
-      <c r="B109" s="56"/>
-      <c r="C109" s="58"/>
+      <c r="AB108" s="45"/>
+      <c r="AC108" s="45"/>
+      <c r="AD108" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="109" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="50"/>
+      <c r="B109" s="53"/>
+      <c r="C109" s="55"/>
       <c r="D109" s="15" t="s">
         <v>69</v>
       </c>
@@ -8931,7 +9164,7 @@
       <c r="P109" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q109" s="50"/>
+      <c r="Q109" s="60"/>
       <c r="R109" s="45"/>
       <c r="S109" s="45"/>
       <c r="T109" s="45"/>
@@ -8942,14 +9175,16 @@
       <c r="Y109" s="45"/>
       <c r="Z109" s="45"/>
       <c r="AA109" s="45"/>
-      <c r="AB109" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="110" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="53"/>
-      <c r="B110" s="56"/>
-      <c r="C110" s="58"/>
+      <c r="AB109" s="45"/>
+      <c r="AC109" s="45"/>
+      <c r="AD109" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="110" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="50"/>
+      <c r="B110" s="53"/>
+      <c r="C110" s="55"/>
       <c r="D110" s="15" t="s">
         <v>72</v>
       </c>
@@ -8989,7 +9224,7 @@
       <c r="P110" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q110" s="50"/>
+      <c r="Q110" s="60"/>
       <c r="R110" s="45"/>
       <c r="S110" s="45"/>
       <c r="T110" s="45"/>
@@ -9000,14 +9235,16 @@
       <c r="Y110" s="45"/>
       <c r="Z110" s="45"/>
       <c r="AA110" s="45"/>
-      <c r="AB110" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="111" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="53"/>
-      <c r="B111" s="56"/>
-      <c r="C111" s="58"/>
+      <c r="AB110" s="45"/>
+      <c r="AC110" s="45"/>
+      <c r="AD110" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="111" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" s="50"/>
+      <c r="B111" s="53"/>
+      <c r="C111" s="55"/>
       <c r="D111" s="15" t="s">
         <v>75</v>
       </c>
@@ -9047,7 +9284,7 @@
       <c r="P111" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q111" s="50"/>
+      <c r="Q111" s="60"/>
       <c r="R111" s="45"/>
       <c r="S111" s="45"/>
       <c r="T111" s="45"/>
@@ -9058,14 +9295,16 @@
       <c r="Y111" s="45"/>
       <c r="Z111" s="45"/>
       <c r="AA111" s="45"/>
-      <c r="AB111" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="112" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112" s="53"/>
-      <c r="B112" s="56"/>
-      <c r="C112" s="58"/>
+      <c r="AB111" s="45"/>
+      <c r="AC111" s="45"/>
+      <c r="AD111" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="112" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112" s="50"/>
+      <c r="B112" s="53"/>
+      <c r="C112" s="55"/>
       <c r="D112" s="15" t="s">
         <v>78</v>
       </c>
@@ -9103,7 +9342,7 @@
       <c r="P112" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q112" s="50"/>
+      <c r="Q112" s="60"/>
       <c r="R112" s="45"/>
       <c r="S112" s="45"/>
       <c r="T112" s="45"/>
@@ -9114,14 +9353,16 @@
       <c r="Y112" s="45"/>
       <c r="Z112" s="45"/>
       <c r="AA112" s="45"/>
-      <c r="AB112" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="113" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A113" s="53"/>
-      <c r="B113" s="56"/>
-      <c r="C113" s="58"/>
+      <c r="AB112" s="45"/>
+      <c r="AC112" s="45"/>
+      <c r="AD112" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="113" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A113" s="50"/>
+      <c r="B113" s="53"/>
+      <c r="C113" s="55"/>
       <c r="D113" s="15" t="s">
         <v>81</v>
       </c>
@@ -9159,7 +9400,7 @@
       <c r="P113" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q113" s="50"/>
+      <c r="Q113" s="60"/>
       <c r="R113" s="45"/>
       <c r="S113" s="45"/>
       <c r="T113" s="45"/>
@@ -9170,14 +9411,16 @@
       <c r="Y113" s="45"/>
       <c r="Z113" s="45"/>
       <c r="AA113" s="45"/>
-      <c r="AB113" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="114" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A114" s="53"/>
-      <c r="B114" s="56"/>
-      <c r="C114" s="59" t="s">
+      <c r="AB113" s="45"/>
+      <c r="AC113" s="45"/>
+      <c r="AD113" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="114" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A114" s="50"/>
+      <c r="B114" s="53"/>
+      <c r="C114" s="56" t="s">
         <v>84</v>
       </c>
       <c r="D114" s="15" t="s">
@@ -9219,7 +9462,7 @@
       <c r="P114" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q114" s="50"/>
+      <c r="Q114" s="60"/>
       <c r="R114" s="45"/>
       <c r="S114" s="45"/>
       <c r="T114" s="45"/>
@@ -9230,14 +9473,16 @@
       <c r="Y114" s="45"/>
       <c r="Z114" s="45"/>
       <c r="AA114" s="45"/>
-      <c r="AB114" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="115" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A115" s="53"/>
-      <c r="B115" s="56"/>
-      <c r="C115" s="60"/>
+      <c r="AB114" s="45"/>
+      <c r="AC114" s="45"/>
+      <c r="AD114" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="115" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A115" s="50"/>
+      <c r="B115" s="53"/>
+      <c r="C115" s="57"/>
       <c r="D115" s="15" t="s">
         <v>87</v>
       </c>
@@ -9275,7 +9520,7 @@
       <c r="P115" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q115" s="50"/>
+      <c r="Q115" s="60"/>
       <c r="R115" s="45"/>
       <c r="S115" s="45"/>
       <c r="T115" s="45"/>
@@ -9286,14 +9531,16 @@
       <c r="Y115" s="45"/>
       <c r="Z115" s="45"/>
       <c r="AA115" s="45"/>
-      <c r="AB115" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="116" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A116" s="54"/>
-      <c r="B116" s="57"/>
-      <c r="C116" s="61"/>
+      <c r="AB115" s="45"/>
+      <c r="AC115" s="45"/>
+      <c r="AD115" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="116" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A116" s="51"/>
+      <c r="B116" s="54"/>
+      <c r="C116" s="58"/>
       <c r="D116" s="17" t="s">
         <v>89</v>
       </c>
@@ -9333,7 +9580,7 @@
       <c r="P116" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q116" s="50"/>
+      <c r="Q116" s="60"/>
       <c r="R116" s="45"/>
       <c r="S116" s="45"/>
       <c r="T116" s="45"/>
@@ -9344,15 +9591,17 @@
       <c r="Y116" s="45"/>
       <c r="Z116" s="45"/>
       <c r="AA116" s="45"/>
-      <c r="AB116" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="117" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="52">
+      <c r="AB116" s="45"/>
+      <c r="AC116" s="45"/>
+      <c r="AD116" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="117" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="49">
         <v>6</v>
       </c>
-      <c r="B117" s="55" t="s">
+      <c r="B117" s="52" t="s">
         <v>11</v>
       </c>
       <c r="C117" s="23" t="s">
@@ -9397,7 +9646,7 @@
       <c r="P117" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q117" s="50"/>
+      <c r="Q117" s="60"/>
       <c r="R117" s="45"/>
       <c r="S117" s="45"/>
       <c r="T117" s="45"/>
@@ -9408,14 +9657,16 @@
       <c r="Y117" s="45"/>
       <c r="Z117" s="45"/>
       <c r="AA117" s="45"/>
-      <c r="AB117" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="118" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A118" s="53"/>
-      <c r="B118" s="56"/>
-      <c r="C118" s="58" t="s">
+      <c r="AB117" s="45"/>
+      <c r="AC117" s="45"/>
+      <c r="AD117" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="118" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A118" s="50"/>
+      <c r="B118" s="53"/>
+      <c r="C118" s="55" t="s">
         <v>238</v>
       </c>
       <c r="D118" s="15" t="s">
@@ -9457,7 +9708,7 @@
       <c r="P118" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q118" s="50"/>
+      <c r="Q118" s="60"/>
       <c r="R118" s="45"/>
       <c r="S118" s="45"/>
       <c r="T118" s="45"/>
@@ -9468,14 +9719,16 @@
       <c r="Y118" s="45"/>
       <c r="Z118" s="45"/>
       <c r="AA118" s="45"/>
-      <c r="AB118" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="119" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A119" s="53"/>
-      <c r="B119" s="56"/>
-      <c r="C119" s="58"/>
+      <c r="AB118" s="45"/>
+      <c r="AC118" s="45"/>
+      <c r="AD118" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="119" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A119" s="50"/>
+      <c r="B119" s="53"/>
+      <c r="C119" s="55"/>
       <c r="D119" s="15" t="s">
         <v>33</v>
       </c>
@@ -9515,7 +9768,7 @@
       <c r="P119" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q119" s="50"/>
+      <c r="Q119" s="60"/>
       <c r="R119" s="45"/>
       <c r="S119" s="45"/>
       <c r="T119" s="45"/>
@@ -9526,14 +9779,16 @@
       <c r="Y119" s="45"/>
       <c r="Z119" s="45"/>
       <c r="AA119" s="45"/>
-      <c r="AB119" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="120" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A120" s="53"/>
-      <c r="B120" s="56"/>
-      <c r="C120" s="58"/>
+      <c r="AB119" s="45"/>
+      <c r="AC119" s="45"/>
+      <c r="AD119" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="120" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A120" s="50"/>
+      <c r="B120" s="53"/>
+      <c r="C120" s="55"/>
       <c r="D120" s="15" t="s">
         <v>36</v>
       </c>
@@ -9573,7 +9828,7 @@
       <c r="P120" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q120" s="50"/>
+      <c r="Q120" s="60"/>
       <c r="R120" s="45"/>
       <c r="S120" s="45"/>
       <c r="T120" s="45"/>
@@ -9584,14 +9839,16 @@
       <c r="Y120" s="45"/>
       <c r="Z120" s="45"/>
       <c r="AA120" s="45"/>
-      <c r="AB120" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="121" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A121" s="53"/>
-      <c r="B121" s="56"/>
-      <c r="C121" s="58"/>
+      <c r="AB120" s="45"/>
+      <c r="AC120" s="45"/>
+      <c r="AD120" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="121" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A121" s="50"/>
+      <c r="B121" s="53"/>
+      <c r="C121" s="55"/>
       <c r="D121" s="15" t="s">
         <v>38</v>
       </c>
@@ -9631,7 +9888,7 @@
       <c r="P121" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q121" s="50"/>
+      <c r="Q121" s="60"/>
       <c r="R121" s="45"/>
       <c r="S121" s="45"/>
       <c r="T121" s="45"/>
@@ -9642,14 +9899,16 @@
       <c r="Y121" s="45"/>
       <c r="Z121" s="45"/>
       <c r="AA121" s="45"/>
-      <c r="AB121" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="122" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A122" s="53"/>
-      <c r="B122" s="56"/>
-      <c r="C122" s="58"/>
+      <c r="AB121" s="45"/>
+      <c r="AC121" s="45"/>
+      <c r="AD121" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="122" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A122" s="50"/>
+      <c r="B122" s="53"/>
+      <c r="C122" s="55"/>
       <c r="D122" s="15" t="s">
         <v>41</v>
       </c>
@@ -9689,7 +9948,7 @@
       <c r="P122" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q122" s="50"/>
+      <c r="Q122" s="60"/>
       <c r="R122" s="45"/>
       <c r="S122" s="45"/>
       <c r="T122" s="45"/>
@@ -9700,14 +9959,16 @@
       <c r="Y122" s="45"/>
       <c r="Z122" s="45"/>
       <c r="AA122" s="45"/>
-      <c r="AB122" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="123" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A123" s="53"/>
-      <c r="B123" s="56"/>
-      <c r="C123" s="58"/>
+      <c r="AB122" s="45"/>
+      <c r="AC122" s="45"/>
+      <c r="AD122" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="123" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A123" s="50"/>
+      <c r="B123" s="53"/>
+      <c r="C123" s="55"/>
       <c r="D123" s="15" t="s">
         <v>44</v>
       </c>
@@ -9747,7 +10008,7 @@
       <c r="P123" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q123" s="50"/>
+      <c r="Q123" s="60"/>
       <c r="R123" s="45"/>
       <c r="S123" s="45"/>
       <c r="T123" s="45"/>
@@ -9758,14 +10019,16 @@
       <c r="Y123" s="45"/>
       <c r="Z123" s="45"/>
       <c r="AA123" s="45"/>
-      <c r="AB123" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="124" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A124" s="53"/>
-      <c r="B124" s="56"/>
-      <c r="C124" s="58"/>
+      <c r="AB123" s="45"/>
+      <c r="AC123" s="45"/>
+      <c r="AD123" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="124" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A124" s="50"/>
+      <c r="B124" s="53"/>
+      <c r="C124" s="55"/>
       <c r="D124" s="15" t="s">
         <v>47</v>
       </c>
@@ -9805,7 +10068,7 @@
       <c r="P124" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q124" s="50"/>
+      <c r="Q124" s="60"/>
       <c r="R124" s="45"/>
       <c r="S124" s="45"/>
       <c r="T124" s="45"/>
@@ -9816,14 +10079,16 @@
       <c r="Y124" s="45"/>
       <c r="Z124" s="45"/>
       <c r="AA124" s="45"/>
-      <c r="AB124" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="125" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A125" s="53"/>
-      <c r="B125" s="56"/>
-      <c r="C125" s="58"/>
+      <c r="AB124" s="45"/>
+      <c r="AC124" s="45"/>
+      <c r="AD124" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="125" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A125" s="50"/>
+      <c r="B125" s="53"/>
+      <c r="C125" s="55"/>
       <c r="D125" s="15" t="s">
         <v>47</v>
       </c>
@@ -9863,7 +10128,7 @@
       <c r="P125" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q125" s="50"/>
+      <c r="Q125" s="60"/>
       <c r="R125" s="45"/>
       <c r="S125" s="45"/>
       <c r="T125" s="45"/>
@@ -9874,14 +10139,16 @@
       <c r="Y125" s="45"/>
       <c r="Z125" s="45"/>
       <c r="AA125" s="45"/>
-      <c r="AB125" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="126" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A126" s="53"/>
-      <c r="B126" s="56"/>
-      <c r="C126" s="58"/>
+      <c r="AB125" s="45"/>
+      <c r="AC125" s="45"/>
+      <c r="AD125" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="126" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A126" s="50"/>
+      <c r="B126" s="53"/>
+      <c r="C126" s="55"/>
       <c r="D126" s="15" t="s">
         <v>47</v>
       </c>
@@ -9921,7 +10188,7 @@
       <c r="P126" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q126" s="50"/>
+      <c r="Q126" s="60"/>
       <c r="R126" s="45"/>
       <c r="S126" s="45"/>
       <c r="T126" s="45"/>
@@ -9932,14 +10199,16 @@
       <c r="Y126" s="45"/>
       <c r="Z126" s="45"/>
       <c r="AA126" s="45"/>
-      <c r="AB126" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="127" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A127" s="53"/>
-      <c r="B127" s="56"/>
-      <c r="C127" s="58"/>
+      <c r="AB126" s="45"/>
+      <c r="AC126" s="45"/>
+      <c r="AD126" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="127" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A127" s="50"/>
+      <c r="B127" s="53"/>
+      <c r="C127" s="55"/>
       <c r="D127" s="15" t="s">
         <v>61</v>
       </c>
@@ -9979,7 +10248,7 @@
       <c r="P127" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q127" s="50"/>
+      <c r="Q127" s="60"/>
       <c r="R127" s="45"/>
       <c r="S127" s="45"/>
       <c r="T127" s="45"/>
@@ -9990,14 +10259,16 @@
       <c r="Y127" s="45"/>
       <c r="Z127" s="45"/>
       <c r="AA127" s="45"/>
-      <c r="AB127" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="128" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A128" s="53"/>
-      <c r="B128" s="56"/>
-      <c r="C128" s="58"/>
+      <c r="AB127" s="45"/>
+      <c r="AC127" s="45"/>
+      <c r="AD127" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="128" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A128" s="50"/>
+      <c r="B128" s="53"/>
+      <c r="C128" s="55"/>
       <c r="D128" s="15" t="s">
         <v>64</v>
       </c>
@@ -10037,7 +10308,7 @@
       <c r="P128" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q128" s="50"/>
+      <c r="Q128" s="60"/>
       <c r="R128" s="45"/>
       <c r="S128" s="45"/>
       <c r="T128" s="45"/>
@@ -10048,14 +10319,16 @@
       <c r="Y128" s="45"/>
       <c r="Z128" s="45"/>
       <c r="AA128" s="45"/>
-      <c r="AB128" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="129" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A129" s="53"/>
-      <c r="B129" s="56"/>
-      <c r="C129" s="58"/>
+      <c r="AB128" s="45"/>
+      <c r="AC128" s="45"/>
+      <c r="AD128" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="129" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A129" s="50"/>
+      <c r="B129" s="53"/>
+      <c r="C129" s="55"/>
       <c r="D129" s="15" t="s">
         <v>67</v>
       </c>
@@ -10095,7 +10368,7 @@
       <c r="P129" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q129" s="50"/>
+      <c r="Q129" s="60"/>
       <c r="R129" s="45"/>
       <c r="S129" s="45"/>
       <c r="T129" s="45"/>
@@ -10106,14 +10379,16 @@
       <c r="Y129" s="45"/>
       <c r="Z129" s="45"/>
       <c r="AA129" s="45"/>
-      <c r="AB129" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="130" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A130" s="53"/>
-      <c r="B130" s="56"/>
-      <c r="C130" s="58"/>
+      <c r="AB129" s="45"/>
+      <c r="AC129" s="45"/>
+      <c r="AD129" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="130" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A130" s="50"/>
+      <c r="B130" s="53"/>
+      <c r="C130" s="55"/>
       <c r="D130" s="15" t="s">
         <v>69</v>
       </c>
@@ -10153,7 +10428,7 @@
       <c r="P130" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q130" s="50"/>
+      <c r="Q130" s="60"/>
       <c r="R130" s="45"/>
       <c r="S130" s="45"/>
       <c r="T130" s="45"/>
@@ -10164,14 +10439,16 @@
       <c r="Y130" s="45"/>
       <c r="Z130" s="45"/>
       <c r="AA130" s="45"/>
-      <c r="AB130" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="131" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131" s="53"/>
-      <c r="B131" s="56"/>
-      <c r="C131" s="58"/>
+      <c r="AB130" s="45"/>
+      <c r="AC130" s="45"/>
+      <c r="AD130" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="131" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A131" s="50"/>
+      <c r="B131" s="53"/>
+      <c r="C131" s="55"/>
       <c r="D131" s="15" t="s">
         <v>72</v>
       </c>
@@ -10211,7 +10488,7 @@
       <c r="P131" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q131" s="50"/>
+      <c r="Q131" s="60"/>
       <c r="R131" s="45"/>
       <c r="S131" s="45"/>
       <c r="T131" s="45"/>
@@ -10222,14 +10499,16 @@
       <c r="Y131" s="45"/>
       <c r="Z131" s="45"/>
       <c r="AA131" s="45"/>
-      <c r="AB131" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="132" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="53"/>
-      <c r="B132" s="56"/>
-      <c r="C132" s="58"/>
+      <c r="AB131" s="45"/>
+      <c r="AC131" s="45"/>
+      <c r="AD131" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="132" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132" s="50"/>
+      <c r="B132" s="53"/>
+      <c r="C132" s="55"/>
       <c r="D132" s="15" t="s">
         <v>75</v>
       </c>
@@ -10269,7 +10548,7 @@
       <c r="P132" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q132" s="50"/>
+      <c r="Q132" s="60"/>
       <c r="R132" s="45"/>
       <c r="S132" s="45"/>
       <c r="T132" s="45"/>
@@ -10280,14 +10559,16 @@
       <c r="Y132" s="45"/>
       <c r="Z132" s="45"/>
       <c r="AA132" s="45"/>
-      <c r="AB132" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="133" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A133" s="53"/>
-      <c r="B133" s="56"/>
-      <c r="C133" s="58"/>
+      <c r="AB132" s="45"/>
+      <c r="AC132" s="45"/>
+      <c r="AD132" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="133" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133" s="50"/>
+      <c r="B133" s="53"/>
+      <c r="C133" s="55"/>
       <c r="D133" s="15" t="s">
         <v>78</v>
       </c>
@@ -10325,7 +10606,7 @@
       <c r="P133" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q133" s="50"/>
+      <c r="Q133" s="60"/>
       <c r="R133" s="45"/>
       <c r="S133" s="45"/>
       <c r="T133" s="45"/>
@@ -10336,14 +10617,16 @@
       <c r="Y133" s="45"/>
       <c r="Z133" s="45"/>
       <c r="AA133" s="45"/>
-      <c r="AB133" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="134" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A134" s="53"/>
-      <c r="B134" s="56"/>
-      <c r="C134" s="58"/>
+      <c r="AB133" s="45"/>
+      <c r="AC133" s="45"/>
+      <c r="AD133" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="134" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A134" s="50"/>
+      <c r="B134" s="53"/>
+      <c r="C134" s="55"/>
       <c r="D134" s="15" t="s">
         <v>81</v>
       </c>
@@ -10381,7 +10664,7 @@
       <c r="P134" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q134" s="50"/>
+      <c r="Q134" s="60"/>
       <c r="R134" s="45"/>
       <c r="S134" s="45"/>
       <c r="T134" s="45"/>
@@ -10392,14 +10675,16 @@
       <c r="Y134" s="45"/>
       <c r="Z134" s="45"/>
       <c r="AA134" s="45"/>
-      <c r="AB134" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="135" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A135" s="53"/>
-      <c r="B135" s="56"/>
-      <c r="C135" s="59" t="s">
+      <c r="AB134" s="45"/>
+      <c r="AC134" s="45"/>
+      <c r="AD134" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="135" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A135" s="50"/>
+      <c r="B135" s="53"/>
+      <c r="C135" s="56" t="s">
         <v>84</v>
       </c>
       <c r="D135" s="15" t="s">
@@ -10441,7 +10726,7 @@
       <c r="P135" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q135" s="50"/>
+      <c r="Q135" s="60"/>
       <c r="R135" s="45"/>
       <c r="S135" s="45"/>
       <c r="T135" s="45"/>
@@ -10452,14 +10737,16 @@
       <c r="Y135" s="45"/>
       <c r="Z135" s="45"/>
       <c r="AA135" s="45"/>
-      <c r="AB135" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="136" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A136" s="53"/>
-      <c r="B136" s="56"/>
-      <c r="C136" s="60"/>
+      <c r="AB135" s="45"/>
+      <c r="AC135" s="45"/>
+      <c r="AD135" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="136" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A136" s="50"/>
+      <c r="B136" s="53"/>
+      <c r="C136" s="57"/>
       <c r="D136" s="15" t="s">
         <v>87</v>
       </c>
@@ -10497,7 +10784,7 @@
       <c r="P136" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q136" s="50"/>
+      <c r="Q136" s="60"/>
       <c r="R136" s="45"/>
       <c r="S136" s="45"/>
       <c r="T136" s="45"/>
@@ -10508,14 +10795,16 @@
       <c r="Y136" s="45"/>
       <c r="Z136" s="45"/>
       <c r="AA136" s="45"/>
-      <c r="AB136" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="137" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A137" s="54"/>
-      <c r="B137" s="57"/>
-      <c r="C137" s="61"/>
+      <c r="AB136" s="45"/>
+      <c r="AC136" s="45"/>
+      <c r="AD136" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="137" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A137" s="51"/>
+      <c r="B137" s="54"/>
+      <c r="C137" s="58"/>
       <c r="D137" s="17" t="s">
         <v>89</v>
       </c>
@@ -10555,7 +10844,7 @@
       <c r="P137" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q137" s="50"/>
+      <c r="Q137" s="60"/>
       <c r="R137" s="45"/>
       <c r="S137" s="45"/>
       <c r="T137" s="45"/>
@@ -10566,18 +10855,20 @@
       <c r="Y137" s="45"/>
       <c r="Z137" s="45"/>
       <c r="AA137" s="45"/>
-      <c r="AB137" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="138" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A138" s="52">
+      <c r="AB137" s="45"/>
+      <c r="AC137" s="45"/>
+      <c r="AD137" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="138" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A138" s="49">
         <v>7</v>
       </c>
-      <c r="B138" s="55" t="s">
+      <c r="B138" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C138" s="58" t="s">
+      <c r="C138" s="55" t="s">
         <v>235</v>
       </c>
       <c r="D138" s="6" t="s">
@@ -10619,7 +10910,7 @@
       <c r="P138" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q138" s="50"/>
+      <c r="Q138" s="60"/>
       <c r="R138" s="45"/>
       <c r="S138" s="45"/>
       <c r="T138" s="45"/>
@@ -10630,14 +10921,16 @@
       <c r="Y138" s="45"/>
       <c r="Z138" s="45"/>
       <c r="AA138" s="45"/>
-      <c r="AB138" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="139" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A139" s="53"/>
-      <c r="B139" s="56"/>
-      <c r="C139" s="58"/>
+      <c r="AB138" s="45"/>
+      <c r="AC138" s="45"/>
+      <c r="AD138" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="139" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A139" s="50"/>
+      <c r="B139" s="53"/>
+      <c r="C139" s="55"/>
       <c r="D139" s="6" t="s">
         <v>198</v>
       </c>
@@ -10677,7 +10970,7 @@
       <c r="P139" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q139" s="50"/>
+      <c r="Q139" s="60"/>
       <c r="R139" s="45"/>
       <c r="S139" s="45"/>
       <c r="T139" s="45"/>
@@ -10688,14 +10981,16 @@
       <c r="Y139" s="45"/>
       <c r="Z139" s="45"/>
       <c r="AA139" s="45"/>
-      <c r="AB139" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="140" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A140" s="53"/>
-      <c r="B140" s="56"/>
-      <c r="C140" s="58"/>
+      <c r="AB139" s="45"/>
+      <c r="AC139" s="45"/>
+      <c r="AD139" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="140" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A140" s="50"/>
+      <c r="B140" s="53"/>
+      <c r="C140" s="55"/>
       <c r="D140" s="6" t="s">
         <v>266</v>
       </c>
@@ -10735,7 +11030,7 @@
       <c r="P140" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q140" s="50"/>
+      <c r="Q140" s="60"/>
       <c r="R140" s="45"/>
       <c r="S140" s="45"/>
       <c r="T140" s="45"/>
@@ -10746,14 +11041,16 @@
       <c r="Y140" s="45"/>
       <c r="Z140" s="45"/>
       <c r="AA140" s="45"/>
-      <c r="AB140" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="141" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A141" s="53"/>
-      <c r="B141" s="56"/>
-      <c r="C141" s="58"/>
+      <c r="AB140" s="45"/>
+      <c r="AC140" s="45"/>
+      <c r="AD140" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="141" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A141" s="50"/>
+      <c r="B141" s="53"/>
+      <c r="C141" s="55"/>
       <c r="D141" s="6" t="s">
         <v>269</v>
       </c>
@@ -10793,7 +11090,7 @@
       <c r="P141" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q141" s="50"/>
+      <c r="Q141" s="60"/>
       <c r="R141" s="45"/>
       <c r="S141" s="45"/>
       <c r="T141" s="45"/>
@@ -10804,14 +11101,16 @@
       <c r="Y141" s="45"/>
       <c r="Z141" s="45"/>
       <c r="AA141" s="45"/>
-      <c r="AB141" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="142" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A142" s="53"/>
-      <c r="B142" s="56"/>
-      <c r="C142" s="58"/>
+      <c r="AB141" s="45"/>
+      <c r="AC141" s="45"/>
+      <c r="AD141" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="142" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A142" s="50"/>
+      <c r="B142" s="53"/>
+      <c r="C142" s="55"/>
       <c r="D142" s="6" t="s">
         <v>272</v>
       </c>
@@ -10851,7 +11150,7 @@
       <c r="P142" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q142" s="50"/>
+      <c r="Q142" s="60"/>
       <c r="R142" s="45"/>
       <c r="S142" s="45"/>
       <c r="T142" s="45"/>
@@ -10862,14 +11161,16 @@
       <c r="Y142" s="45"/>
       <c r="Z142" s="45"/>
       <c r="AA142" s="45"/>
-      <c r="AB142" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="143" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A143" s="53"/>
-      <c r="B143" s="56"/>
-      <c r="C143" s="58" t="s">
+      <c r="AB142" s="45"/>
+      <c r="AC142" s="45"/>
+      <c r="AD142" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="143" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A143" s="50"/>
+      <c r="B143" s="53"/>
+      <c r="C143" s="55" t="s">
         <v>275</v>
       </c>
       <c r="D143" s="15" t="s">
@@ -10911,7 +11212,7 @@
       <c r="P143" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q143" s="50"/>
+      <c r="Q143" s="60"/>
       <c r="R143" s="45"/>
       <c r="S143" s="45"/>
       <c r="T143" s="45"/>
@@ -10922,14 +11223,16 @@
       <c r="Y143" s="45"/>
       <c r="Z143" s="45"/>
       <c r="AA143" s="45"/>
-      <c r="AB143" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="144" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A144" s="53"/>
-      <c r="B144" s="56"/>
-      <c r="C144" s="58"/>
+      <c r="AB143" s="45"/>
+      <c r="AC143" s="45"/>
+      <c r="AD143" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="144" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A144" s="50"/>
+      <c r="B144" s="53"/>
+      <c r="C144" s="55"/>
       <c r="D144" s="15" t="s">
         <v>33</v>
       </c>
@@ -10969,7 +11272,7 @@
       <c r="P144" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q144" s="50"/>
+      <c r="Q144" s="60"/>
       <c r="R144" s="45"/>
       <c r="S144" s="45"/>
       <c r="T144" s="45"/>
@@ -10980,14 +11283,16 @@
       <c r="Y144" s="45"/>
       <c r="Z144" s="45"/>
       <c r="AA144" s="45"/>
-      <c r="AB144" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="145" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A145" s="53"/>
-      <c r="B145" s="56"/>
-      <c r="C145" s="58"/>
+      <c r="AB144" s="45"/>
+      <c r="AC144" s="45"/>
+      <c r="AD144" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="145" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A145" s="50"/>
+      <c r="B145" s="53"/>
+      <c r="C145" s="55"/>
       <c r="D145" s="15" t="s">
         <v>36</v>
       </c>
@@ -11027,7 +11332,7 @@
       <c r="P145" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q145" s="50"/>
+      <c r="Q145" s="60"/>
       <c r="R145" s="45"/>
       <c r="S145" s="45"/>
       <c r="T145" s="45"/>
@@ -11038,14 +11343,16 @@
       <c r="Y145" s="45"/>
       <c r="Z145" s="45"/>
       <c r="AA145" s="45"/>
-      <c r="AB145" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="146" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A146" s="53"/>
-      <c r="B146" s="56"/>
-      <c r="C146" s="58"/>
+      <c r="AB145" s="45"/>
+      <c r="AC145" s="45"/>
+      <c r="AD145" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="146" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A146" s="50"/>
+      <c r="B146" s="53"/>
+      <c r="C146" s="55"/>
       <c r="D146" s="15" t="s">
         <v>38</v>
       </c>
@@ -11085,7 +11392,7 @@
       <c r="P146" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q146" s="50"/>
+      <c r="Q146" s="60"/>
       <c r="R146" s="45"/>
       <c r="S146" s="45"/>
       <c r="T146" s="45"/>
@@ -11096,14 +11403,16 @@
       <c r="Y146" s="45"/>
       <c r="Z146" s="45"/>
       <c r="AA146" s="45"/>
-      <c r="AB146" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="147" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A147" s="53"/>
-      <c r="B147" s="56"/>
-      <c r="C147" s="58"/>
+      <c r="AB146" s="45"/>
+      <c r="AC146" s="45"/>
+      <c r="AD146" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="147" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A147" s="50"/>
+      <c r="B147" s="53"/>
+      <c r="C147" s="55"/>
       <c r="D147" s="15" t="s">
         <v>41</v>
       </c>
@@ -11143,7 +11452,7 @@
       <c r="P147" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q147" s="50"/>
+      <c r="Q147" s="60"/>
       <c r="R147" s="45"/>
       <c r="S147" s="45"/>
       <c r="T147" s="45"/>
@@ -11154,14 +11463,16 @@
       <c r="Y147" s="45"/>
       <c r="Z147" s="45"/>
       <c r="AA147" s="45"/>
-      <c r="AB147" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="148" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A148" s="53"/>
-      <c r="B148" s="56"/>
-      <c r="C148" s="58"/>
+      <c r="AB147" s="45"/>
+      <c r="AC147" s="45"/>
+      <c r="AD147" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="148" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A148" s="50"/>
+      <c r="B148" s="53"/>
+      <c r="C148" s="55"/>
       <c r="D148" s="15" t="s">
         <v>44</v>
       </c>
@@ -11201,7 +11512,7 @@
       <c r="P148" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q148" s="50"/>
+      <c r="Q148" s="60"/>
       <c r="R148" s="45"/>
       <c r="S148" s="45"/>
       <c r="T148" s="45"/>
@@ -11212,14 +11523,16 @@
       <c r="Y148" s="45"/>
       <c r="Z148" s="45"/>
       <c r="AA148" s="45"/>
-      <c r="AB148" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="149" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A149" s="53"/>
-      <c r="B149" s="56"/>
-      <c r="C149" s="58"/>
+      <c r="AB148" s="45"/>
+      <c r="AC148" s="45"/>
+      <c r="AD148" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="149" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A149" s="50"/>
+      <c r="B149" s="53"/>
+      <c r="C149" s="55"/>
       <c r="D149" s="15" t="s">
         <v>47</v>
       </c>
@@ -11259,7 +11572,7 @@
       <c r="P149" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q149" s="50"/>
+      <c r="Q149" s="60"/>
       <c r="R149" s="45"/>
       <c r="S149" s="45"/>
       <c r="T149" s="45"/>
@@ -11270,14 +11583,16 @@
       <c r="Y149" s="45"/>
       <c r="Z149" s="45"/>
       <c r="AA149" s="45"/>
-      <c r="AB149" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="150" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A150" s="53"/>
-      <c r="B150" s="56"/>
-      <c r="C150" s="58"/>
+      <c r="AB149" s="45"/>
+      <c r="AC149" s="45"/>
+      <c r="AD149" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="150" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A150" s="50"/>
+      <c r="B150" s="53"/>
+      <c r="C150" s="55"/>
       <c r="D150" s="15" t="s">
         <v>47</v>
       </c>
@@ -11317,7 +11632,7 @@
       <c r="P150" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q150" s="50"/>
+      <c r="Q150" s="60"/>
       <c r="R150" s="45"/>
       <c r="S150" s="45"/>
       <c r="T150" s="45"/>
@@ -11328,14 +11643,16 @@
       <c r="Y150" s="45"/>
       <c r="Z150" s="45"/>
       <c r="AA150" s="45"/>
-      <c r="AB150" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="151" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A151" s="53"/>
-      <c r="B151" s="56"/>
-      <c r="C151" s="58"/>
+      <c r="AB150" s="45"/>
+      <c r="AC150" s="45"/>
+      <c r="AD150" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="151" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A151" s="50"/>
+      <c r="B151" s="53"/>
+      <c r="C151" s="55"/>
       <c r="D151" s="15" t="s">
         <v>47</v>
       </c>
@@ -11375,7 +11692,7 @@
       <c r="P151" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q151" s="50"/>
+      <c r="Q151" s="60"/>
       <c r="R151" s="45"/>
       <c r="S151" s="45"/>
       <c r="T151" s="45"/>
@@ -11386,14 +11703,16 @@
       <c r="Y151" s="45"/>
       <c r="Z151" s="45"/>
       <c r="AA151" s="45"/>
-      <c r="AB151" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="152" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A152" s="53"/>
-      <c r="B152" s="56"/>
-      <c r="C152" s="58"/>
+      <c r="AB151" s="45"/>
+      <c r="AC151" s="45"/>
+      <c r="AD151" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="152" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A152" s="50"/>
+      <c r="B152" s="53"/>
+      <c r="C152" s="55"/>
       <c r="D152" s="15" t="s">
         <v>61</v>
       </c>
@@ -11433,7 +11752,7 @@
       <c r="P152" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q152" s="50"/>
+      <c r="Q152" s="60"/>
       <c r="R152" s="45"/>
       <c r="S152" s="45"/>
       <c r="T152" s="45"/>
@@ -11444,14 +11763,16 @@
       <c r="Y152" s="45"/>
       <c r="Z152" s="45"/>
       <c r="AA152" s="45"/>
-      <c r="AB152" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="153" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A153" s="53"/>
-      <c r="B153" s="56"/>
-      <c r="C153" s="58"/>
+      <c r="AB152" s="45"/>
+      <c r="AC152" s="45"/>
+      <c r="AD152" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="153" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A153" s="50"/>
+      <c r="B153" s="53"/>
+      <c r="C153" s="55"/>
       <c r="D153" s="15" t="s">
         <v>64</v>
       </c>
@@ -11491,7 +11812,7 @@
       <c r="P153" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q153" s="50"/>
+      <c r="Q153" s="60"/>
       <c r="R153" s="45"/>
       <c r="S153" s="45"/>
       <c r="T153" s="45"/>
@@ -11502,14 +11823,16 @@
       <c r="Y153" s="45"/>
       <c r="Z153" s="45"/>
       <c r="AA153" s="45"/>
-      <c r="AB153" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="154" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A154" s="53"/>
-      <c r="B154" s="56"/>
-      <c r="C154" s="58"/>
+      <c r="AB153" s="45"/>
+      <c r="AC153" s="45"/>
+      <c r="AD153" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="154" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A154" s="50"/>
+      <c r="B154" s="53"/>
+      <c r="C154" s="55"/>
       <c r="D154" s="15" t="s">
         <v>67</v>
       </c>
@@ -11549,7 +11872,7 @@
       <c r="P154" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q154" s="50"/>
+      <c r="Q154" s="60"/>
       <c r="R154" s="45"/>
       <c r="S154" s="45"/>
       <c r="T154" s="45"/>
@@ -11560,14 +11883,16 @@
       <c r="Y154" s="45"/>
       <c r="Z154" s="45"/>
       <c r="AA154" s="45"/>
-      <c r="AB154" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="155" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A155" s="53"/>
-      <c r="B155" s="56"/>
-      <c r="C155" s="58"/>
+      <c r="AB154" s="45"/>
+      <c r="AC154" s="45"/>
+      <c r="AD154" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="155" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A155" s="50"/>
+      <c r="B155" s="53"/>
+      <c r="C155" s="55"/>
       <c r="D155" s="15" t="s">
         <v>69</v>
       </c>
@@ -11607,7 +11932,7 @@
       <c r="P155" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q155" s="50"/>
+      <c r="Q155" s="60"/>
       <c r="R155" s="45"/>
       <c r="S155" s="45"/>
       <c r="T155" s="45"/>
@@ -11618,14 +11943,16 @@
       <c r="Y155" s="45"/>
       <c r="Z155" s="45"/>
       <c r="AA155" s="45"/>
-      <c r="AB155" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="156" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A156" s="53"/>
-      <c r="B156" s="56"/>
-      <c r="C156" s="58"/>
+      <c r="AB155" s="45"/>
+      <c r="AC155" s="45"/>
+      <c r="AD155" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="156" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A156" s="50"/>
+      <c r="B156" s="53"/>
+      <c r="C156" s="55"/>
       <c r="D156" s="15" t="s">
         <v>72</v>
       </c>
@@ -11665,7 +11992,7 @@
       <c r="P156" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q156" s="50"/>
+      <c r="Q156" s="60"/>
       <c r="R156" s="45"/>
       <c r="S156" s="45"/>
       <c r="T156" s="45"/>
@@ -11676,14 +12003,16 @@
       <c r="Y156" s="45"/>
       <c r="Z156" s="45"/>
       <c r="AA156" s="45"/>
-      <c r="AB156" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="157" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A157" s="53"/>
-      <c r="B157" s="56"/>
-      <c r="C157" s="58"/>
+      <c r="AB156" s="45"/>
+      <c r="AC156" s="45"/>
+      <c r="AD156" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="157" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A157" s="50"/>
+      <c r="B157" s="53"/>
+      <c r="C157" s="55"/>
       <c r="D157" s="15" t="s">
         <v>75</v>
       </c>
@@ -11723,7 +12052,7 @@
       <c r="P157" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q157" s="50"/>
+      <c r="Q157" s="60"/>
       <c r="R157" s="45"/>
       <c r="S157" s="45"/>
       <c r="T157" s="45"/>
@@ -11734,14 +12063,16 @@
       <c r="Y157" s="45"/>
       <c r="Z157" s="45"/>
       <c r="AA157" s="45"/>
-      <c r="AB157" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="158" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A158" s="53"/>
-      <c r="B158" s="56"/>
-      <c r="C158" s="58"/>
+      <c r="AB157" s="45"/>
+      <c r="AC157" s="45"/>
+      <c r="AD157" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="158" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A158" s="50"/>
+      <c r="B158" s="53"/>
+      <c r="C158" s="55"/>
       <c r="D158" s="15" t="s">
         <v>78</v>
       </c>
@@ -11779,7 +12110,7 @@
       <c r="P158" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q158" s="50"/>
+      <c r="Q158" s="60"/>
       <c r="R158" s="45"/>
       <c r="S158" s="45"/>
       <c r="T158" s="45"/>
@@ -11790,14 +12121,16 @@
       <c r="Y158" s="45"/>
       <c r="Z158" s="45"/>
       <c r="AA158" s="45"/>
-      <c r="AB158" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="159" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A159" s="53"/>
-      <c r="B159" s="56"/>
-      <c r="C159" s="58"/>
+      <c r="AB158" s="45"/>
+      <c r="AC158" s="45"/>
+      <c r="AD158" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="159" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A159" s="50"/>
+      <c r="B159" s="53"/>
+      <c r="C159" s="55"/>
       <c r="D159" s="15" t="s">
         <v>81</v>
       </c>
@@ -11835,7 +12168,7 @@
       <c r="P159" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q159" s="50"/>
+      <c r="Q159" s="60"/>
       <c r="R159" s="45"/>
       <c r="S159" s="45"/>
       <c r="T159" s="45"/>
@@ -11846,14 +12179,16 @@
       <c r="Y159" s="45"/>
       <c r="Z159" s="45"/>
       <c r="AA159" s="45"/>
-      <c r="AB159" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="160" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A160" s="53"/>
-      <c r="B160" s="56"/>
-      <c r="C160" s="59" t="s">
+      <c r="AB159" s="45"/>
+      <c r="AC159" s="45"/>
+      <c r="AD159" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="160" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A160" s="50"/>
+      <c r="B160" s="53"/>
+      <c r="C160" s="56" t="s">
         <v>84</v>
       </c>
       <c r="D160" s="15" t="s">
@@ -11895,7 +12230,7 @@
       <c r="P160" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q160" s="50"/>
+      <c r="Q160" s="60"/>
       <c r="R160" s="45"/>
       <c r="S160" s="45"/>
       <c r="T160" s="45"/>
@@ -11906,14 +12241,16 @@
       <c r="Y160" s="45"/>
       <c r="Z160" s="45"/>
       <c r="AA160" s="45"/>
-      <c r="AB160" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="161" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A161" s="53"/>
-      <c r="B161" s="56"/>
-      <c r="C161" s="60"/>
+      <c r="AB160" s="45"/>
+      <c r="AC160" s="45"/>
+      <c r="AD160" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="161" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A161" s="50"/>
+      <c r="B161" s="53"/>
+      <c r="C161" s="57"/>
       <c r="D161" s="15" t="s">
         <v>87</v>
       </c>
@@ -11951,7 +12288,7 @@
       <c r="P161" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q161" s="50"/>
+      <c r="Q161" s="60"/>
       <c r="R161" s="45"/>
       <c r="S161" s="45"/>
       <c r="T161" s="45"/>
@@ -11962,14 +12299,16 @@
       <c r="Y161" s="45"/>
       <c r="Z161" s="45"/>
       <c r="AA161" s="45"/>
-      <c r="AB161" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="162" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A162" s="54"/>
-      <c r="B162" s="57"/>
-      <c r="C162" s="61"/>
+      <c r="AB161" s="45"/>
+      <c r="AC161" s="45"/>
+      <c r="AD161" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="162" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A162" s="51"/>
+      <c r="B162" s="54"/>
+      <c r="C162" s="58"/>
       <c r="D162" s="17" t="s">
         <v>89</v>
       </c>
@@ -12009,7 +12348,7 @@
       <c r="P162" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q162" s="50"/>
+      <c r="Q162" s="60"/>
       <c r="R162" s="45"/>
       <c r="S162" s="45"/>
       <c r="T162" s="45"/>
@@ -12020,18 +12359,20 @@
       <c r="Y162" s="45"/>
       <c r="Z162" s="45"/>
       <c r="AA162" s="45"/>
-      <c r="AB162" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="163" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A163" s="52">
+      <c r="AB162" s="45"/>
+      <c r="AC162" s="45"/>
+      <c r="AD162" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="163" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A163" s="49">
         <v>8</v>
       </c>
-      <c r="B163" s="55" t="s">
+      <c r="B163" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="C163" s="58" t="s">
+      <c r="C163" s="55" t="s">
         <v>303</v>
       </c>
       <c r="D163" s="6" t="s">
@@ -12073,7 +12414,7 @@
       <c r="P163" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q163" s="50"/>
+      <c r="Q163" s="60"/>
       <c r="R163" s="45"/>
       <c r="S163" s="45"/>
       <c r="T163" s="45"/>
@@ -12084,14 +12425,16 @@
       <c r="Y163" s="45"/>
       <c r="Z163" s="45"/>
       <c r="AA163" s="45"/>
-      <c r="AB163" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="164" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A164" s="53"/>
-      <c r="B164" s="56"/>
-      <c r="C164" s="58"/>
+      <c r="AB163" s="45"/>
+      <c r="AC163" s="45"/>
+      <c r="AD163" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="164" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A164" s="50"/>
+      <c r="B164" s="53"/>
+      <c r="C164" s="55"/>
       <c r="D164" s="6" t="s">
         <v>198</v>
       </c>
@@ -12131,7 +12474,7 @@
       <c r="P164" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q164" s="50"/>
+      <c r="Q164" s="60"/>
       <c r="R164" s="45"/>
       <c r="S164" s="45"/>
       <c r="T164" s="45"/>
@@ -12142,14 +12485,16 @@
       <c r="Y164" s="45"/>
       <c r="Z164" s="45"/>
       <c r="AA164" s="45"/>
-      <c r="AB164" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="165" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A165" s="53"/>
-      <c r="B165" s="56"/>
-      <c r="C165" s="58"/>
+      <c r="AB164" s="45"/>
+      <c r="AC164" s="45"/>
+      <c r="AD164" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="165" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A165" s="50"/>
+      <c r="B165" s="53"/>
+      <c r="C165" s="55"/>
       <c r="D165" s="6" t="s">
         <v>306</v>
       </c>
@@ -12189,7 +12534,7 @@
       <c r="P165" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q165" s="50"/>
+      <c r="Q165" s="60"/>
       <c r="R165" s="45"/>
       <c r="S165" s="45"/>
       <c r="T165" s="45"/>
@@ -12200,14 +12545,16 @@
       <c r="Y165" s="45"/>
       <c r="Z165" s="45"/>
       <c r="AA165" s="45"/>
-      <c r="AB165" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="166" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A166" s="53"/>
-      <c r="B166" s="56"/>
-      <c r="C166" s="58"/>
+      <c r="AB165" s="45"/>
+      <c r="AC165" s="45"/>
+      <c r="AD165" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="166" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A166" s="50"/>
+      <c r="B166" s="53"/>
+      <c r="C166" s="55"/>
       <c r="D166" s="6" t="s">
         <v>309</v>
       </c>
@@ -12247,7 +12594,7 @@
       <c r="P166" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q166" s="50"/>
+      <c r="Q166" s="60"/>
       <c r="R166" s="45"/>
       <c r="S166" s="45"/>
       <c r="T166" s="45"/>
@@ -12258,14 +12605,16 @@
       <c r="Y166" s="45"/>
       <c r="Z166" s="45"/>
       <c r="AA166" s="45"/>
-      <c r="AB166" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="167" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A167" s="53"/>
-      <c r="B167" s="56"/>
-      <c r="C167" s="58"/>
+      <c r="AB166" s="45"/>
+      <c r="AC166" s="45"/>
+      <c r="AD166" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="167" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A167" s="50"/>
+      <c r="B167" s="53"/>
+      <c r="C167" s="55"/>
       <c r="D167" s="6" t="s">
         <v>312</v>
       </c>
@@ -12305,7 +12654,7 @@
       <c r="P167" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q167" s="50"/>
+      <c r="Q167" s="60"/>
       <c r="R167" s="45"/>
       <c r="S167" s="45"/>
       <c r="T167" s="45"/>
@@ -12316,14 +12665,16 @@
       <c r="Y167" s="45"/>
       <c r="Z167" s="45"/>
       <c r="AA167" s="45"/>
-      <c r="AB167" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="168" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A168" s="53"/>
-      <c r="B168" s="56"/>
-      <c r="C168" s="58" t="s">
+      <c r="AB167" s="45"/>
+      <c r="AC167" s="45"/>
+      <c r="AD167" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="168" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A168" s="50"/>
+      <c r="B168" s="53"/>
+      <c r="C168" s="55" t="s">
         <v>315</v>
       </c>
       <c r="D168" s="15" t="s">
@@ -12365,7 +12716,7 @@
       <c r="P168" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q168" s="50"/>
+      <c r="Q168" s="60"/>
       <c r="R168" s="45"/>
       <c r="S168" s="45"/>
       <c r="T168" s="45"/>
@@ -12376,14 +12727,16 @@
       <c r="Y168" s="45"/>
       <c r="Z168" s="45"/>
       <c r="AA168" s="45"/>
-      <c r="AB168" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="169" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A169" s="53"/>
-      <c r="B169" s="56"/>
-      <c r="C169" s="58"/>
+      <c r="AB168" s="45"/>
+      <c r="AC168" s="45"/>
+      <c r="AD168" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="169" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A169" s="50"/>
+      <c r="B169" s="53"/>
+      <c r="C169" s="55"/>
       <c r="D169" s="15" t="s">
         <v>33</v>
       </c>
@@ -12423,7 +12776,7 @@
       <c r="P169" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q169" s="50"/>
+      <c r="Q169" s="60"/>
       <c r="R169" s="45"/>
       <c r="S169" s="45"/>
       <c r="T169" s="45"/>
@@ -12434,14 +12787,16 @@
       <c r="Y169" s="45"/>
       <c r="Z169" s="45"/>
       <c r="AA169" s="45"/>
-      <c r="AB169" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="170" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A170" s="53"/>
-      <c r="B170" s="56"/>
-      <c r="C170" s="58"/>
+      <c r="AB169" s="45"/>
+      <c r="AC169" s="45"/>
+      <c r="AD169" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="170" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A170" s="50"/>
+      <c r="B170" s="53"/>
+      <c r="C170" s="55"/>
       <c r="D170" s="15" t="s">
         <v>36</v>
       </c>
@@ -12481,7 +12836,7 @@
       <c r="P170" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q170" s="50"/>
+      <c r="Q170" s="60"/>
       <c r="R170" s="45"/>
       <c r="S170" s="45"/>
       <c r="T170" s="45"/>
@@ -12492,14 +12847,16 @@
       <c r="Y170" s="45"/>
       <c r="Z170" s="45"/>
       <c r="AA170" s="45"/>
-      <c r="AB170" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="171" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A171" s="53"/>
-      <c r="B171" s="56"/>
-      <c r="C171" s="58"/>
+      <c r="AB170" s="45"/>
+      <c r="AC170" s="45"/>
+      <c r="AD170" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="171" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A171" s="50"/>
+      <c r="B171" s="53"/>
+      <c r="C171" s="55"/>
       <c r="D171" s="15" t="s">
         <v>38</v>
       </c>
@@ -12539,7 +12896,7 @@
       <c r="P171" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q171" s="50"/>
+      <c r="Q171" s="60"/>
       <c r="R171" s="45"/>
       <c r="S171" s="45"/>
       <c r="T171" s="45"/>
@@ -12550,14 +12907,16 @@
       <c r="Y171" s="45"/>
       <c r="Z171" s="45"/>
       <c r="AA171" s="45"/>
-      <c r="AB171" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="172" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A172" s="53"/>
-      <c r="B172" s="56"/>
-      <c r="C172" s="58"/>
+      <c r="AB171" s="45"/>
+      <c r="AC171" s="45"/>
+      <c r="AD171" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="172" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A172" s="50"/>
+      <c r="B172" s="53"/>
+      <c r="C172" s="55"/>
       <c r="D172" s="15" t="s">
         <v>41</v>
       </c>
@@ -12597,7 +12956,7 @@
       <c r="P172" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q172" s="50"/>
+      <c r="Q172" s="60"/>
       <c r="R172" s="45"/>
       <c r="S172" s="45"/>
       <c r="T172" s="45"/>
@@ -12608,14 +12967,16 @@
       <c r="Y172" s="45"/>
       <c r="Z172" s="45"/>
       <c r="AA172" s="45"/>
-      <c r="AB172" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="173" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A173" s="53"/>
-      <c r="B173" s="56"/>
-      <c r="C173" s="58"/>
+      <c r="AB172" s="45"/>
+      <c r="AC172" s="45"/>
+      <c r="AD172" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="173" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A173" s="50"/>
+      <c r="B173" s="53"/>
+      <c r="C173" s="55"/>
       <c r="D173" s="15" t="s">
         <v>44</v>
       </c>
@@ -12655,7 +13016,7 @@
       <c r="P173" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q173" s="50"/>
+      <c r="Q173" s="60"/>
       <c r="R173" s="45"/>
       <c r="S173" s="45"/>
       <c r="T173" s="45"/>
@@ -12666,14 +13027,16 @@
       <c r="Y173" s="45"/>
       <c r="Z173" s="45"/>
       <c r="AA173" s="45"/>
-      <c r="AB173" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="174" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A174" s="53"/>
-      <c r="B174" s="56"/>
-      <c r="C174" s="58"/>
+      <c r="AB173" s="45"/>
+      <c r="AC173" s="45"/>
+      <c r="AD173" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="174" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A174" s="50"/>
+      <c r="B174" s="53"/>
+      <c r="C174" s="55"/>
       <c r="D174" s="15" t="s">
         <v>47</v>
       </c>
@@ -12713,7 +13076,7 @@
       <c r="P174" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q174" s="50"/>
+      <c r="Q174" s="60"/>
       <c r="R174" s="45"/>
       <c r="S174" s="45"/>
       <c r="T174" s="45"/>
@@ -12724,14 +13087,16 @@
       <c r="Y174" s="45"/>
       <c r="Z174" s="45"/>
       <c r="AA174" s="45"/>
-      <c r="AB174" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="175" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A175" s="53"/>
-      <c r="B175" s="56"/>
-      <c r="C175" s="58"/>
+      <c r="AB174" s="45"/>
+      <c r="AC174" s="45"/>
+      <c r="AD174" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="175" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A175" s="50"/>
+      <c r="B175" s="53"/>
+      <c r="C175" s="55"/>
       <c r="D175" s="15" t="s">
         <v>47</v>
       </c>
@@ -12771,7 +13136,7 @@
       <c r="P175" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q175" s="50"/>
+      <c r="Q175" s="60"/>
       <c r="R175" s="45"/>
       <c r="S175" s="45"/>
       <c r="T175" s="45"/>
@@ -12782,14 +13147,16 @@
       <c r="Y175" s="45"/>
       <c r="Z175" s="45"/>
       <c r="AA175" s="45"/>
-      <c r="AB175" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="176" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A176" s="53"/>
-      <c r="B176" s="56"/>
-      <c r="C176" s="58"/>
+      <c r="AB175" s="45"/>
+      <c r="AC175" s="45"/>
+      <c r="AD175" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="176" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A176" s="50"/>
+      <c r="B176" s="53"/>
+      <c r="C176" s="55"/>
       <c r="D176" s="15" t="s">
         <v>47</v>
       </c>
@@ -12829,7 +13196,7 @@
       <c r="P176" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q176" s="50"/>
+      <c r="Q176" s="60"/>
       <c r="R176" s="45"/>
       <c r="S176" s="45"/>
       <c r="T176" s="45"/>
@@ -12840,14 +13207,16 @@
       <c r="Y176" s="45"/>
       <c r="Z176" s="45"/>
       <c r="AA176" s="45"/>
-      <c r="AB176" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="177" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A177" s="53"/>
-      <c r="B177" s="56"/>
-      <c r="C177" s="58"/>
+      <c r="AB176" s="45"/>
+      <c r="AC176" s="45"/>
+      <c r="AD176" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="177" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A177" s="50"/>
+      <c r="B177" s="53"/>
+      <c r="C177" s="55"/>
       <c r="D177" s="15" t="s">
         <v>61</v>
       </c>
@@ -12887,7 +13256,7 @@
       <c r="P177" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q177" s="50"/>
+      <c r="Q177" s="60"/>
       <c r="R177" s="45"/>
       <c r="S177" s="45"/>
       <c r="T177" s="45"/>
@@ -12898,14 +13267,16 @@
       <c r="Y177" s="45"/>
       <c r="Z177" s="45"/>
       <c r="AA177" s="45"/>
-      <c r="AB177" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="178" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A178" s="53"/>
-      <c r="B178" s="56"/>
-      <c r="C178" s="58"/>
+      <c r="AB177" s="45"/>
+      <c r="AC177" s="45"/>
+      <c r="AD177" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="178" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A178" s="50"/>
+      <c r="B178" s="53"/>
+      <c r="C178" s="55"/>
       <c r="D178" s="15" t="s">
         <v>64</v>
       </c>
@@ -12945,7 +13316,7 @@
       <c r="P178" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q178" s="50"/>
+      <c r="Q178" s="60"/>
       <c r="R178" s="45"/>
       <c r="S178" s="45"/>
       <c r="T178" s="45"/>
@@ -12956,14 +13327,16 @@
       <c r="Y178" s="45"/>
       <c r="Z178" s="45"/>
       <c r="AA178" s="45"/>
-      <c r="AB178" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="179" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A179" s="53"/>
-      <c r="B179" s="56"/>
-      <c r="C179" s="58"/>
+      <c r="AB178" s="45"/>
+      <c r="AC178" s="45"/>
+      <c r="AD178" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="179" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A179" s="50"/>
+      <c r="B179" s="53"/>
+      <c r="C179" s="55"/>
       <c r="D179" s="15" t="s">
         <v>67</v>
       </c>
@@ -13003,7 +13376,7 @@
       <c r="P179" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q179" s="50"/>
+      <c r="Q179" s="60"/>
       <c r="R179" s="45"/>
       <c r="S179" s="45"/>
       <c r="T179" s="45"/>
@@ -13014,14 +13387,16 @@
       <c r="Y179" s="45"/>
       <c r="Z179" s="45"/>
       <c r="AA179" s="45"/>
-      <c r="AB179" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="180" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A180" s="53"/>
-      <c r="B180" s="56"/>
-      <c r="C180" s="58"/>
+      <c r="AB179" s="45"/>
+      <c r="AC179" s="45"/>
+      <c r="AD179" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="180" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A180" s="50"/>
+      <c r="B180" s="53"/>
+      <c r="C180" s="55"/>
       <c r="D180" s="15" t="s">
         <v>69</v>
       </c>
@@ -13061,7 +13436,7 @@
       <c r="P180" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q180" s="50"/>
+      <c r="Q180" s="60"/>
       <c r="R180" s="45"/>
       <c r="S180" s="45"/>
       <c r="T180" s="45"/>
@@ -13072,14 +13447,16 @@
       <c r="Y180" s="45"/>
       <c r="Z180" s="45"/>
       <c r="AA180" s="45"/>
-      <c r="AB180" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="181" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A181" s="53"/>
-      <c r="B181" s="56"/>
-      <c r="C181" s="58"/>
+      <c r="AB180" s="45"/>
+      <c r="AC180" s="45"/>
+      <c r="AD180" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="181" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A181" s="50"/>
+      <c r="B181" s="53"/>
+      <c r="C181" s="55"/>
       <c r="D181" s="15" t="s">
         <v>72</v>
       </c>
@@ -13119,7 +13496,7 @@
       <c r="P181" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q181" s="50"/>
+      <c r="Q181" s="60"/>
       <c r="R181" s="45"/>
       <c r="S181" s="45"/>
       <c r="T181" s="45"/>
@@ -13130,14 +13507,16 @@
       <c r="Y181" s="45"/>
       <c r="Z181" s="45"/>
       <c r="AA181" s="45"/>
-      <c r="AB181" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="182" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A182" s="53"/>
-      <c r="B182" s="56"/>
-      <c r="C182" s="58"/>
+      <c r="AB181" s="45"/>
+      <c r="AC181" s="45"/>
+      <c r="AD181" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="182" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A182" s="50"/>
+      <c r="B182" s="53"/>
+      <c r="C182" s="55"/>
       <c r="D182" s="15" t="s">
         <v>75</v>
       </c>
@@ -13177,7 +13556,7 @@
       <c r="P182" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q182" s="50"/>
+      <c r="Q182" s="60"/>
       <c r="R182" s="45"/>
       <c r="S182" s="45"/>
       <c r="T182" s="45"/>
@@ -13188,14 +13567,16 @@
       <c r="Y182" s="45"/>
       <c r="Z182" s="45"/>
       <c r="AA182" s="45"/>
-      <c r="AB182" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="183" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A183" s="53"/>
-      <c r="B183" s="56"/>
-      <c r="C183" s="58"/>
+      <c r="AB182" s="45"/>
+      <c r="AC182" s="45"/>
+      <c r="AD182" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="183" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A183" s="50"/>
+      <c r="B183" s="53"/>
+      <c r="C183" s="55"/>
       <c r="D183" s="15" t="s">
         <v>78</v>
       </c>
@@ -13233,7 +13614,7 @@
       <c r="P183" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q183" s="50"/>
+      <c r="Q183" s="60"/>
       <c r="R183" s="45"/>
       <c r="S183" s="45"/>
       <c r="T183" s="45"/>
@@ -13244,14 +13625,16 @@
       <c r="Y183" s="45"/>
       <c r="Z183" s="45"/>
       <c r="AA183" s="45"/>
-      <c r="AB183" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="184" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A184" s="53"/>
-      <c r="B184" s="56"/>
-      <c r="C184" s="58"/>
+      <c r="AB183" s="45"/>
+      <c r="AC183" s="45"/>
+      <c r="AD183" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="184" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A184" s="50"/>
+      <c r="B184" s="53"/>
+      <c r="C184" s="55"/>
       <c r="D184" s="15" t="s">
         <v>81</v>
       </c>
@@ -13289,7 +13672,7 @@
       <c r="P184" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q184" s="50"/>
+      <c r="Q184" s="60"/>
       <c r="R184" s="45"/>
       <c r="S184" s="45"/>
       <c r="T184" s="45"/>
@@ -13300,14 +13683,16 @@
       <c r="Y184" s="45"/>
       <c r="Z184" s="45"/>
       <c r="AA184" s="45"/>
-      <c r="AB184" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="185" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A185" s="53"/>
-      <c r="B185" s="56"/>
-      <c r="C185" s="59" t="s">
+      <c r="AB184" s="45"/>
+      <c r="AC184" s="45"/>
+      <c r="AD184" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="185" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A185" s="50"/>
+      <c r="B185" s="53"/>
+      <c r="C185" s="56" t="s">
         <v>84</v>
       </c>
       <c r="D185" s="15" t="s">
@@ -13349,7 +13734,7 @@
       <c r="P185" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q185" s="50"/>
+      <c r="Q185" s="60"/>
       <c r="R185" s="45"/>
       <c r="S185" s="45"/>
       <c r="T185" s="45"/>
@@ -13360,14 +13745,16 @@
       <c r="Y185" s="45"/>
       <c r="Z185" s="45"/>
       <c r="AA185" s="45"/>
-      <c r="AB185" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="186" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A186" s="53"/>
-      <c r="B186" s="56"/>
-      <c r="C186" s="60"/>
+      <c r="AB185" s="45"/>
+      <c r="AC185" s="45"/>
+      <c r="AD185" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="186" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A186" s="50"/>
+      <c r="B186" s="53"/>
+      <c r="C186" s="57"/>
       <c r="D186" s="15" t="s">
         <v>87</v>
       </c>
@@ -13405,7 +13792,7 @@
       <c r="P186" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q186" s="50"/>
+      <c r="Q186" s="60"/>
       <c r="R186" s="45"/>
       <c r="S186" s="45"/>
       <c r="T186" s="45"/>
@@ -13416,14 +13803,16 @@
       <c r="Y186" s="45"/>
       <c r="Z186" s="45"/>
       <c r="AA186" s="45"/>
-      <c r="AB186" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="187" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A187" s="54"/>
-      <c r="B187" s="57"/>
-      <c r="C187" s="61"/>
+      <c r="AB186" s="45"/>
+      <c r="AC186" s="45"/>
+      <c r="AD186" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="187" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A187" s="51"/>
+      <c r="B187" s="54"/>
+      <c r="C187" s="58"/>
       <c r="D187" s="17" t="s">
         <v>89</v>
       </c>
@@ -13463,7 +13852,7 @@
       <c r="P187" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q187" s="50"/>
+      <c r="Q187" s="60"/>
       <c r="R187" s="45"/>
       <c r="S187" s="45"/>
       <c r="T187" s="45"/>
@@ -13474,18 +13863,20 @@
       <c r="Y187" s="45"/>
       <c r="Z187" s="45"/>
       <c r="AA187" s="45"/>
-      <c r="AB187" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="188" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A188" s="52">
+      <c r="AB187" s="45"/>
+      <c r="AC187" s="45"/>
+      <c r="AD187" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="188" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A188" s="49">
         <v>9</v>
       </c>
-      <c r="B188" s="55" t="s">
+      <c r="B188" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="C188" s="58" t="s">
+      <c r="C188" s="55" t="s">
         <v>381</v>
       </c>
       <c r="D188" s="6" t="s">
@@ -13527,7 +13918,7 @@
       <c r="P188" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q188" s="50"/>
+      <c r="Q188" s="60"/>
       <c r="R188" s="45"/>
       <c r="S188" s="45"/>
       <c r="T188" s="45"/>
@@ -13538,14 +13929,16 @@
       <c r="Y188" s="45"/>
       <c r="Z188" s="45"/>
       <c r="AA188" s="45"/>
-      <c r="AB188" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="189" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A189" s="53"/>
-      <c r="B189" s="56"/>
-      <c r="C189" s="58"/>
+      <c r="AB188" s="45"/>
+      <c r="AC188" s="45"/>
+      <c r="AD188" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="189" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A189" s="50"/>
+      <c r="B189" s="53"/>
+      <c r="C189" s="55"/>
       <c r="D189" s="6" t="s">
         <v>198</v>
       </c>
@@ -13585,7 +13978,7 @@
       <c r="P189" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q189" s="50"/>
+      <c r="Q189" s="60"/>
       <c r="R189" s="45"/>
       <c r="S189" s="45"/>
       <c r="T189" s="45"/>
@@ -13596,14 +13989,16 @@
       <c r="Y189" s="45"/>
       <c r="Z189" s="45"/>
       <c r="AA189" s="45"/>
-      <c r="AB189" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="190" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A190" s="53"/>
-      <c r="B190" s="56"/>
-      <c r="C190" s="58"/>
+      <c r="AB189" s="45"/>
+      <c r="AC189" s="45"/>
+      <c r="AD189" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="190" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A190" s="50"/>
+      <c r="B190" s="53"/>
+      <c r="C190" s="55"/>
       <c r="D190" s="6" t="s">
         <v>384</v>
       </c>
@@ -13643,7 +14038,7 @@
       <c r="P190" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q190" s="50"/>
+      <c r="Q190" s="60"/>
       <c r="R190" s="45"/>
       <c r="S190" s="45"/>
       <c r="T190" s="45"/>
@@ -13654,14 +14049,16 @@
       <c r="Y190" s="45"/>
       <c r="Z190" s="45"/>
       <c r="AA190" s="45"/>
-      <c r="AB190" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="191" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A191" s="53"/>
-      <c r="B191" s="56"/>
-      <c r="C191" s="58"/>
+      <c r="AB190" s="45"/>
+      <c r="AC190" s="45"/>
+      <c r="AD190" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="191" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A191" s="50"/>
+      <c r="B191" s="53"/>
+      <c r="C191" s="55"/>
       <c r="D191" s="6" t="s">
         <v>386</v>
       </c>
@@ -13701,7 +14098,7 @@
       <c r="P191" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q191" s="50"/>
+      <c r="Q191" s="60"/>
       <c r="R191" s="45"/>
       <c r="S191" s="45"/>
       <c r="T191" s="45"/>
@@ -13712,14 +14109,16 @@
       <c r="Y191" s="45"/>
       <c r="Z191" s="45"/>
       <c r="AA191" s="45"/>
-      <c r="AB191" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="192" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A192" s="53"/>
-      <c r="B192" s="56"/>
-      <c r="C192" s="58"/>
+      <c r="AB191" s="45"/>
+      <c r="AC191" s="45"/>
+      <c r="AD191" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="192" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A192" s="50"/>
+      <c r="B192" s="53"/>
+      <c r="C192" s="55"/>
       <c r="D192" s="6" t="s">
         <v>388</v>
       </c>
@@ -13759,7 +14158,7 @@
       <c r="P192" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q192" s="50"/>
+      <c r="Q192" s="60"/>
       <c r="R192" s="45"/>
       <c r="S192" s="45"/>
       <c r="T192" s="45"/>
@@ -13770,14 +14169,16 @@
       <c r="Y192" s="45"/>
       <c r="Z192" s="45"/>
       <c r="AA192" s="45"/>
-      <c r="AB192" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="193" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A193" s="53"/>
-      <c r="B193" s="56"/>
-      <c r="C193" s="58" t="s">
+      <c r="AB192" s="45"/>
+      <c r="AC192" s="45"/>
+      <c r="AD192" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="193" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A193" s="50"/>
+      <c r="B193" s="53"/>
+      <c r="C193" s="55" t="s">
         <v>390</v>
       </c>
       <c r="D193" s="15" t="s">
@@ -13819,7 +14220,7 @@
       <c r="P193" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q193" s="50"/>
+      <c r="Q193" s="60"/>
       <c r="R193" s="45"/>
       <c r="S193" s="45"/>
       <c r="T193" s="45"/>
@@ -13830,14 +14231,16 @@
       <c r="Y193" s="45"/>
       <c r="Z193" s="45"/>
       <c r="AA193" s="45"/>
-      <c r="AB193" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="194" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A194" s="53"/>
-      <c r="B194" s="56"/>
-      <c r="C194" s="58"/>
+      <c r="AB193" s="45"/>
+      <c r="AC193" s="45"/>
+      <c r="AD193" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="194" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A194" s="50"/>
+      <c r="B194" s="53"/>
+      <c r="C194" s="55"/>
       <c r="D194" s="15" t="s">
         <v>33</v>
       </c>
@@ -13877,7 +14280,7 @@
       <c r="P194" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q194" s="50"/>
+      <c r="Q194" s="60"/>
       <c r="R194" s="45"/>
       <c r="S194" s="45"/>
       <c r="T194" s="45"/>
@@ -13888,14 +14291,16 @@
       <c r="Y194" s="45"/>
       <c r="Z194" s="45"/>
       <c r="AA194" s="45"/>
-      <c r="AB194" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="195" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A195" s="53"/>
-      <c r="B195" s="56"/>
-      <c r="C195" s="58"/>
+      <c r="AB194" s="45"/>
+      <c r="AC194" s="45"/>
+      <c r="AD194" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="195" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A195" s="50"/>
+      <c r="B195" s="53"/>
+      <c r="C195" s="55"/>
       <c r="D195" s="15" t="s">
         <v>36</v>
       </c>
@@ -13935,7 +14340,7 @@
       <c r="P195" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q195" s="50"/>
+      <c r="Q195" s="60"/>
       <c r="R195" s="45"/>
       <c r="S195" s="45"/>
       <c r="T195" s="45"/>
@@ -13946,14 +14351,16 @@
       <c r="Y195" s="45"/>
       <c r="Z195" s="45"/>
       <c r="AA195" s="45"/>
-      <c r="AB195" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="196" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A196" s="53"/>
-      <c r="B196" s="56"/>
-      <c r="C196" s="58"/>
+      <c r="AB195" s="45"/>
+      <c r="AC195" s="45"/>
+      <c r="AD195" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="196" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A196" s="50"/>
+      <c r="B196" s="53"/>
+      <c r="C196" s="55"/>
       <c r="D196" s="15" t="s">
         <v>38</v>
       </c>
@@ -13993,7 +14400,7 @@
       <c r="P196" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q196" s="50"/>
+      <c r="Q196" s="60"/>
       <c r="R196" s="45"/>
       <c r="S196" s="45"/>
       <c r="T196" s="45"/>
@@ -14004,14 +14411,16 @@
       <c r="Y196" s="45"/>
       <c r="Z196" s="45"/>
       <c r="AA196" s="45"/>
-      <c r="AB196" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="197" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A197" s="53"/>
-      <c r="B197" s="56"/>
-      <c r="C197" s="58"/>
+      <c r="AB196" s="45"/>
+      <c r="AC196" s="45"/>
+      <c r="AD196" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="197" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A197" s="50"/>
+      <c r="B197" s="53"/>
+      <c r="C197" s="55"/>
       <c r="D197" s="15" t="s">
         <v>41</v>
       </c>
@@ -14051,7 +14460,7 @@
       <c r="P197" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q197" s="50"/>
+      <c r="Q197" s="60"/>
       <c r="R197" s="45"/>
       <c r="S197" s="45"/>
       <c r="T197" s="45"/>
@@ -14062,14 +14471,16 @@
       <c r="Y197" s="45"/>
       <c r="Z197" s="45"/>
       <c r="AA197" s="45"/>
-      <c r="AB197" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="198" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A198" s="53"/>
-      <c r="B198" s="56"/>
-      <c r="C198" s="58"/>
+      <c r="AB197" s="45"/>
+      <c r="AC197" s="45"/>
+      <c r="AD197" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="198" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A198" s="50"/>
+      <c r="B198" s="53"/>
+      <c r="C198" s="55"/>
       <c r="D198" s="15" t="s">
         <v>44</v>
       </c>
@@ -14109,7 +14520,7 @@
       <c r="P198" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q198" s="50"/>
+      <c r="Q198" s="60"/>
       <c r="R198" s="45"/>
       <c r="S198" s="45"/>
       <c r="T198" s="45"/>
@@ -14120,14 +14531,16 @@
       <c r="Y198" s="45"/>
       <c r="Z198" s="45"/>
       <c r="AA198" s="45"/>
-      <c r="AB198" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="199" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A199" s="53"/>
-      <c r="B199" s="56"/>
-      <c r="C199" s="58"/>
+      <c r="AB198" s="45"/>
+      <c r="AC198" s="45"/>
+      <c r="AD198" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="199" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A199" s="50"/>
+      <c r="B199" s="53"/>
+      <c r="C199" s="55"/>
       <c r="D199" s="15" t="s">
         <v>47</v>
       </c>
@@ -14167,7 +14580,7 @@
       <c r="P199" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q199" s="50"/>
+      <c r="Q199" s="60"/>
       <c r="R199" s="45"/>
       <c r="S199" s="45"/>
       <c r="T199" s="45"/>
@@ -14178,14 +14591,16 @@
       <c r="Y199" s="45"/>
       <c r="Z199" s="45"/>
       <c r="AA199" s="45"/>
-      <c r="AB199" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="200" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A200" s="53"/>
-      <c r="B200" s="56"/>
-      <c r="C200" s="58"/>
+      <c r="AB199" s="45"/>
+      <c r="AC199" s="45"/>
+      <c r="AD199" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="200" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A200" s="50"/>
+      <c r="B200" s="53"/>
+      <c r="C200" s="55"/>
       <c r="D200" s="15" t="s">
         <v>47</v>
       </c>
@@ -14225,7 +14640,7 @@
       <c r="P200" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q200" s="50"/>
+      <c r="Q200" s="60"/>
       <c r="R200" s="45"/>
       <c r="S200" s="45"/>
       <c r="T200" s="45"/>
@@ -14236,14 +14651,16 @@
       <c r="Y200" s="45"/>
       <c r="Z200" s="45"/>
       <c r="AA200" s="45"/>
-      <c r="AB200" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="201" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A201" s="53"/>
-      <c r="B201" s="56"/>
-      <c r="C201" s="58"/>
+      <c r="AB200" s="45"/>
+      <c r="AC200" s="45"/>
+      <c r="AD200" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="201" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A201" s="50"/>
+      <c r="B201" s="53"/>
+      <c r="C201" s="55"/>
       <c r="D201" s="15" t="s">
         <v>47</v>
       </c>
@@ -14283,7 +14700,7 @@
       <c r="P201" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q201" s="50"/>
+      <c r="Q201" s="60"/>
       <c r="R201" s="45"/>
       <c r="S201" s="45"/>
       <c r="T201" s="45"/>
@@ -14294,14 +14711,16 @@
       <c r="Y201" s="45"/>
       <c r="Z201" s="45"/>
       <c r="AA201" s="45"/>
-      <c r="AB201" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="202" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A202" s="53"/>
-      <c r="B202" s="56"/>
-      <c r="C202" s="58"/>
+      <c r="AB201" s="45"/>
+      <c r="AC201" s="45"/>
+      <c r="AD201" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="202" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A202" s="50"/>
+      <c r="B202" s="53"/>
+      <c r="C202" s="55"/>
       <c r="D202" s="15" t="s">
         <v>61</v>
       </c>
@@ -14341,7 +14760,7 @@
       <c r="P202" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q202" s="50"/>
+      <c r="Q202" s="60"/>
       <c r="R202" s="45"/>
       <c r="S202" s="45"/>
       <c r="T202" s="45"/>
@@ -14352,14 +14771,16 @@
       <c r="Y202" s="45"/>
       <c r="Z202" s="45"/>
       <c r="AA202" s="45"/>
-      <c r="AB202" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="203" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A203" s="53"/>
-      <c r="B203" s="56"/>
-      <c r="C203" s="58"/>
+      <c r="AB202" s="45"/>
+      <c r="AC202" s="45"/>
+      <c r="AD202" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="203" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A203" s="50"/>
+      <c r="B203" s="53"/>
+      <c r="C203" s="55"/>
       <c r="D203" s="15" t="s">
         <v>64</v>
       </c>
@@ -14399,7 +14820,7 @@
       <c r="P203" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q203" s="50"/>
+      <c r="Q203" s="60"/>
       <c r="R203" s="45"/>
       <c r="S203" s="45"/>
       <c r="T203" s="45"/>
@@ -14410,14 +14831,16 @@
       <c r="Y203" s="45"/>
       <c r="Z203" s="45"/>
       <c r="AA203" s="45"/>
-      <c r="AB203" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="204" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A204" s="53"/>
-      <c r="B204" s="56"/>
-      <c r="C204" s="58"/>
+      <c r="AB203" s="45"/>
+      <c r="AC203" s="45"/>
+      <c r="AD203" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="204" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A204" s="50"/>
+      <c r="B204" s="53"/>
+      <c r="C204" s="55"/>
       <c r="D204" s="15" t="s">
         <v>67</v>
       </c>
@@ -14457,7 +14880,7 @@
       <c r="P204" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q204" s="50"/>
+      <c r="Q204" s="60"/>
       <c r="R204" s="45"/>
       <c r="S204" s="45"/>
       <c r="T204" s="45"/>
@@ -14468,14 +14891,16 @@
       <c r="Y204" s="45"/>
       <c r="Z204" s="45"/>
       <c r="AA204" s="45"/>
-      <c r="AB204" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="205" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A205" s="53"/>
-      <c r="B205" s="56"/>
-      <c r="C205" s="58"/>
+      <c r="AB204" s="45"/>
+      <c r="AC204" s="45"/>
+      <c r="AD204" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="205" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A205" s="50"/>
+      <c r="B205" s="53"/>
+      <c r="C205" s="55"/>
       <c r="D205" s="15" t="s">
         <v>69</v>
       </c>
@@ -14515,7 +14940,7 @@
       <c r="P205" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q205" s="50"/>
+      <c r="Q205" s="60"/>
       <c r="R205" s="45"/>
       <c r="S205" s="45"/>
       <c r="T205" s="45"/>
@@ -14526,14 +14951,16 @@
       <c r="Y205" s="45"/>
       <c r="Z205" s="45"/>
       <c r="AA205" s="45"/>
-      <c r="AB205" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="206" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A206" s="53"/>
-      <c r="B206" s="56"/>
-      <c r="C206" s="58"/>
+      <c r="AB205" s="45"/>
+      <c r="AC205" s="45"/>
+      <c r="AD205" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="206" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A206" s="50"/>
+      <c r="B206" s="53"/>
+      <c r="C206" s="55"/>
       <c r="D206" s="15" t="s">
         <v>72</v>
       </c>
@@ -14571,7 +14998,7 @@
       <c r="P206" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q206" s="50"/>
+      <c r="Q206" s="60"/>
       <c r="R206" s="45"/>
       <c r="S206" s="45"/>
       <c r="T206" s="45"/>
@@ -14582,14 +15009,16 @@
       <c r="Y206" s="45"/>
       <c r="Z206" s="45"/>
       <c r="AA206" s="45"/>
-      <c r="AB206" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="207" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A207" s="53"/>
-      <c r="B207" s="56"/>
-      <c r="C207" s="58"/>
+      <c r="AB206" s="45"/>
+      <c r="AC206" s="45"/>
+      <c r="AD206" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="207" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A207" s="50"/>
+      <c r="B207" s="53"/>
+      <c r="C207" s="55"/>
       <c r="D207" s="15" t="s">
         <v>75</v>
       </c>
@@ -14627,7 +15056,7 @@
       <c r="P207" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q207" s="50"/>
+      <c r="Q207" s="60"/>
       <c r="R207" s="45"/>
       <c r="S207" s="45"/>
       <c r="T207" s="45"/>
@@ -14638,14 +15067,16 @@
       <c r="Y207" s="45"/>
       <c r="Z207" s="45"/>
       <c r="AA207" s="45"/>
-      <c r="AB207" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="208" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A208" s="53"/>
-      <c r="B208" s="56"/>
-      <c r="C208" s="58"/>
+      <c r="AB207" s="45"/>
+      <c r="AC207" s="45"/>
+      <c r="AD207" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="208" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A208" s="50"/>
+      <c r="B208" s="53"/>
+      <c r="C208" s="55"/>
       <c r="D208" s="15" t="s">
         <v>78</v>
       </c>
@@ -14683,7 +15114,7 @@
       <c r="P208" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q208" s="50"/>
+      <c r="Q208" s="60"/>
       <c r="R208" s="45"/>
       <c r="S208" s="45"/>
       <c r="T208" s="45"/>
@@ -14694,14 +15125,16 @@
       <c r="Y208" s="45"/>
       <c r="Z208" s="45"/>
       <c r="AA208" s="45"/>
-      <c r="AB208" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="209" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A209" s="53"/>
-      <c r="B209" s="56"/>
-      <c r="C209" s="58"/>
+      <c r="AB208" s="45"/>
+      <c r="AC208" s="45"/>
+      <c r="AD208" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="209" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A209" s="50"/>
+      <c r="B209" s="53"/>
+      <c r="C209" s="55"/>
       <c r="D209" s="15" t="s">
         <v>81</v>
       </c>
@@ -14739,7 +15172,7 @@
       <c r="P209" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q209" s="50"/>
+      <c r="Q209" s="60"/>
       <c r="R209" s="45"/>
       <c r="S209" s="45"/>
       <c r="T209" s="45"/>
@@ -14750,14 +15183,16 @@
       <c r="Y209" s="45"/>
       <c r="Z209" s="45"/>
       <c r="AA209" s="45"/>
-      <c r="AB209" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="210" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A210" s="53"/>
-      <c r="B210" s="56"/>
-      <c r="C210" s="59" t="s">
+      <c r="AB209" s="45"/>
+      <c r="AC209" s="45"/>
+      <c r="AD209" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="210" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A210" s="50"/>
+      <c r="B210" s="53"/>
+      <c r="C210" s="56" t="s">
         <v>377</v>
       </c>
       <c r="D210" s="15" t="s">
@@ -14799,7 +15234,7 @@
       <c r="P210" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q210" s="50"/>
+      <c r="Q210" s="60"/>
       <c r="R210" s="45"/>
       <c r="S210" s="45"/>
       <c r="T210" s="45"/>
@@ -14810,14 +15245,16 @@
       <c r="Y210" s="45"/>
       <c r="Z210" s="45"/>
       <c r="AA210" s="45"/>
-      <c r="AB210" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="211" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A211" s="53"/>
-      <c r="B211" s="56"/>
-      <c r="C211" s="60"/>
+      <c r="AB210" s="45"/>
+      <c r="AC210" s="45"/>
+      <c r="AD210" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="211" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A211" s="50"/>
+      <c r="B211" s="53"/>
+      <c r="C211" s="57"/>
       <c r="D211" s="15" t="s">
         <v>87</v>
       </c>
@@ -14855,7 +15292,7 @@
       <c r="P211" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q211" s="50"/>
+      <c r="Q211" s="60"/>
       <c r="R211" s="45"/>
       <c r="S211" s="45"/>
       <c r="T211" s="45"/>
@@ -14866,14 +15303,16 @@
       <c r="Y211" s="45"/>
       <c r="Z211" s="45"/>
       <c r="AA211" s="45"/>
-      <c r="AB211" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="212" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A212" s="54"/>
-      <c r="B212" s="57"/>
-      <c r="C212" s="61"/>
+      <c r="AB211" s="45"/>
+      <c r="AC211" s="45"/>
+      <c r="AD211" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="212" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A212" s="51"/>
+      <c r="B212" s="54"/>
+      <c r="C212" s="58"/>
       <c r="D212" s="17" t="s">
         <v>89</v>
       </c>
@@ -14913,7 +15352,7 @@
       <c r="P212" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q212" s="50"/>
+      <c r="Q212" s="60"/>
       <c r="R212" s="45"/>
       <c r="S212" s="45"/>
       <c r="T212" s="45"/>
@@ -14924,18 +15363,20 @@
       <c r="Y212" s="45"/>
       <c r="Z212" s="45"/>
       <c r="AA212" s="45"/>
-      <c r="AB212" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="213" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A213" s="52">
+      <c r="AB212" s="45"/>
+      <c r="AC212" s="45"/>
+      <c r="AD212" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="213" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A213" s="49">
         <v>10</v>
       </c>
-      <c r="B213" s="55" t="s">
+      <c r="B213" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C213" s="58" t="s">
+      <c r="C213" s="55" t="s">
         <v>343</v>
       </c>
       <c r="D213" s="6" t="s">
@@ -14977,7 +15418,7 @@
       <c r="P213" s="19">
         <v>1</v>
       </c>
-      <c r="Q213" s="50"/>
+      <c r="Q213" s="60"/>
       <c r="R213" s="45"/>
       <c r="S213" s="45"/>
       <c r="T213" s="45"/>
@@ -14988,14 +15429,16 @@
       <c r="Y213" s="45"/>
       <c r="Z213" s="45"/>
       <c r="AA213" s="45"/>
-      <c r="AB213" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="214" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A214" s="53"/>
-      <c r="B214" s="56"/>
-      <c r="C214" s="58"/>
+      <c r="AB213" s="45"/>
+      <c r="AC213" s="45"/>
+      <c r="AD213" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="214" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A214" s="50"/>
+      <c r="B214" s="53"/>
+      <c r="C214" s="55"/>
       <c r="D214" s="6" t="s">
         <v>198</v>
       </c>
@@ -15035,7 +15478,7 @@
       <c r="P214" s="19">
         <v>12</v>
       </c>
-      <c r="Q214" s="50"/>
+      <c r="Q214" s="60"/>
       <c r="R214" s="45"/>
       <c r="S214" s="45"/>
       <c r="T214" s="45"/>
@@ -15046,14 +15489,16 @@
       <c r="Y214" s="45"/>
       <c r="Z214" s="45"/>
       <c r="AA214" s="45"/>
-      <c r="AB214" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="215" spans="1:28" ht="45" x14ac:dyDescent="0.25">
-      <c r="A215" s="53"/>
-      <c r="B215" s="56"/>
-      <c r="C215" s="58"/>
+      <c r="AB214" s="45"/>
+      <c r="AC214" s="45"/>
+      <c r="AD214" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="215" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+      <c r="A215" s="50"/>
+      <c r="B215" s="53"/>
+      <c r="C215" s="55"/>
       <c r="D215" s="6" t="s">
         <v>346</v>
       </c>
@@ -15093,7 +15538,7 @@
       <c r="P215" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="Q215" s="50"/>
+      <c r="Q215" s="60"/>
       <c r="R215" s="45"/>
       <c r="S215" s="45"/>
       <c r="T215" s="45"/>
@@ -15104,14 +15549,16 @@
       <c r="Y215" s="45"/>
       <c r="Z215" s="45"/>
       <c r="AA215" s="45"/>
-      <c r="AB215" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="216" spans="1:28" ht="45" x14ac:dyDescent="0.25">
-      <c r="A216" s="53"/>
-      <c r="B216" s="56"/>
-      <c r="C216" s="58"/>
+      <c r="AB215" s="45"/>
+      <c r="AC215" s="45"/>
+      <c r="AD215" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="216" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+      <c r="A216" s="50"/>
+      <c r="B216" s="53"/>
+      <c r="C216" s="55"/>
       <c r="D216" s="6" t="s">
         <v>349</v>
       </c>
@@ -15151,7 +15598,7 @@
       <c r="P216" s="22" t="s">
         <v>351</v>
       </c>
-      <c r="Q216" s="50"/>
+      <c r="Q216" s="60"/>
       <c r="R216" s="45"/>
       <c r="S216" s="45"/>
       <c r="T216" s="45"/>
@@ -15162,14 +15609,16 @@
       <c r="Y216" s="45"/>
       <c r="Z216" s="45"/>
       <c r="AA216" s="45"/>
-      <c r="AB216" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="217" spans="1:28" ht="45" x14ac:dyDescent="0.25">
-      <c r="A217" s="53"/>
-      <c r="B217" s="56"/>
-      <c r="C217" s="58"/>
+      <c r="AB216" s="45"/>
+      <c r="AC216" s="45"/>
+      <c r="AD216" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="217" spans="1:30" ht="45" x14ac:dyDescent="0.25">
+      <c r="A217" s="50"/>
+      <c r="B217" s="53"/>
+      <c r="C217" s="55"/>
       <c r="D217" s="6" t="s">
         <v>352</v>
       </c>
@@ -15209,7 +15658,7 @@
       <c r="P217" s="22" t="s">
         <v>354</v>
       </c>
-      <c r="Q217" s="50"/>
+      <c r="Q217" s="60"/>
       <c r="R217" s="45"/>
       <c r="S217" s="45"/>
       <c r="T217" s="45"/>
@@ -15220,14 +15669,16 @@
       <c r="Y217" s="45"/>
       <c r="Z217" s="45"/>
       <c r="AA217" s="45"/>
-      <c r="AB217" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="218" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A218" s="53"/>
-      <c r="B218" s="56"/>
-      <c r="C218" s="58" t="s">
+      <c r="AB217" s="45"/>
+      <c r="AC217" s="45"/>
+      <c r="AD217" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="218" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A218" s="50"/>
+      <c r="B218" s="53"/>
+      <c r="C218" s="55" t="s">
         <v>355</v>
       </c>
       <c r="D218" s="15" t="s">
@@ -15269,7 +15720,7 @@
       <c r="P218" s="19" t="s">
         <v>357</v>
       </c>
-      <c r="Q218" s="50"/>
+      <c r="Q218" s="60"/>
       <c r="R218" s="45"/>
       <c r="S218" s="45"/>
       <c r="T218" s="45"/>
@@ -15280,14 +15731,16 @@
       <c r="Y218" s="45"/>
       <c r="Z218" s="45"/>
       <c r="AA218" s="45"/>
-      <c r="AB218" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="219" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A219" s="53"/>
-      <c r="B219" s="56"/>
-      <c r="C219" s="58"/>
+      <c r="AB218" s="45"/>
+      <c r="AC218" s="45"/>
+      <c r="AD218" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="219" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A219" s="50"/>
+      <c r="B219" s="53"/>
+      <c r="C219" s="55"/>
       <c r="D219" s="15" t="s">
         <v>33</v>
       </c>
@@ -15327,7 +15780,7 @@
       <c r="P219" s="19" t="s">
         <v>359</v>
       </c>
-      <c r="Q219" s="50"/>
+      <c r="Q219" s="60"/>
       <c r="R219" s="45"/>
       <c r="S219" s="45"/>
       <c r="T219" s="45"/>
@@ -15338,14 +15791,16 @@
       <c r="Y219" s="45"/>
       <c r="Z219" s="45"/>
       <c r="AA219" s="45"/>
-      <c r="AB219" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="220" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A220" s="53"/>
-      <c r="B220" s="56"/>
-      <c r="C220" s="58"/>
+      <c r="AB219" s="45"/>
+      <c r="AC219" s="45"/>
+      <c r="AD219" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="220" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A220" s="50"/>
+      <c r="B220" s="53"/>
+      <c r="C220" s="55"/>
       <c r="D220" s="15" t="s">
         <v>36</v>
       </c>
@@ -15385,7 +15840,7 @@
       <c r="P220" s="19">
         <v>9876543210</v>
       </c>
-      <c r="Q220" s="50"/>
+      <c r="Q220" s="60"/>
       <c r="R220" s="45"/>
       <c r="S220" s="45"/>
       <c r="T220" s="45"/>
@@ -15396,14 +15851,16 @@
       <c r="Y220" s="45"/>
       <c r="Z220" s="45"/>
       <c r="AA220" s="45"/>
-      <c r="AB220" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="221" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A221" s="53"/>
-      <c r="B221" s="56"/>
-      <c r="C221" s="58"/>
+      <c r="AB220" s="45"/>
+      <c r="AC220" s="45"/>
+      <c r="AD220" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="221" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A221" s="50"/>
+      <c r="B221" s="53"/>
+      <c r="C221" s="55"/>
       <c r="D221" s="15" t="s">
         <v>38</v>
       </c>
@@ -15443,7 +15900,7 @@
       <c r="P221" s="19" t="s">
         <v>362</v>
       </c>
-      <c r="Q221" s="50"/>
+      <c r="Q221" s="60"/>
       <c r="R221" s="45"/>
       <c r="S221" s="45"/>
       <c r="T221" s="45"/>
@@ -15454,14 +15911,16 @@
       <c r="Y221" s="45"/>
       <c r="Z221" s="45"/>
       <c r="AA221" s="45"/>
-      <c r="AB221" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="222" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A222" s="53"/>
-      <c r="B222" s="56"/>
-      <c r="C222" s="58"/>
+      <c r="AB221" s="45"/>
+      <c r="AC221" s="45"/>
+      <c r="AD221" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="222" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A222" s="50"/>
+      <c r="B222" s="53"/>
+      <c r="C222" s="55"/>
       <c r="D222" s="15" t="s">
         <v>41</v>
       </c>
@@ -15501,7 +15960,7 @@
       <c r="P222" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="Q222" s="50"/>
+      <c r="Q222" s="60"/>
       <c r="R222" s="45"/>
       <c r="S222" s="45"/>
       <c r="T222" s="45"/>
@@ -15512,14 +15971,16 @@
       <c r="Y222" s="45"/>
       <c r="Z222" s="45"/>
       <c r="AA222" s="45"/>
-      <c r="AB222" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="223" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A223" s="53"/>
-      <c r="B223" s="56"/>
-      <c r="C223" s="58"/>
+      <c r="AB222" s="45"/>
+      <c r="AC222" s="45"/>
+      <c r="AD222" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="223" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A223" s="50"/>
+      <c r="B223" s="53"/>
+      <c r="C223" s="55"/>
       <c r="D223" s="15" t="s">
         <v>44</v>
       </c>
@@ -15559,7 +16020,7 @@
       <c r="P223" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="Q223" s="50"/>
+      <c r="Q223" s="60"/>
       <c r="R223" s="45"/>
       <c r="S223" s="45"/>
       <c r="T223" s="45"/>
@@ -15570,14 +16031,16 @@
       <c r="Y223" s="45"/>
       <c r="Z223" s="45"/>
       <c r="AA223" s="45"/>
-      <c r="AB223" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="224" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A224" s="53"/>
-      <c r="B224" s="56"/>
-      <c r="C224" s="58"/>
+      <c r="AB223" s="45"/>
+      <c r="AC223" s="45"/>
+      <c r="AD223" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="224" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A224" s="50"/>
+      <c r="B224" s="53"/>
+      <c r="C224" s="55"/>
       <c r="D224" s="15" t="s">
         <v>47</v>
       </c>
@@ -15617,7 +16080,7 @@
       <c r="P224" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="Q224" s="50"/>
+      <c r="Q224" s="60"/>
       <c r="R224" s="45"/>
       <c r="S224" s="45"/>
       <c r="T224" s="45"/>
@@ -15628,14 +16091,16 @@
       <c r="Y224" s="45"/>
       <c r="Z224" s="45"/>
       <c r="AA224" s="45"/>
-      <c r="AB224" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="225" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A225" s="53"/>
-      <c r="B225" s="56"/>
-      <c r="C225" s="58"/>
+      <c r="AB224" s="45"/>
+      <c r="AC224" s="45"/>
+      <c r="AD224" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="225" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A225" s="50"/>
+      <c r="B225" s="53"/>
+      <c r="C225" s="55"/>
       <c r="D225" s="15" t="s">
         <v>47</v>
       </c>
@@ -15675,7 +16140,7 @@
       <c r="P225" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="Q225" s="50"/>
+      <c r="Q225" s="60"/>
       <c r="R225" s="45"/>
       <c r="S225" s="45"/>
       <c r="T225" s="45"/>
@@ -15686,14 +16151,16 @@
       <c r="Y225" s="45"/>
       <c r="Z225" s="45"/>
       <c r="AA225" s="45"/>
-      <c r="AB225" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="226" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A226" s="53"/>
-      <c r="B226" s="56"/>
-      <c r="C226" s="58"/>
+      <c r="AB225" s="45"/>
+      <c r="AC225" s="45"/>
+      <c r="AD225" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="226" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A226" s="50"/>
+      <c r="B226" s="53"/>
+      <c r="C226" s="55"/>
       <c r="D226" s="15" t="s">
         <v>47</v>
       </c>
@@ -15733,7 +16200,7 @@
       <c r="P226" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="Q226" s="50"/>
+      <c r="Q226" s="60"/>
       <c r="R226" s="45"/>
       <c r="S226" s="45"/>
       <c r="T226" s="45"/>
@@ -15744,14 +16211,16 @@
       <c r="Y226" s="45"/>
       <c r="Z226" s="45"/>
       <c r="AA226" s="45"/>
-      <c r="AB226" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="227" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A227" s="53"/>
-      <c r="B227" s="56"/>
-      <c r="C227" s="58"/>
+      <c r="AB226" s="45"/>
+      <c r="AC226" s="45"/>
+      <c r="AD226" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="227" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A227" s="50"/>
+      <c r="B227" s="53"/>
+      <c r="C227" s="55"/>
       <c r="D227" s="15" t="s">
         <v>61</v>
       </c>
@@ -15791,7 +16260,7 @@
       <c r="P227" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="Q227" s="50"/>
+      <c r="Q227" s="60"/>
       <c r="R227" s="45"/>
       <c r="S227" s="45"/>
       <c r="T227" s="45"/>
@@ -15802,14 +16271,16 @@
       <c r="Y227" s="45"/>
       <c r="Z227" s="45"/>
       <c r="AA227" s="45"/>
-      <c r="AB227" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="228" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A228" s="53"/>
-      <c r="B228" s="56"/>
-      <c r="C228" s="58"/>
+      <c r="AB227" s="45"/>
+      <c r="AC227" s="45"/>
+      <c r="AD227" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="228" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A228" s="50"/>
+      <c r="B228" s="53"/>
+      <c r="C228" s="55"/>
       <c r="D228" s="15" t="s">
         <v>64</v>
       </c>
@@ -15849,7 +16320,7 @@
       <c r="P228" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="Q228" s="50"/>
+      <c r="Q228" s="60"/>
       <c r="R228" s="45"/>
       <c r="S228" s="45"/>
       <c r="T228" s="45"/>
@@ -15860,14 +16331,16 @@
       <c r="Y228" s="45"/>
       <c r="Z228" s="45"/>
       <c r="AA228" s="45"/>
-      <c r="AB228" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="229" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A229" s="53"/>
-      <c r="B229" s="56"/>
-      <c r="C229" s="58"/>
+      <c r="AB228" s="45"/>
+      <c r="AC228" s="45"/>
+      <c r="AD228" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="229" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A229" s="50"/>
+      <c r="B229" s="53"/>
+      <c r="C229" s="55"/>
       <c r="D229" s="15" t="s">
         <v>67</v>
       </c>
@@ -15907,7 +16380,7 @@
       <c r="P229" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="Q229" s="50"/>
+      <c r="Q229" s="60"/>
       <c r="R229" s="45"/>
       <c r="S229" s="45"/>
       <c r="T229" s="45"/>
@@ -15918,14 +16391,16 @@
       <c r="Y229" s="45"/>
       <c r="Z229" s="45"/>
       <c r="AA229" s="45"/>
-      <c r="AB229" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="230" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A230" s="53"/>
-      <c r="B230" s="56"/>
-      <c r="C230" s="58"/>
+      <c r="AB229" s="45"/>
+      <c r="AC229" s="45"/>
+      <c r="AD229" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="230" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A230" s="50"/>
+      <c r="B230" s="53"/>
+      <c r="C230" s="55"/>
       <c r="D230" s="15" t="s">
         <v>69</v>
       </c>
@@ -15965,7 +16440,7 @@
       <c r="P230" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="Q230" s="50"/>
+      <c r="Q230" s="60"/>
       <c r="R230" s="45"/>
       <c r="S230" s="45"/>
       <c r="T230" s="45"/>
@@ -15976,14 +16451,16 @@
       <c r="Y230" s="45"/>
       <c r="Z230" s="45"/>
       <c r="AA230" s="45"/>
-      <c r="AB230" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="231" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A231" s="53"/>
-      <c r="B231" s="56"/>
-      <c r="C231" s="58"/>
+      <c r="AB230" s="45"/>
+      <c r="AC230" s="45"/>
+      <c r="AD230" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="231" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A231" s="50"/>
+      <c r="B231" s="53"/>
+      <c r="C231" s="55"/>
       <c r="D231" s="15" t="s">
         <v>72</v>
       </c>
@@ -16023,7 +16500,7 @@
       <c r="P231" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="Q231" s="50"/>
+      <c r="Q231" s="60"/>
       <c r="R231" s="45"/>
       <c r="S231" s="45"/>
       <c r="T231" s="45"/>
@@ -16034,14 +16511,16 @@
       <c r="Y231" s="45"/>
       <c r="Z231" s="45"/>
       <c r="AA231" s="45"/>
-      <c r="AB231" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="232" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A232" s="53"/>
-      <c r="B232" s="56"/>
-      <c r="C232" s="58"/>
+      <c r="AB231" s="45"/>
+      <c r="AC231" s="45"/>
+      <c r="AD231" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="232" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A232" s="50"/>
+      <c r="B232" s="53"/>
+      <c r="C232" s="55"/>
       <c r="D232" s="15" t="s">
         <v>75</v>
       </c>
@@ -16081,7 +16560,7 @@
       <c r="P232" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="Q232" s="50"/>
+      <c r="Q232" s="60"/>
       <c r="R232" s="45"/>
       <c r="S232" s="45"/>
       <c r="T232" s="45"/>
@@ -16092,14 +16571,16 @@
       <c r="Y232" s="45"/>
       <c r="Z232" s="45"/>
       <c r="AA232" s="45"/>
-      <c r="AB232" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="233" spans="1:28" ht="30" x14ac:dyDescent="0.25">
-      <c r="A233" s="53"/>
-      <c r="B233" s="56"/>
-      <c r="C233" s="58"/>
+      <c r="AB232" s="45"/>
+      <c r="AC232" s="45"/>
+      <c r="AD232" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="233" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+      <c r="A233" s="50"/>
+      <c r="B233" s="53"/>
+      <c r="C233" s="55"/>
       <c r="D233" s="15" t="s">
         <v>78</v>
       </c>
@@ -16137,7 +16618,7 @@
       <c r="P233" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="Q233" s="50"/>
+      <c r="Q233" s="60"/>
       <c r="R233" s="45"/>
       <c r="S233" s="45"/>
       <c r="T233" s="45"/>
@@ -16148,14 +16629,16 @@
       <c r="Y233" s="45"/>
       <c r="Z233" s="45"/>
       <c r="AA233" s="45"/>
-      <c r="AB233" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="234" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A234" s="53"/>
-      <c r="B234" s="56"/>
-      <c r="C234" s="58"/>
+      <c r="AB233" s="45"/>
+      <c r="AC233" s="45"/>
+      <c r="AD233" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="234" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A234" s="50"/>
+      <c r="B234" s="53"/>
+      <c r="C234" s="55"/>
       <c r="D234" s="15" t="s">
         <v>81</v>
       </c>
@@ -16193,7 +16676,7 @@
       <c r="P234" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="Q234" s="50"/>
+      <c r="Q234" s="60"/>
       <c r="R234" s="45"/>
       <c r="S234" s="45"/>
       <c r="T234" s="45"/>
@@ -16204,14 +16687,16 @@
       <c r="Y234" s="45"/>
       <c r="Z234" s="45"/>
       <c r="AA234" s="45"/>
-      <c r="AB234" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="235" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A235" s="53"/>
-      <c r="B235" s="56"/>
-      <c r="C235" s="59" t="s">
+      <c r="AB234" s="45"/>
+      <c r="AC234" s="45"/>
+      <c r="AD234" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="235" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A235" s="50"/>
+      <c r="B235" s="53"/>
+      <c r="C235" s="56" t="s">
         <v>377</v>
       </c>
       <c r="D235" s="15" t="s">
@@ -16253,7 +16738,7 @@
       <c r="P235" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="Q235" s="50"/>
+      <c r="Q235" s="60"/>
       <c r="R235" s="45"/>
       <c r="S235" s="45"/>
       <c r="T235" s="45"/>
@@ -16264,14 +16749,16 @@
       <c r="Y235" s="45"/>
       <c r="Z235" s="45"/>
       <c r="AA235" s="45"/>
-      <c r="AB235" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="236" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A236" s="53"/>
-      <c r="B236" s="56"/>
-      <c r="C236" s="60"/>
+      <c r="AB235" s="45"/>
+      <c r="AC235" s="45"/>
+      <c r="AD235" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="236" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A236" s="50"/>
+      <c r="B236" s="53"/>
+      <c r="C236" s="57"/>
       <c r="D236" s="15" t="s">
         <v>87</v>
       </c>
@@ -16309,7 +16796,7 @@
         <v>28</v>
       </c>
       <c r="P236" s="19"/>
-      <c r="Q236" s="50"/>
+      <c r="Q236" s="60"/>
       <c r="R236" s="45"/>
       <c r="S236" s="45"/>
       <c r="T236" s="45"/>
@@ -16320,14 +16807,16 @@
       <c r="Y236" s="45"/>
       <c r="Z236" s="45"/>
       <c r="AA236" s="45"/>
-      <c r="AB236" s="47" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="237" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A237" s="54"/>
-      <c r="B237" s="57"/>
-      <c r="C237" s="61"/>
+      <c r="AB236" s="45"/>
+      <c r="AC236" s="45"/>
+      <c r="AD236" s="47" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="237" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A237" s="51"/>
+      <c r="B237" s="54"/>
+      <c r="C237" s="58"/>
       <c r="D237" s="17" t="s">
         <v>89</v>
       </c>
@@ -16367,7 +16856,7 @@
       <c r="P237" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="Q237" s="51"/>
+      <c r="Q237" s="61"/>
       <c r="R237" s="45"/>
       <c r="S237" s="45"/>
       <c r="T237" s="45"/>
@@ -16378,26 +16867,30 @@
       <c r="Y237" s="45"/>
       <c r="Z237" s="45"/>
       <c r="AA237" s="45"/>
-      <c r="AB237" s="47" t="s">
+      <c r="AB237" s="45"/>
+      <c r="AC237" s="45"/>
+      <c r="AD237" s="47" t="s">
         <v>441</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A213:A237"/>
-    <mergeCell ref="B213:B237"/>
-    <mergeCell ref="C213:C217"/>
-    <mergeCell ref="C218:C234"/>
-    <mergeCell ref="C235:C237"/>
-    <mergeCell ref="A92:A116"/>
-    <mergeCell ref="A188:A212"/>
-    <mergeCell ref="B188:B212"/>
-    <mergeCell ref="C188:C192"/>
-    <mergeCell ref="C193:C209"/>
-    <mergeCell ref="C210:C212"/>
-    <mergeCell ref="B92:B116"/>
-    <mergeCell ref="C92:C96"/>
-    <mergeCell ref="C97:C113"/>
+    <mergeCell ref="Q1:Q237"/>
+    <mergeCell ref="A47:A67"/>
+    <mergeCell ref="B47:B67"/>
+    <mergeCell ref="C48:C64"/>
+    <mergeCell ref="C65:C67"/>
+    <mergeCell ref="A68:A91"/>
+    <mergeCell ref="A2:A25"/>
+    <mergeCell ref="B2:B25"/>
+    <mergeCell ref="C3:C22"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="A26:A46"/>
+    <mergeCell ref="B26:B46"/>
+    <mergeCell ref="C27:C43"/>
+    <mergeCell ref="C44:C46"/>
+    <mergeCell ref="B68:B91"/>
+    <mergeCell ref="C69:C88"/>
     <mergeCell ref="C89:C91"/>
     <mergeCell ref="C114:C116"/>
     <mergeCell ref="A163:A187"/>
@@ -16414,32 +16907,30 @@
     <mergeCell ref="B117:B137"/>
     <mergeCell ref="C118:C134"/>
     <mergeCell ref="C135:C137"/>
-    <mergeCell ref="Q1:Q237"/>
-    <mergeCell ref="A47:A67"/>
-    <mergeCell ref="B47:B67"/>
-    <mergeCell ref="C48:C64"/>
-    <mergeCell ref="C65:C67"/>
-    <mergeCell ref="A68:A91"/>
-    <mergeCell ref="A2:A25"/>
-    <mergeCell ref="B2:B25"/>
-    <mergeCell ref="C3:C22"/>
-    <mergeCell ref="C23:C25"/>
-    <mergeCell ref="A26:A46"/>
-    <mergeCell ref="B26:B46"/>
-    <mergeCell ref="C27:C43"/>
-    <mergeCell ref="C44:C46"/>
-    <mergeCell ref="B68:B91"/>
-    <mergeCell ref="C69:C88"/>
+    <mergeCell ref="A92:A116"/>
+    <mergeCell ref="A188:A212"/>
+    <mergeCell ref="B188:B212"/>
+    <mergeCell ref="C188:C192"/>
+    <mergeCell ref="C193:C209"/>
+    <mergeCell ref="C210:C212"/>
+    <mergeCell ref="B92:B116"/>
+    <mergeCell ref="C92:C96"/>
+    <mergeCell ref="C97:C113"/>
+    <mergeCell ref="A213:A237"/>
+    <mergeCell ref="B213:B237"/>
+    <mergeCell ref="C213:C217"/>
+    <mergeCell ref="C218:C234"/>
+    <mergeCell ref="C235:C237"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E237">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E237" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"Valid,Invalid"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="O199" r:id="rId1"/>
-    <hyperlink ref="O202" r:id="rId2"/>
-    <hyperlink ref="O203" r:id="rId3"/>
+    <hyperlink ref="O199" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="O202" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="O203" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>

--- a/testdata/Topup.xlsx
+++ b/testdata/Topup.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MightyPay\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\API Testing using java program\New\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581C27FB-E027-45C5-A5D5-06761ECB2C3C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="3" r:id="rId1"/>
@@ -30,7 +29,7 @@
     <definedName name="OLE_LINK63" localSheetId="1">Topup!$P$1</definedName>
     <definedName name="OLE_LINK8" localSheetId="1">Topup!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1745,7 +1744,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2156,6 +2155,15 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2186,20 +2194,11 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 8" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 8" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2476,7 +2475,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2554,14 +2553,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD237"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AE7" sqref="AE7"/>
+      <selection pane="bottomRight" activeCell="AE10" sqref="AE10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="51.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2634,7 +2633,7 @@
       <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="59" t="s">
+      <c r="Q1" s="49" t="s">
         <v>442</v>
       </c>
       <c r="R1" s="48" t="s">
@@ -2650,25 +2649,25 @@
         <v>437</v>
       </c>
       <c r="V1" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="W1" s="48" t="s">
         <v>438</v>
       </c>
-      <c r="W1" s="48" t="s">
-        <v>7</v>
-      </c>
       <c r="X1" s="48" t="s">
-        <v>8</v>
+        <v>439</v>
       </c>
       <c r="Y1" s="48" t="s">
         <v>9</v>
       </c>
       <c r="Z1" s="48" t="s">
-        <v>12</v>
+        <v>443</v>
       </c>
       <c r="AA1" s="48" t="s">
-        <v>443</v>
+        <v>7</v>
       </c>
       <c r="AB1" s="48" t="s">
-        <v>439</v>
+        <v>8</v>
       </c>
       <c r="AC1" s="48" t="s">
         <v>444</v>
@@ -2678,10 +2677,10 @@
       </c>
     </row>
     <row r="2" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="49">
+      <c r="A2" s="52">
         <v>1</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="55" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -2726,7 +2725,7 @@
       <c r="P2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="60"/>
+      <c r="Q2" s="50"/>
       <c r="R2" s="45"/>
       <c r="S2" s="45"/>
       <c r="T2" s="45"/>
@@ -2744,9 +2743,9 @@
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A3" s="50"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="55" t="s">
+      <c r="A3" s="53"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="58" t="s">
         <v>29</v>
       </c>
       <c r="D3" s="15" t="s">
@@ -2788,7 +2787,7 @@
       <c r="P3" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="60"/>
+      <c r="Q3" s="50"/>
       <c r="R3" s="45"/>
       <c r="S3" s="45"/>
       <c r="T3" s="45"/>
@@ -2806,9 +2805,9 @@
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A4" s="50"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="55"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="58"/>
       <c r="D4" s="15" t="s">
         <v>33</v>
       </c>
@@ -2848,7 +2847,7 @@
       <c r="P4" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="60"/>
+      <c r="Q4" s="50"/>
       <c r="R4" s="45"/>
       <c r="S4" s="45"/>
       <c r="T4" s="45"/>
@@ -2866,9 +2865,9 @@
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A5" s="50"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="55"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="58"/>
       <c r="D5" s="15" t="s">
         <v>36</v>
       </c>
@@ -2908,7 +2907,7 @@
       <c r="P5" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="60"/>
+      <c r="Q5" s="50"/>
       <c r="R5" s="45"/>
       <c r="S5" s="45"/>
       <c r="T5" s="45"/>
@@ -2926,9 +2925,9 @@
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A6" s="50"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="55"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="58"/>
       <c r="D6" s="15" t="s">
         <v>38</v>
       </c>
@@ -2968,7 +2967,7 @@
       <c r="P6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q6" s="60"/>
+      <c r="Q6" s="50"/>
       <c r="R6" s="45"/>
       <c r="S6" s="45"/>
       <c r="T6" s="45"/>
@@ -2986,9 +2985,9 @@
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A7" s="50"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="55"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="58"/>
       <c r="D7" s="15" t="s">
         <v>41</v>
       </c>
@@ -3028,7 +3027,7 @@
       <c r="P7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" s="60"/>
+      <c r="Q7" s="50"/>
       <c r="R7" s="45"/>
       <c r="S7" s="45"/>
       <c r="T7" s="45"/>
@@ -3046,9 +3045,9 @@
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="50"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="55"/>
+      <c r="A8" s="53"/>
+      <c r="B8" s="56"/>
+      <c r="C8" s="58"/>
       <c r="D8" s="15" t="s">
         <v>44</v>
       </c>
@@ -3088,7 +3087,7 @@
       <c r="P8" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q8" s="60"/>
+      <c r="Q8" s="50"/>
       <c r="R8" s="45"/>
       <c r="S8" s="45"/>
       <c r="T8" s="45"/>
@@ -3106,9 +3105,9 @@
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="50"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="55"/>
+      <c r="A9" s="53"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="58"/>
       <c r="D9" s="15" t="s">
         <v>47</v>
       </c>
@@ -3148,7 +3147,7 @@
       <c r="P9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q9" s="60"/>
+      <c r="Q9" s="50"/>
       <c r="R9" s="45"/>
       <c r="S9" s="45"/>
       <c r="T9" s="45"/>
@@ -3166,9 +3165,9 @@
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="55"/>
+      <c r="A10" s="53"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="58"/>
       <c r="D10" s="15" t="s">
         <v>47</v>
       </c>
@@ -3208,7 +3207,7 @@
       <c r="P10" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q10" s="60"/>
+      <c r="Q10" s="50"/>
       <c r="R10" s="45"/>
       <c r="S10" s="45"/>
       <c r="T10" s="45"/>
@@ -3226,9 +3225,9 @@
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="55"/>
+      <c r="A11" s="53"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="58"/>
       <c r="D11" s="15" t="s">
         <v>47</v>
       </c>
@@ -3268,7 +3267,7 @@
       <c r="P11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q11" s="60"/>
+      <c r="Q11" s="50"/>
       <c r="R11" s="45"/>
       <c r="S11" s="45"/>
       <c r="T11" s="45"/>
@@ -3286,9 +3285,9 @@
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="55"/>
+      <c r="A12" s="53"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="58"/>
       <c r="D12" s="15" t="s">
         <v>47</v>
       </c>
@@ -3328,7 +3327,7 @@
       <c r="P12" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q12" s="60"/>
+      <c r="Q12" s="50"/>
       <c r="R12" s="45"/>
       <c r="S12" s="45"/>
       <c r="T12" s="45"/>
@@ -3346,9 +3345,9 @@
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="55"/>
+      <c r="A13" s="53"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="58"/>
       <c r="D13" s="15" t="s">
         <v>47</v>
       </c>
@@ -3388,7 +3387,7 @@
       <c r="P13" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q13" s="60"/>
+      <c r="Q13" s="50"/>
       <c r="R13" s="45"/>
       <c r="S13" s="45"/>
       <c r="T13" s="45"/>
@@ -3406,9 +3405,9 @@
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="55"/>
+      <c r="A14" s="53"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="58"/>
       <c r="D14" s="15" t="s">
         <v>47</v>
       </c>
@@ -3448,7 +3447,7 @@
       <c r="P14" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q14" s="60"/>
+      <c r="Q14" s="50"/>
       <c r="R14" s="45"/>
       <c r="S14" s="45"/>
       <c r="T14" s="45"/>
@@ -3466,9 +3465,9 @@
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="55"/>
+      <c r="A15" s="53"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="58"/>
       <c r="D15" s="15" t="s">
         <v>61</v>
       </c>
@@ -3508,7 +3507,7 @@
       <c r="P15" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q15" s="60"/>
+      <c r="Q15" s="50"/>
       <c r="R15" s="45"/>
       <c r="S15" s="45"/>
       <c r="T15" s="45"/>
@@ -3526,9 +3525,9 @@
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="55"/>
+      <c r="A16" s="53"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="58"/>
       <c r="D16" s="15" t="s">
         <v>64</v>
       </c>
@@ -3568,7 +3567,7 @@
       <c r="P16" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q16" s="60"/>
+      <c r="Q16" s="50"/>
       <c r="R16" s="45"/>
       <c r="S16" s="45"/>
       <c r="T16" s="45"/>
@@ -3586,9 +3585,9 @@
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="55"/>
+      <c r="A17" s="53"/>
+      <c r="B17" s="56"/>
+      <c r="C17" s="58"/>
       <c r="D17" s="15" t="s">
         <v>67</v>
       </c>
@@ -3628,7 +3627,7 @@
       <c r="P17" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q17" s="60"/>
+      <c r="Q17" s="50"/>
       <c r="R17" s="45"/>
       <c r="S17" s="45"/>
       <c r="T17" s="45"/>
@@ -3646,9 +3645,9 @@
       </c>
     </row>
     <row r="18" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
-      <c r="B18" s="53"/>
-      <c r="C18" s="55"/>
+      <c r="A18" s="53"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="58"/>
       <c r="D18" s="15" t="s">
         <v>69</v>
       </c>
@@ -3688,7 +3687,7 @@
       <c r="P18" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q18" s="60"/>
+      <c r="Q18" s="50"/>
       <c r="R18" s="45"/>
       <c r="S18" s="45"/>
       <c r="T18" s="45"/>
@@ -3706,9 +3705,9 @@
       </c>
     </row>
     <row r="19" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
-      <c r="B19" s="53"/>
-      <c r="C19" s="55"/>
+      <c r="A19" s="53"/>
+      <c r="B19" s="56"/>
+      <c r="C19" s="58"/>
       <c r="D19" s="15" t="s">
         <v>72</v>
       </c>
@@ -3748,7 +3747,7 @@
       <c r="P19" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q19" s="60"/>
+      <c r="Q19" s="50"/>
       <c r="R19" s="45"/>
       <c r="S19" s="45"/>
       <c r="T19" s="45"/>
@@ -3766,9 +3765,9 @@
       </c>
     </row>
     <row r="20" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="50"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="55"/>
+      <c r="A20" s="53"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="58"/>
       <c r="D20" s="15" t="s">
         <v>75</v>
       </c>
@@ -3808,7 +3807,7 @@
       <c r="P20" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q20" s="60"/>
+      <c r="Q20" s="50"/>
       <c r="R20" s="45"/>
       <c r="S20" s="45"/>
       <c r="T20" s="45"/>
@@ -3826,9 +3825,9 @@
       </c>
     </row>
     <row r="21" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="50"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="55"/>
+      <c r="A21" s="53"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="58"/>
       <c r="D21" s="15" t="s">
         <v>78</v>
       </c>
@@ -3866,7 +3865,7 @@
       <c r="P21" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q21" s="60"/>
+      <c r="Q21" s="50"/>
       <c r="R21" s="45"/>
       <c r="S21" s="45"/>
       <c r="T21" s="45"/>
@@ -3884,9 +3883,9 @@
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="50"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="55"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="58"/>
       <c r="D22" s="15" t="s">
         <v>81</v>
       </c>
@@ -3924,7 +3923,7 @@
       <c r="P22" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q22" s="60"/>
+      <c r="Q22" s="50"/>
       <c r="R22" s="45"/>
       <c r="S22" s="45"/>
       <c r="T22" s="45"/>
@@ -3942,9 +3941,9 @@
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A23" s="50"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="56" t="s">
+      <c r="A23" s="53"/>
+      <c r="B23" s="56"/>
+      <c r="C23" s="59" t="s">
         <v>84</v>
       </c>
       <c r="D23" s="15" t="s">
@@ -3986,7 +3985,7 @@
       <c r="P23" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q23" s="60"/>
+      <c r="Q23" s="50"/>
       <c r="R23" s="45"/>
       <c r="S23" s="45"/>
       <c r="T23" s="45"/>
@@ -4004,9 +4003,9 @@
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A24" s="50"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="57"/>
+      <c r="A24" s="53"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="60"/>
       <c r="D24" s="15" t="s">
         <v>87</v>
       </c>
@@ -4044,7 +4043,7 @@
       <c r="P24" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q24" s="60"/>
+      <c r="Q24" s="50"/>
       <c r="R24" s="45"/>
       <c r="S24" s="45"/>
       <c r="T24" s="45"/>
@@ -4062,9 +4061,9 @@
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="58"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="57"/>
+      <c r="C25" s="61"/>
       <c r="D25" s="17" t="s">
         <v>89</v>
       </c>
@@ -4104,7 +4103,7 @@
       <c r="P25" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q25" s="60"/>
+      <c r="Q25" s="50"/>
       <c r="R25" s="45"/>
       <c r="S25" s="45"/>
       <c r="T25" s="45"/>
@@ -4122,10 +4121,10 @@
       </c>
     </row>
     <row r="26" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="49">
+      <c r="A26" s="52">
         <v>2</v>
       </c>
-      <c r="B26" s="52" t="s">
+      <c r="B26" s="55" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="5" t="s">
@@ -4170,7 +4169,7 @@
       <c r="P26" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q26" s="60"/>
+      <c r="Q26" s="50"/>
       <c r="R26" s="45"/>
       <c r="S26" s="45"/>
       <c r="T26" s="45"/>
@@ -4188,9 +4187,9 @@
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A27" s="50"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="55" t="s">
+      <c r="A27" s="53"/>
+      <c r="B27" s="56"/>
+      <c r="C27" s="58" t="s">
         <v>94</v>
       </c>
       <c r="D27" s="15" t="s">
@@ -4232,7 +4231,7 @@
       <c r="P27" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q27" s="60"/>
+      <c r="Q27" s="50"/>
       <c r="R27" s="45"/>
       <c r="S27" s="45"/>
       <c r="T27" s="45"/>
@@ -4250,9 +4249,9 @@
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A28" s="50"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="55"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="58"/>
       <c r="D28" s="15" t="s">
         <v>33</v>
       </c>
@@ -4292,7 +4291,7 @@
       <c r="P28" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q28" s="60"/>
+      <c r="Q28" s="50"/>
       <c r="R28" s="45"/>
       <c r="S28" s="45"/>
       <c r="T28" s="45"/>
@@ -4310,9 +4309,9 @@
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A29" s="50"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="55"/>
+      <c r="A29" s="53"/>
+      <c r="B29" s="56"/>
+      <c r="C29" s="58"/>
       <c r="D29" s="15" t="s">
         <v>36</v>
       </c>
@@ -4352,7 +4351,7 @@
       <c r="P29" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q29" s="60"/>
+      <c r="Q29" s="50"/>
       <c r="R29" s="45"/>
       <c r="S29" s="45"/>
       <c r="T29" s="45"/>
@@ -4370,9 +4369,9 @@
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A30" s="50"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="55"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="58"/>
       <c r="D30" s="15" t="s">
         <v>38</v>
       </c>
@@ -4412,7 +4411,7 @@
       <c r="P30" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q30" s="60"/>
+      <c r="Q30" s="50"/>
       <c r="R30" s="45"/>
       <c r="S30" s="45"/>
       <c r="T30" s="45"/>
@@ -4430,9 +4429,9 @@
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A31" s="50"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="55"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="58"/>
       <c r="D31" s="15" t="s">
         <v>41</v>
       </c>
@@ -4472,7 +4471,7 @@
       <c r="P31" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q31" s="60"/>
+      <c r="Q31" s="50"/>
       <c r="R31" s="45"/>
       <c r="S31" s="45"/>
       <c r="T31" s="45"/>
@@ -4490,9 +4489,9 @@
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A32" s="50"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="55"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="58"/>
       <c r="D32" s="15" t="s">
         <v>44</v>
       </c>
@@ -4532,7 +4531,7 @@
       <c r="P32" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q32" s="60"/>
+      <c r="Q32" s="50"/>
       <c r="R32" s="45"/>
       <c r="S32" s="45"/>
       <c r="T32" s="45"/>
@@ -4550,9 +4549,9 @@
       </c>
     </row>
     <row r="33" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A33" s="50"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="55"/>
+      <c r="A33" s="53"/>
+      <c r="B33" s="56"/>
+      <c r="C33" s="58"/>
       <c r="D33" s="15" t="s">
         <v>47</v>
       </c>
@@ -4592,7 +4591,7 @@
       <c r="P33" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q33" s="60"/>
+      <c r="Q33" s="50"/>
       <c r="R33" s="45"/>
       <c r="S33" s="45"/>
       <c r="T33" s="45"/>
@@ -4610,9 +4609,9 @@
       </c>
     </row>
     <row r="34" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A34" s="50"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="55"/>
+      <c r="A34" s="53"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="58"/>
       <c r="D34" s="15" t="s">
         <v>47</v>
       </c>
@@ -4652,7 +4651,7 @@
       <c r="P34" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q34" s="60"/>
+      <c r="Q34" s="50"/>
       <c r="R34" s="45"/>
       <c r="S34" s="45"/>
       <c r="T34" s="45"/>
@@ -4670,9 +4669,9 @@
       </c>
     </row>
     <row r="35" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A35" s="50"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="55"/>
+      <c r="A35" s="53"/>
+      <c r="B35" s="56"/>
+      <c r="C35" s="58"/>
       <c r="D35" s="15" t="s">
         <v>47</v>
       </c>
@@ -4712,7 +4711,7 @@
       <c r="P35" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q35" s="60"/>
+      <c r="Q35" s="50"/>
       <c r="R35" s="45"/>
       <c r="S35" s="45"/>
       <c r="T35" s="45"/>
@@ -4730,9 +4729,9 @@
       </c>
     </row>
     <row r="36" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A36" s="50"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="55"/>
+      <c r="A36" s="53"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="58"/>
       <c r="D36" s="15" t="s">
         <v>61</v>
       </c>
@@ -4772,7 +4771,7 @@
       <c r="P36" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q36" s="60"/>
+      <c r="Q36" s="50"/>
       <c r="R36" s="45"/>
       <c r="S36" s="45"/>
       <c r="T36" s="45"/>
@@ -4790,9 +4789,9 @@
       </c>
     </row>
     <row r="37" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A37" s="50"/>
-      <c r="B37" s="53"/>
-      <c r="C37" s="55"/>
+      <c r="A37" s="53"/>
+      <c r="B37" s="56"/>
+      <c r="C37" s="58"/>
       <c r="D37" s="15" t="s">
         <v>64</v>
       </c>
@@ -4832,7 +4831,7 @@
       <c r="P37" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q37" s="60"/>
+      <c r="Q37" s="50"/>
       <c r="R37" s="45"/>
       <c r="S37" s="45"/>
       <c r="T37" s="45"/>
@@ -4850,9 +4849,9 @@
       </c>
     </row>
     <row r="38" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A38" s="50"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="55"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="58"/>
       <c r="D38" s="15" t="s">
         <v>67</v>
       </c>
@@ -4892,7 +4891,7 @@
       <c r="P38" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q38" s="60"/>
+      <c r="Q38" s="50"/>
       <c r="R38" s="45"/>
       <c r="S38" s="45"/>
       <c r="T38" s="45"/>
@@ -4910,9 +4909,9 @@
       </c>
     </row>
     <row r="39" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="50"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="55"/>
+      <c r="A39" s="53"/>
+      <c r="B39" s="56"/>
+      <c r="C39" s="58"/>
       <c r="D39" s="15" t="s">
         <v>69</v>
       </c>
@@ -4952,7 +4951,7 @@
       <c r="P39" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q39" s="60"/>
+      <c r="Q39" s="50"/>
       <c r="R39" s="45"/>
       <c r="S39" s="45"/>
       <c r="T39" s="45"/>
@@ -4970,9 +4969,9 @@
       </c>
     </row>
     <row r="40" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="50"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="55"/>
+      <c r="A40" s="53"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="58"/>
       <c r="D40" s="15" t="s">
         <v>72</v>
       </c>
@@ -5012,7 +5011,7 @@
       <c r="P40" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q40" s="60"/>
+      <c r="Q40" s="50"/>
       <c r="R40" s="45"/>
       <c r="S40" s="45"/>
       <c r="T40" s="45"/>
@@ -5030,9 +5029,9 @@
       </c>
     </row>
     <row r="41" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="50"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="55"/>
+      <c r="A41" s="53"/>
+      <c r="B41" s="56"/>
+      <c r="C41" s="58"/>
       <c r="D41" s="15" t="s">
         <v>75</v>
       </c>
@@ -5072,7 +5071,7 @@
       <c r="P41" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q41" s="60"/>
+      <c r="Q41" s="50"/>
       <c r="R41" s="45"/>
       <c r="S41" s="45"/>
       <c r="T41" s="45"/>
@@ -5090,9 +5089,9 @@
       </c>
     </row>
     <row r="42" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="50"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="55"/>
+      <c r="A42" s="53"/>
+      <c r="B42" s="56"/>
+      <c r="C42" s="58"/>
       <c r="D42" s="15" t="s">
         <v>78</v>
       </c>
@@ -5130,7 +5129,7 @@
       <c r="P42" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q42" s="60"/>
+      <c r="Q42" s="50"/>
       <c r="R42" s="45"/>
       <c r="S42" s="45"/>
       <c r="T42" s="45"/>
@@ -5148,9 +5147,9 @@
       </c>
     </row>
     <row r="43" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A43" s="50"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="55"/>
+      <c r="A43" s="53"/>
+      <c r="B43" s="56"/>
+      <c r="C43" s="58"/>
       <c r="D43" s="15" t="s">
         <v>81</v>
       </c>
@@ -5188,7 +5187,7 @@
       <c r="P43" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q43" s="60"/>
+      <c r="Q43" s="50"/>
       <c r="R43" s="45"/>
       <c r="S43" s="45"/>
       <c r="T43" s="45"/>
@@ -5206,9 +5205,9 @@
       </c>
     </row>
     <row r="44" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A44" s="50"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="56" t="s">
+      <c r="A44" s="53"/>
+      <c r="B44" s="56"/>
+      <c r="C44" s="59" t="s">
         <v>84</v>
       </c>
       <c r="D44" s="15" t="s">
@@ -5250,7 +5249,7 @@
       <c r="P44" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q44" s="60"/>
+      <c r="Q44" s="50"/>
       <c r="R44" s="45"/>
       <c r="S44" s="45"/>
       <c r="T44" s="45"/>
@@ -5268,9 +5267,9 @@
       </c>
     </row>
     <row r="45" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A45" s="50"/>
-      <c r="B45" s="53"/>
-      <c r="C45" s="57"/>
+      <c r="A45" s="53"/>
+      <c r="B45" s="56"/>
+      <c r="C45" s="60"/>
       <c r="D45" s="15" t="s">
         <v>87</v>
       </c>
@@ -5308,7 +5307,7 @@
       <c r="P45" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q45" s="60"/>
+      <c r="Q45" s="50"/>
       <c r="R45" s="45"/>
       <c r="S45" s="45"/>
       <c r="T45" s="45"/>
@@ -5326,9 +5325,9 @@
       </c>
     </row>
     <row r="46" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A46" s="51"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="58"/>
+      <c r="A46" s="54"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="61"/>
       <c r="D46" s="17" t="s">
         <v>89</v>
       </c>
@@ -5368,7 +5367,7 @@
       <c r="P46" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q46" s="60"/>
+      <c r="Q46" s="50"/>
       <c r="R46" s="45"/>
       <c r="S46" s="45"/>
       <c r="T46" s="45"/>
@@ -5386,10 +5385,10 @@
       </c>
     </row>
     <row r="47" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A47" s="49">
+      <c r="A47" s="52">
         <v>3</v>
       </c>
-      <c r="B47" s="52" t="s">
+      <c r="B47" s="55" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="5" t="s">
@@ -5434,7 +5433,7 @@
       <c r="P47" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q47" s="60"/>
+      <c r="Q47" s="50"/>
       <c r="R47" s="45"/>
       <c r="S47" s="45"/>
       <c r="T47" s="45"/>
@@ -5452,9 +5451,9 @@
       </c>
     </row>
     <row r="48" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A48" s="50"/>
-      <c r="B48" s="53"/>
-      <c r="C48" s="55" t="s">
+      <c r="A48" s="53"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="58" t="s">
         <v>134</v>
       </c>
       <c r="D48" s="15" t="s">
@@ -5496,7 +5495,7 @@
       <c r="P48" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q48" s="60"/>
+      <c r="Q48" s="50"/>
       <c r="R48" s="45"/>
       <c r="S48" s="45"/>
       <c r="T48" s="45"/>
@@ -5514,9 +5513,9 @@
       </c>
     </row>
     <row r="49" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A49" s="50"/>
-      <c r="B49" s="53"/>
-      <c r="C49" s="55"/>
+      <c r="A49" s="53"/>
+      <c r="B49" s="56"/>
+      <c r="C49" s="58"/>
       <c r="D49" s="15" t="s">
         <v>33</v>
       </c>
@@ -5556,7 +5555,7 @@
       <c r="P49" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q49" s="60"/>
+      <c r="Q49" s="50"/>
       <c r="R49" s="45"/>
       <c r="S49" s="45"/>
       <c r="T49" s="45"/>
@@ -5574,9 +5573,9 @@
       </c>
     </row>
     <row r="50" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A50" s="50"/>
-      <c r="B50" s="53"/>
-      <c r="C50" s="55"/>
+      <c r="A50" s="53"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="58"/>
       <c r="D50" s="15" t="s">
         <v>36</v>
       </c>
@@ -5616,7 +5615,7 @@
       <c r="P50" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q50" s="60"/>
+      <c r="Q50" s="50"/>
       <c r="R50" s="45"/>
       <c r="S50" s="45"/>
       <c r="T50" s="45"/>
@@ -5634,9 +5633,9 @@
       </c>
     </row>
     <row r="51" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A51" s="50"/>
-      <c r="B51" s="53"/>
-      <c r="C51" s="55"/>
+      <c r="A51" s="53"/>
+      <c r="B51" s="56"/>
+      <c r="C51" s="58"/>
       <c r="D51" s="15" t="s">
         <v>38</v>
       </c>
@@ -5676,7 +5675,7 @@
       <c r="P51" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q51" s="60"/>
+      <c r="Q51" s="50"/>
       <c r="R51" s="45"/>
       <c r="S51" s="45"/>
       <c r="T51" s="45"/>
@@ -5694,9 +5693,9 @@
       </c>
     </row>
     <row r="52" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A52" s="50"/>
-      <c r="B52" s="53"/>
-      <c r="C52" s="55"/>
+      <c r="A52" s="53"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="58"/>
       <c r="D52" s="15" t="s">
         <v>41</v>
       </c>
@@ -5736,7 +5735,7 @@
       <c r="P52" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q52" s="60"/>
+      <c r="Q52" s="50"/>
       <c r="R52" s="45"/>
       <c r="S52" s="45"/>
       <c r="T52" s="45"/>
@@ -5754,9 +5753,9 @@
       </c>
     </row>
     <row r="53" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A53" s="50"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="55"/>
+      <c r="A53" s="53"/>
+      <c r="B53" s="56"/>
+      <c r="C53" s="58"/>
       <c r="D53" s="15" t="s">
         <v>44</v>
       </c>
@@ -5796,7 +5795,7 @@
       <c r="P53" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q53" s="60"/>
+      <c r="Q53" s="50"/>
       <c r="R53" s="45"/>
       <c r="S53" s="45"/>
       <c r="T53" s="45"/>
@@ -5814,9 +5813,9 @@
       </c>
     </row>
     <row r="54" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A54" s="50"/>
-      <c r="B54" s="53"/>
-      <c r="C54" s="55"/>
+      <c r="A54" s="53"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="58"/>
       <c r="D54" s="15" t="s">
         <v>47</v>
       </c>
@@ -5856,7 +5855,7 @@
       <c r="P54" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q54" s="60"/>
+      <c r="Q54" s="50"/>
       <c r="R54" s="45"/>
       <c r="S54" s="45"/>
       <c r="T54" s="45"/>
@@ -5874,9 +5873,9 @@
       </c>
     </row>
     <row r="55" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A55" s="50"/>
-      <c r="B55" s="53"/>
-      <c r="C55" s="55"/>
+      <c r="A55" s="53"/>
+      <c r="B55" s="56"/>
+      <c r="C55" s="58"/>
       <c r="D55" s="15" t="s">
         <v>47</v>
       </c>
@@ -5916,7 +5915,7 @@
       <c r="P55" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q55" s="60"/>
+      <c r="Q55" s="50"/>
       <c r="R55" s="45"/>
       <c r="S55" s="45"/>
       <c r="T55" s="45"/>
@@ -5934,9 +5933,9 @@
       </c>
     </row>
     <row r="56" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A56" s="50"/>
-      <c r="B56" s="53"/>
-      <c r="C56" s="55"/>
+      <c r="A56" s="53"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="58"/>
       <c r="D56" s="15" t="s">
         <v>47</v>
       </c>
@@ -5976,7 +5975,7 @@
       <c r="P56" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q56" s="60"/>
+      <c r="Q56" s="50"/>
       <c r="R56" s="45"/>
       <c r="S56" s="45"/>
       <c r="T56" s="45"/>
@@ -5994,9 +5993,9 @@
       </c>
     </row>
     <row r="57" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A57" s="50"/>
-      <c r="B57" s="53"/>
-      <c r="C57" s="55"/>
+      <c r="A57" s="53"/>
+      <c r="B57" s="56"/>
+      <c r="C57" s="58"/>
       <c r="D57" s="15" t="s">
         <v>61</v>
       </c>
@@ -6036,7 +6035,7 @@
       <c r="P57" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q57" s="60"/>
+      <c r="Q57" s="50"/>
       <c r="R57" s="45"/>
       <c r="S57" s="45"/>
       <c r="T57" s="45"/>
@@ -6054,9 +6053,9 @@
       </c>
     </row>
     <row r="58" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A58" s="50"/>
-      <c r="B58" s="53"/>
-      <c r="C58" s="55"/>
+      <c r="A58" s="53"/>
+      <c r="B58" s="56"/>
+      <c r="C58" s="58"/>
       <c r="D58" s="15" t="s">
         <v>64</v>
       </c>
@@ -6096,7 +6095,7 @@
       <c r="P58" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q58" s="60"/>
+      <c r="Q58" s="50"/>
       <c r="R58" s="45"/>
       <c r="S58" s="45"/>
       <c r="T58" s="45"/>
@@ -6114,9 +6113,9 @@
       </c>
     </row>
     <row r="59" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A59" s="50"/>
-      <c r="B59" s="53"/>
-      <c r="C59" s="55"/>
+      <c r="A59" s="53"/>
+      <c r="B59" s="56"/>
+      <c r="C59" s="58"/>
       <c r="D59" s="15" t="s">
         <v>67</v>
       </c>
@@ -6156,7 +6155,7 @@
       <c r="P59" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q59" s="60"/>
+      <c r="Q59" s="50"/>
       <c r="R59" s="45"/>
       <c r="S59" s="45"/>
       <c r="T59" s="45"/>
@@ -6174,9 +6173,9 @@
       </c>
     </row>
     <row r="60" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A60" s="50"/>
-      <c r="B60" s="53"/>
-      <c r="C60" s="55"/>
+      <c r="A60" s="53"/>
+      <c r="B60" s="56"/>
+      <c r="C60" s="58"/>
       <c r="D60" s="15" t="s">
         <v>69</v>
       </c>
@@ -6216,7 +6215,7 @@
       <c r="P60" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q60" s="60"/>
+      <c r="Q60" s="50"/>
       <c r="R60" s="45"/>
       <c r="S60" s="45"/>
       <c r="T60" s="45"/>
@@ -6234,9 +6233,9 @@
       </c>
     </row>
     <row r="61" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="50"/>
-      <c r="B61" s="53"/>
-      <c r="C61" s="55"/>
+      <c r="A61" s="53"/>
+      <c r="B61" s="56"/>
+      <c r="C61" s="58"/>
       <c r="D61" s="15" t="s">
         <v>72</v>
       </c>
@@ -6276,7 +6275,7 @@
       <c r="P61" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q61" s="60"/>
+      <c r="Q61" s="50"/>
       <c r="R61" s="45"/>
       <c r="S61" s="45"/>
       <c r="T61" s="45"/>
@@ -6294,9 +6293,9 @@
       </c>
     </row>
     <row r="62" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="50"/>
-      <c r="B62" s="53"/>
-      <c r="C62" s="55"/>
+      <c r="A62" s="53"/>
+      <c r="B62" s="56"/>
+      <c r="C62" s="58"/>
       <c r="D62" s="15" t="s">
         <v>75</v>
       </c>
@@ -6336,7 +6335,7 @@
       <c r="P62" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q62" s="60"/>
+      <c r="Q62" s="50"/>
       <c r="R62" s="45"/>
       <c r="S62" s="45"/>
       <c r="T62" s="45"/>
@@ -6354,9 +6353,9 @@
       </c>
     </row>
     <row r="63" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="50"/>
-      <c r="B63" s="53"/>
-      <c r="C63" s="55"/>
+      <c r="A63" s="53"/>
+      <c r="B63" s="56"/>
+      <c r="C63" s="58"/>
       <c r="D63" s="15" t="s">
         <v>78</v>
       </c>
@@ -6394,7 +6393,7 @@
       <c r="P63" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q63" s="60"/>
+      <c r="Q63" s="50"/>
       <c r="R63" s="45"/>
       <c r="S63" s="45"/>
       <c r="T63" s="45"/>
@@ -6412,9 +6411,9 @@
       </c>
     </row>
     <row r="64" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A64" s="50"/>
-      <c r="B64" s="53"/>
-      <c r="C64" s="55"/>
+      <c r="A64" s="53"/>
+      <c r="B64" s="56"/>
+      <c r="C64" s="58"/>
       <c r="D64" s="15" t="s">
         <v>81</v>
       </c>
@@ -6452,7 +6451,7 @@
       <c r="P64" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q64" s="60"/>
+      <c r="Q64" s="50"/>
       <c r="R64" s="45"/>
       <c r="S64" s="45"/>
       <c r="T64" s="45"/>
@@ -6470,9 +6469,9 @@
       </c>
     </row>
     <row r="65" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A65" s="50"/>
-      <c r="B65" s="53"/>
-      <c r="C65" s="56" t="s">
+      <c r="A65" s="53"/>
+      <c r="B65" s="56"/>
+      <c r="C65" s="59" t="s">
         <v>84</v>
       </c>
       <c r="D65" s="15" t="s">
@@ -6514,7 +6513,7 @@
       <c r="P65" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q65" s="60"/>
+      <c r="Q65" s="50"/>
       <c r="R65" s="45"/>
       <c r="S65" s="45"/>
       <c r="T65" s="45"/>
@@ -6532,9 +6531,9 @@
       </c>
     </row>
     <row r="66" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A66" s="50"/>
-      <c r="B66" s="53"/>
-      <c r="C66" s="57"/>
+      <c r="A66" s="53"/>
+      <c r="B66" s="56"/>
+      <c r="C66" s="60"/>
       <c r="D66" s="15" t="s">
         <v>87</v>
       </c>
@@ -6572,7 +6571,7 @@
       <c r="P66" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q66" s="60"/>
+      <c r="Q66" s="50"/>
       <c r="R66" s="45"/>
       <c r="S66" s="45"/>
       <c r="T66" s="45"/>
@@ -6590,9 +6589,9 @@
       </c>
     </row>
     <row r="67" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A67" s="51"/>
-      <c r="B67" s="54"/>
-      <c r="C67" s="58"/>
+      <c r="A67" s="54"/>
+      <c r="B67" s="57"/>
+      <c r="C67" s="61"/>
       <c r="D67" s="17" t="s">
         <v>89</v>
       </c>
@@ -6632,7 +6631,7 @@
       <c r="P67" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q67" s="60"/>
+      <c r="Q67" s="50"/>
       <c r="R67" s="45"/>
       <c r="S67" s="45"/>
       <c r="T67" s="45"/>
@@ -6650,10 +6649,10 @@
       </c>
     </row>
     <row r="68" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="49">
+      <c r="A68" s="52">
         <v>4</v>
       </c>
-      <c r="B68" s="52" t="s">
+      <c r="B68" s="55" t="s">
         <v>9</v>
       </c>
       <c r="C68" s="5" t="s">
@@ -6698,7 +6697,7 @@
       <c r="P68" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q68" s="60"/>
+      <c r="Q68" s="50"/>
       <c r="R68" s="45"/>
       <c r="S68" s="45"/>
       <c r="T68" s="45"/>
@@ -6716,9 +6715,9 @@
       </c>
     </row>
     <row r="69" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A69" s="50"/>
-      <c r="B69" s="53"/>
-      <c r="C69" s="55" t="s">
+      <c r="A69" s="53"/>
+      <c r="B69" s="56"/>
+      <c r="C69" s="58" t="s">
         <v>168</v>
       </c>
       <c r="D69" s="15" t="s">
@@ -6760,7 +6759,7 @@
       <c r="P69" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q69" s="60"/>
+      <c r="Q69" s="50"/>
       <c r="R69" s="45"/>
       <c r="S69" s="45"/>
       <c r="T69" s="45"/>
@@ -6778,9 +6777,9 @@
       </c>
     </row>
     <row r="70" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A70" s="50"/>
-      <c r="B70" s="53"/>
-      <c r="C70" s="55"/>
+      <c r="A70" s="53"/>
+      <c r="B70" s="56"/>
+      <c r="C70" s="58"/>
       <c r="D70" s="15" t="s">
         <v>33</v>
       </c>
@@ -6820,7 +6819,7 @@
       <c r="P70" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q70" s="60"/>
+      <c r="Q70" s="50"/>
       <c r="R70" s="45"/>
       <c r="S70" s="45"/>
       <c r="T70" s="45"/>
@@ -6838,9 +6837,9 @@
       </c>
     </row>
     <row r="71" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A71" s="50"/>
-      <c r="B71" s="53"/>
-      <c r="C71" s="55"/>
+      <c r="A71" s="53"/>
+      <c r="B71" s="56"/>
+      <c r="C71" s="58"/>
       <c r="D71" s="15" t="s">
         <v>36</v>
       </c>
@@ -6880,7 +6879,7 @@
       <c r="P71" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q71" s="60"/>
+      <c r="Q71" s="50"/>
       <c r="R71" s="45"/>
       <c r="S71" s="45"/>
       <c r="T71" s="45"/>
@@ -6898,9 +6897,9 @@
       </c>
     </row>
     <row r="72" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A72" s="50"/>
-      <c r="B72" s="53"/>
-      <c r="C72" s="55"/>
+      <c r="A72" s="53"/>
+      <c r="B72" s="56"/>
+      <c r="C72" s="58"/>
       <c r="D72" s="15" t="s">
         <v>38</v>
       </c>
@@ -6940,7 +6939,7 @@
       <c r="P72" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q72" s="60"/>
+      <c r="Q72" s="50"/>
       <c r="R72" s="45"/>
       <c r="S72" s="45"/>
       <c r="T72" s="45"/>
@@ -6958,9 +6957,9 @@
       </c>
     </row>
     <row r="73" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A73" s="50"/>
-      <c r="B73" s="53"/>
-      <c r="C73" s="55"/>
+      <c r="A73" s="53"/>
+      <c r="B73" s="56"/>
+      <c r="C73" s="58"/>
       <c r="D73" s="15" t="s">
         <v>41</v>
       </c>
@@ -7000,7 +6999,7 @@
       <c r="P73" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q73" s="60"/>
+      <c r="Q73" s="50"/>
       <c r="R73" s="45"/>
       <c r="S73" s="45"/>
       <c r="T73" s="45"/>
@@ -7018,9 +7017,9 @@
       </c>
     </row>
     <row r="74" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A74" s="50"/>
-      <c r="B74" s="53"/>
-      <c r="C74" s="55"/>
+      <c r="A74" s="53"/>
+      <c r="B74" s="56"/>
+      <c r="C74" s="58"/>
       <c r="D74" s="15" t="s">
         <v>44</v>
       </c>
@@ -7060,7 +7059,7 @@
       <c r="P74" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q74" s="60"/>
+      <c r="Q74" s="50"/>
       <c r="R74" s="45"/>
       <c r="S74" s="45"/>
       <c r="T74" s="45"/>
@@ -7078,9 +7077,9 @@
       </c>
     </row>
     <row r="75" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A75" s="50"/>
-      <c r="B75" s="53"/>
-      <c r="C75" s="55"/>
+      <c r="A75" s="53"/>
+      <c r="B75" s="56"/>
+      <c r="C75" s="58"/>
       <c r="D75" s="15" t="s">
         <v>47</v>
       </c>
@@ -7120,7 +7119,7 @@
       <c r="P75" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q75" s="60"/>
+      <c r="Q75" s="50"/>
       <c r="R75" s="45"/>
       <c r="S75" s="45"/>
       <c r="T75" s="45"/>
@@ -7138,9 +7137,9 @@
       </c>
     </row>
     <row r="76" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A76" s="50"/>
-      <c r="B76" s="53"/>
-      <c r="C76" s="55"/>
+      <c r="A76" s="53"/>
+      <c r="B76" s="56"/>
+      <c r="C76" s="58"/>
       <c r="D76" s="15" t="s">
         <v>47</v>
       </c>
@@ -7180,7 +7179,7 @@
       <c r="P76" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q76" s="60"/>
+      <c r="Q76" s="50"/>
       <c r="R76" s="45"/>
       <c r="S76" s="45"/>
       <c r="T76" s="45"/>
@@ -7198,9 +7197,9 @@
       </c>
     </row>
     <row r="77" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A77" s="50"/>
-      <c r="B77" s="53"/>
-      <c r="C77" s="55"/>
+      <c r="A77" s="53"/>
+      <c r="B77" s="56"/>
+      <c r="C77" s="58"/>
       <c r="D77" s="15" t="s">
         <v>47</v>
       </c>
@@ -7240,7 +7239,7 @@
       <c r="P77" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q77" s="60"/>
+      <c r="Q77" s="50"/>
       <c r="R77" s="45"/>
       <c r="S77" s="45"/>
       <c r="T77" s="45"/>
@@ -7258,9 +7257,9 @@
       </c>
     </row>
     <row r="78" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A78" s="50"/>
-      <c r="B78" s="53"/>
-      <c r="C78" s="55"/>
+      <c r="A78" s="53"/>
+      <c r="B78" s="56"/>
+      <c r="C78" s="58"/>
       <c r="D78" s="15" t="s">
         <v>47</v>
       </c>
@@ -7300,7 +7299,7 @@
       <c r="P78" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q78" s="60"/>
+      <c r="Q78" s="50"/>
       <c r="R78" s="45"/>
       <c r="S78" s="45"/>
       <c r="T78" s="45"/>
@@ -7318,9 +7317,9 @@
       </c>
     </row>
     <row r="79" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A79" s="50"/>
-      <c r="B79" s="53"/>
-      <c r="C79" s="55"/>
+      <c r="A79" s="53"/>
+      <c r="B79" s="56"/>
+      <c r="C79" s="58"/>
       <c r="D79" s="15" t="s">
         <v>47</v>
       </c>
@@ -7360,7 +7359,7 @@
       <c r="P79" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q79" s="60"/>
+      <c r="Q79" s="50"/>
       <c r="R79" s="45"/>
       <c r="S79" s="45"/>
       <c r="T79" s="45"/>
@@ -7378,9 +7377,9 @@
       </c>
     </row>
     <row r="80" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A80" s="50"/>
-      <c r="B80" s="53"/>
-      <c r="C80" s="55"/>
+      <c r="A80" s="53"/>
+      <c r="B80" s="56"/>
+      <c r="C80" s="58"/>
       <c r="D80" s="15" t="s">
         <v>47</v>
       </c>
@@ -7420,7 +7419,7 @@
       <c r="P80" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q80" s="60"/>
+      <c r="Q80" s="50"/>
       <c r="R80" s="45"/>
       <c r="S80" s="45"/>
       <c r="T80" s="45"/>
@@ -7438,9 +7437,9 @@
       </c>
     </row>
     <row r="81" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A81" s="50"/>
-      <c r="B81" s="53"/>
-      <c r="C81" s="55"/>
+      <c r="A81" s="53"/>
+      <c r="B81" s="56"/>
+      <c r="C81" s="58"/>
       <c r="D81" s="15" t="s">
         <v>61</v>
       </c>
@@ -7480,7 +7479,7 @@
       <c r="P81" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q81" s="60"/>
+      <c r="Q81" s="50"/>
       <c r="R81" s="45"/>
       <c r="S81" s="45"/>
       <c r="T81" s="45"/>
@@ -7498,9 +7497,9 @@
       </c>
     </row>
     <row r="82" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A82" s="50"/>
-      <c r="B82" s="53"/>
-      <c r="C82" s="55"/>
+      <c r="A82" s="53"/>
+      <c r="B82" s="56"/>
+      <c r="C82" s="58"/>
       <c r="D82" s="15" t="s">
         <v>64</v>
       </c>
@@ -7540,7 +7539,7 @@
       <c r="P82" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q82" s="60"/>
+      <c r="Q82" s="50"/>
       <c r="R82" s="45"/>
       <c r="S82" s="45"/>
       <c r="T82" s="45"/>
@@ -7558,9 +7557,9 @@
       </c>
     </row>
     <row r="83" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A83" s="50"/>
-      <c r="B83" s="53"/>
-      <c r="C83" s="55"/>
+      <c r="A83" s="53"/>
+      <c r="B83" s="56"/>
+      <c r="C83" s="58"/>
       <c r="D83" s="15" t="s">
         <v>67</v>
       </c>
@@ -7600,7 +7599,7 @@
       <c r="P83" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q83" s="60"/>
+      <c r="Q83" s="50"/>
       <c r="R83" s="45"/>
       <c r="S83" s="45"/>
       <c r="T83" s="45"/>
@@ -7618,9 +7617,9 @@
       </c>
     </row>
     <row r="84" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="50"/>
-      <c r="B84" s="53"/>
-      <c r="C84" s="55"/>
+      <c r="A84" s="53"/>
+      <c r="B84" s="56"/>
+      <c r="C84" s="58"/>
       <c r="D84" s="15" t="s">
         <v>69</v>
       </c>
@@ -7660,7 +7659,7 @@
       <c r="P84" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q84" s="60"/>
+      <c r="Q84" s="50"/>
       <c r="R84" s="45"/>
       <c r="S84" s="45"/>
       <c r="T84" s="45"/>
@@ -7678,9 +7677,9 @@
       </c>
     </row>
     <row r="85" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A85" s="50"/>
-      <c r="B85" s="53"/>
-      <c r="C85" s="55"/>
+      <c r="A85" s="53"/>
+      <c r="B85" s="56"/>
+      <c r="C85" s="58"/>
       <c r="D85" s="15" t="s">
         <v>72</v>
       </c>
@@ -7720,7 +7719,7 @@
       <c r="P85" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q85" s="60"/>
+      <c r="Q85" s="50"/>
       <c r="R85" s="45"/>
       <c r="S85" s="45"/>
       <c r="T85" s="45"/>
@@ -7738,9 +7737,9 @@
       </c>
     </row>
     <row r="86" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="50"/>
-      <c r="B86" s="53"/>
-      <c r="C86" s="55"/>
+      <c r="A86" s="53"/>
+      <c r="B86" s="56"/>
+      <c r="C86" s="58"/>
       <c r="D86" s="15" t="s">
         <v>75</v>
       </c>
@@ -7780,7 +7779,7 @@
       <c r="P86" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q86" s="60"/>
+      <c r="Q86" s="50"/>
       <c r="R86" s="45"/>
       <c r="S86" s="45"/>
       <c r="T86" s="45"/>
@@ -7798,9 +7797,9 @@
       </c>
     </row>
     <row r="87" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A87" s="50"/>
-      <c r="B87" s="53"/>
-      <c r="C87" s="55"/>
+      <c r="A87" s="53"/>
+      <c r="B87" s="56"/>
+      <c r="C87" s="58"/>
       <c r="D87" s="15" t="s">
         <v>78</v>
       </c>
@@ -7838,7 +7837,7 @@
       <c r="P87" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q87" s="60"/>
+      <c r="Q87" s="50"/>
       <c r="R87" s="45"/>
       <c r="S87" s="45"/>
       <c r="T87" s="45"/>
@@ -7856,9 +7855,9 @@
       </c>
     </row>
     <row r="88" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A88" s="50"/>
-      <c r="B88" s="53"/>
-      <c r="C88" s="55"/>
+      <c r="A88" s="53"/>
+      <c r="B88" s="56"/>
+      <c r="C88" s="58"/>
       <c r="D88" s="15" t="s">
         <v>81</v>
       </c>
@@ -7896,7 +7895,7 @@
       <c r="P88" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q88" s="60"/>
+      <c r="Q88" s="50"/>
       <c r="R88" s="45"/>
       <c r="S88" s="45"/>
       <c r="T88" s="45"/>
@@ -7914,9 +7913,9 @@
       </c>
     </row>
     <row r="89" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A89" s="50"/>
-      <c r="B89" s="53"/>
-      <c r="C89" s="56" t="s">
+      <c r="A89" s="53"/>
+      <c r="B89" s="56"/>
+      <c r="C89" s="59" t="s">
         <v>84</v>
       </c>
       <c r="D89" s="15" t="s">
@@ -7958,7 +7957,7 @@
       <c r="P89" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q89" s="60"/>
+      <c r="Q89" s="50"/>
       <c r="R89" s="45"/>
       <c r="S89" s="45"/>
       <c r="T89" s="45"/>
@@ -7976,9 +7975,9 @@
       </c>
     </row>
     <row r="90" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A90" s="50"/>
-      <c r="B90" s="53"/>
-      <c r="C90" s="57"/>
+      <c r="A90" s="53"/>
+      <c r="B90" s="56"/>
+      <c r="C90" s="60"/>
       <c r="D90" s="15" t="s">
         <v>87</v>
       </c>
@@ -8016,7 +8015,7 @@
       <c r="P90" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q90" s="60"/>
+      <c r="Q90" s="50"/>
       <c r="R90" s="45"/>
       <c r="S90" s="45"/>
       <c r="T90" s="45"/>
@@ -8034,9 +8033,9 @@
       </c>
     </row>
     <row r="91" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A91" s="51"/>
-      <c r="B91" s="54"/>
-      <c r="C91" s="58"/>
+      <c r="A91" s="54"/>
+      <c r="B91" s="57"/>
+      <c r="C91" s="61"/>
       <c r="D91" s="17" t="s">
         <v>89</v>
       </c>
@@ -8076,7 +8075,7 @@
       <c r="P91" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q91" s="60"/>
+      <c r="Q91" s="50"/>
       <c r="R91" s="45"/>
       <c r="S91" s="45"/>
       <c r="T91" s="45"/>
@@ -8094,13 +8093,13 @@
       </c>
     </row>
     <row r="92" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A92" s="49">
+      <c r="A92" s="52">
         <v>5</v>
       </c>
-      <c r="B92" s="52" t="s">
+      <c r="B92" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C92" s="55" t="s">
+      <c r="C92" s="58" t="s">
         <v>195</v>
       </c>
       <c r="D92" s="6" t="s">
@@ -8142,7 +8141,7 @@
       <c r="P92" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q92" s="60"/>
+      <c r="Q92" s="50"/>
       <c r="R92" s="45"/>
       <c r="S92" s="45"/>
       <c r="T92" s="45"/>
@@ -8160,9 +8159,9 @@
       </c>
     </row>
     <row r="93" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A93" s="50"/>
-      <c r="B93" s="53"/>
-      <c r="C93" s="55"/>
+      <c r="A93" s="53"/>
+      <c r="B93" s="56"/>
+      <c r="C93" s="58"/>
       <c r="D93" s="6" t="s">
         <v>198</v>
       </c>
@@ -8202,7 +8201,7 @@
       <c r="P93" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q93" s="60"/>
+      <c r="Q93" s="50"/>
       <c r="R93" s="45"/>
       <c r="S93" s="45"/>
       <c r="T93" s="45"/>
@@ -8220,9 +8219,9 @@
       </c>
     </row>
     <row r="94" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A94" s="50"/>
-      <c r="B94" s="53"/>
-      <c r="C94" s="55"/>
+      <c r="A94" s="53"/>
+      <c r="B94" s="56"/>
+      <c r="C94" s="58"/>
       <c r="D94" s="6" t="s">
         <v>200</v>
       </c>
@@ -8262,7 +8261,7 @@
       <c r="P94" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q94" s="60"/>
+      <c r="Q94" s="50"/>
       <c r="R94" s="45"/>
       <c r="S94" s="45"/>
       <c r="T94" s="45"/>
@@ -8280,9 +8279,9 @@
       </c>
     </row>
     <row r="95" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A95" s="50"/>
-      <c r="B95" s="53"/>
-      <c r="C95" s="55"/>
+      <c r="A95" s="53"/>
+      <c r="B95" s="56"/>
+      <c r="C95" s="58"/>
       <c r="D95" s="6" t="s">
         <v>203</v>
       </c>
@@ -8322,7 +8321,7 @@
       <c r="P95" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q95" s="60"/>
+      <c r="Q95" s="50"/>
       <c r="R95" s="45"/>
       <c r="S95" s="45"/>
       <c r="T95" s="45"/>
@@ -8340,9 +8339,9 @@
       </c>
     </row>
     <row r="96" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A96" s="50"/>
-      <c r="B96" s="53"/>
-      <c r="C96" s="55"/>
+      <c r="A96" s="53"/>
+      <c r="B96" s="56"/>
+      <c r="C96" s="58"/>
       <c r="D96" s="6" t="s">
         <v>206</v>
       </c>
@@ -8382,7 +8381,7 @@
       <c r="P96" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q96" s="60"/>
+      <c r="Q96" s="50"/>
       <c r="R96" s="45"/>
       <c r="S96" s="45"/>
       <c r="T96" s="45"/>
@@ -8400,9 +8399,9 @@
       </c>
     </row>
     <row r="97" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A97" s="50"/>
-      <c r="B97" s="53"/>
-      <c r="C97" s="55" t="s">
+      <c r="A97" s="53"/>
+      <c r="B97" s="56"/>
+      <c r="C97" s="58" t="s">
         <v>209</v>
       </c>
       <c r="D97" s="15" t="s">
@@ -8444,7 +8443,7 @@
       <c r="P97" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q97" s="60"/>
+      <c r="Q97" s="50"/>
       <c r="R97" s="45"/>
       <c r="S97" s="45"/>
       <c r="T97" s="45"/>
@@ -8462,9 +8461,9 @@
       </c>
     </row>
     <row r="98" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A98" s="50"/>
-      <c r="B98" s="53"/>
-      <c r="C98" s="55"/>
+      <c r="A98" s="53"/>
+      <c r="B98" s="56"/>
+      <c r="C98" s="58"/>
       <c r="D98" s="15" t="s">
         <v>33</v>
       </c>
@@ -8504,7 +8503,7 @@
       <c r="P98" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q98" s="60"/>
+      <c r="Q98" s="50"/>
       <c r="R98" s="45"/>
       <c r="S98" s="45"/>
       <c r="T98" s="45"/>
@@ -8522,9 +8521,9 @@
       </c>
     </row>
     <row r="99" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A99" s="50"/>
-      <c r="B99" s="53"/>
-      <c r="C99" s="55"/>
+      <c r="A99" s="53"/>
+      <c r="B99" s="56"/>
+      <c r="C99" s="58"/>
       <c r="D99" s="15" t="s">
         <v>36</v>
       </c>
@@ -8564,7 +8563,7 @@
       <c r="P99" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q99" s="60"/>
+      <c r="Q99" s="50"/>
       <c r="R99" s="45"/>
       <c r="S99" s="45"/>
       <c r="T99" s="45"/>
@@ -8582,9 +8581,9 @@
       </c>
     </row>
     <row r="100" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A100" s="50"/>
-      <c r="B100" s="53"/>
-      <c r="C100" s="55"/>
+      <c r="A100" s="53"/>
+      <c r="B100" s="56"/>
+      <c r="C100" s="58"/>
       <c r="D100" s="15" t="s">
         <v>38</v>
       </c>
@@ -8624,7 +8623,7 @@
       <c r="P100" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q100" s="60"/>
+      <c r="Q100" s="50"/>
       <c r="R100" s="45"/>
       <c r="S100" s="45"/>
       <c r="T100" s="45"/>
@@ -8642,9 +8641,9 @@
       </c>
     </row>
     <row r="101" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A101" s="50"/>
-      <c r="B101" s="53"/>
-      <c r="C101" s="55"/>
+      <c r="A101" s="53"/>
+      <c r="B101" s="56"/>
+      <c r="C101" s="58"/>
       <c r="D101" s="15" t="s">
         <v>41</v>
       </c>
@@ -8684,7 +8683,7 @@
       <c r="P101" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q101" s="60"/>
+      <c r="Q101" s="50"/>
       <c r="R101" s="45"/>
       <c r="S101" s="45"/>
       <c r="T101" s="45"/>
@@ -8702,9 +8701,9 @@
       </c>
     </row>
     <row r="102" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A102" s="50"/>
-      <c r="B102" s="53"/>
-      <c r="C102" s="55"/>
+      <c r="A102" s="53"/>
+      <c r="B102" s="56"/>
+      <c r="C102" s="58"/>
       <c r="D102" s="15" t="s">
         <v>44</v>
       </c>
@@ -8744,7 +8743,7 @@
       <c r="P102" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q102" s="60"/>
+      <c r="Q102" s="50"/>
       <c r="R102" s="45"/>
       <c r="S102" s="45"/>
       <c r="T102" s="45"/>
@@ -8762,9 +8761,9 @@
       </c>
     </row>
     <row r="103" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A103" s="50"/>
-      <c r="B103" s="53"/>
-      <c r="C103" s="55"/>
+      <c r="A103" s="53"/>
+      <c r="B103" s="56"/>
+      <c r="C103" s="58"/>
       <c r="D103" s="15" t="s">
         <v>47</v>
       </c>
@@ -8804,7 +8803,7 @@
       <c r="P103" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q103" s="60"/>
+      <c r="Q103" s="50"/>
       <c r="R103" s="45"/>
       <c r="S103" s="45"/>
       <c r="T103" s="45"/>
@@ -8822,9 +8821,9 @@
       </c>
     </row>
     <row r="104" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A104" s="50"/>
-      <c r="B104" s="53"/>
-      <c r="C104" s="55"/>
+      <c r="A104" s="53"/>
+      <c r="B104" s="56"/>
+      <c r="C104" s="58"/>
       <c r="D104" s="15" t="s">
         <v>47</v>
       </c>
@@ -8864,7 +8863,7 @@
       <c r="P104" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q104" s="60"/>
+      <c r="Q104" s="50"/>
       <c r="R104" s="45"/>
       <c r="S104" s="45"/>
       <c r="T104" s="45"/>
@@ -8882,9 +8881,9 @@
       </c>
     </row>
     <row r="105" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A105" s="50"/>
-      <c r="B105" s="53"/>
-      <c r="C105" s="55"/>
+      <c r="A105" s="53"/>
+      <c r="B105" s="56"/>
+      <c r="C105" s="58"/>
       <c r="D105" s="15" t="s">
         <v>47</v>
       </c>
@@ -8924,7 +8923,7 @@
       <c r="P105" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q105" s="60"/>
+      <c r="Q105" s="50"/>
       <c r="R105" s="45"/>
       <c r="S105" s="45"/>
       <c r="T105" s="45"/>
@@ -8942,9 +8941,9 @@
       </c>
     </row>
     <row r="106" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A106" s="50"/>
-      <c r="B106" s="53"/>
-      <c r="C106" s="55"/>
+      <c r="A106" s="53"/>
+      <c r="B106" s="56"/>
+      <c r="C106" s="58"/>
       <c r="D106" s="15" t="s">
         <v>61</v>
       </c>
@@ -8984,7 +8983,7 @@
       <c r="P106" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q106" s="60"/>
+      <c r="Q106" s="50"/>
       <c r="R106" s="45"/>
       <c r="S106" s="45"/>
       <c r="T106" s="45"/>
@@ -9002,9 +9001,9 @@
       </c>
     </row>
     <row r="107" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A107" s="50"/>
-      <c r="B107" s="53"/>
-      <c r="C107" s="55"/>
+      <c r="A107" s="53"/>
+      <c r="B107" s="56"/>
+      <c r="C107" s="58"/>
       <c r="D107" s="15" t="s">
         <v>64</v>
       </c>
@@ -9044,7 +9043,7 @@
       <c r="P107" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q107" s="60"/>
+      <c r="Q107" s="50"/>
       <c r="R107" s="45"/>
       <c r="S107" s="45"/>
       <c r="T107" s="45"/>
@@ -9062,9 +9061,9 @@
       </c>
     </row>
     <row r="108" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A108" s="50"/>
-      <c r="B108" s="53"/>
-      <c r="C108" s="55"/>
+      <c r="A108" s="53"/>
+      <c r="B108" s="56"/>
+      <c r="C108" s="58"/>
       <c r="D108" s="15" t="s">
         <v>67</v>
       </c>
@@ -9104,7 +9103,7 @@
       <c r="P108" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q108" s="60"/>
+      <c r="Q108" s="50"/>
       <c r="R108" s="45"/>
       <c r="S108" s="45"/>
       <c r="T108" s="45"/>
@@ -9122,9 +9121,9 @@
       </c>
     </row>
     <row r="109" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109" s="50"/>
-      <c r="B109" s="53"/>
-      <c r="C109" s="55"/>
+      <c r="A109" s="53"/>
+      <c r="B109" s="56"/>
+      <c r="C109" s="58"/>
       <c r="D109" s="15" t="s">
         <v>69</v>
       </c>
@@ -9164,7 +9163,7 @@
       <c r="P109" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q109" s="60"/>
+      <c r="Q109" s="50"/>
       <c r="R109" s="45"/>
       <c r="S109" s="45"/>
       <c r="T109" s="45"/>
@@ -9182,9 +9181,9 @@
       </c>
     </row>
     <row r="110" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="50"/>
-      <c r="B110" s="53"/>
-      <c r="C110" s="55"/>
+      <c r="A110" s="53"/>
+      <c r="B110" s="56"/>
+      <c r="C110" s="58"/>
       <c r="D110" s="15" t="s">
         <v>72</v>
       </c>
@@ -9224,7 +9223,7 @@
       <c r="P110" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q110" s="60"/>
+      <c r="Q110" s="50"/>
       <c r="R110" s="45"/>
       <c r="S110" s="45"/>
       <c r="T110" s="45"/>
@@ -9242,9 +9241,9 @@
       </c>
     </row>
     <row r="111" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="50"/>
-      <c r="B111" s="53"/>
-      <c r="C111" s="55"/>
+      <c r="A111" s="53"/>
+      <c r="B111" s="56"/>
+      <c r="C111" s="58"/>
       <c r="D111" s="15" t="s">
         <v>75</v>
       </c>
@@ -9284,7 +9283,7 @@
       <c r="P111" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q111" s="60"/>
+      <c r="Q111" s="50"/>
       <c r="R111" s="45"/>
       <c r="S111" s="45"/>
       <c r="T111" s="45"/>
@@ -9302,9 +9301,9 @@
       </c>
     </row>
     <row r="112" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112" s="50"/>
-      <c r="B112" s="53"/>
-      <c r="C112" s="55"/>
+      <c r="A112" s="53"/>
+      <c r="B112" s="56"/>
+      <c r="C112" s="58"/>
       <c r="D112" s="15" t="s">
         <v>78</v>
       </c>
@@ -9342,7 +9341,7 @@
       <c r="P112" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q112" s="60"/>
+      <c r="Q112" s="50"/>
       <c r="R112" s="45"/>
       <c r="S112" s="45"/>
       <c r="T112" s="45"/>
@@ -9360,9 +9359,9 @@
       </c>
     </row>
     <row r="113" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A113" s="50"/>
-      <c r="B113" s="53"/>
-      <c r="C113" s="55"/>
+      <c r="A113" s="53"/>
+      <c r="B113" s="56"/>
+      <c r="C113" s="58"/>
       <c r="D113" s="15" t="s">
         <v>81</v>
       </c>
@@ -9400,7 +9399,7 @@
       <c r="P113" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q113" s="60"/>
+      <c r="Q113" s="50"/>
       <c r="R113" s="45"/>
       <c r="S113" s="45"/>
       <c r="T113" s="45"/>
@@ -9418,9 +9417,9 @@
       </c>
     </row>
     <row r="114" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A114" s="50"/>
-      <c r="B114" s="53"/>
-      <c r="C114" s="56" t="s">
+      <c r="A114" s="53"/>
+      <c r="B114" s="56"/>
+      <c r="C114" s="59" t="s">
         <v>84</v>
       </c>
       <c r="D114" s="15" t="s">
@@ -9462,7 +9461,7 @@
       <c r="P114" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q114" s="60"/>
+      <c r="Q114" s="50"/>
       <c r="R114" s="45"/>
       <c r="S114" s="45"/>
       <c r="T114" s="45"/>
@@ -9480,9 +9479,9 @@
       </c>
     </row>
     <row r="115" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A115" s="50"/>
-      <c r="B115" s="53"/>
-      <c r="C115" s="57"/>
+      <c r="A115" s="53"/>
+      <c r="B115" s="56"/>
+      <c r="C115" s="60"/>
       <c r="D115" s="15" t="s">
         <v>87</v>
       </c>
@@ -9520,7 +9519,7 @@
       <c r="P115" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q115" s="60"/>
+      <c r="Q115" s="50"/>
       <c r="R115" s="45"/>
       <c r="S115" s="45"/>
       <c r="T115" s="45"/>
@@ -9538,9 +9537,9 @@
       </c>
     </row>
     <row r="116" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A116" s="51"/>
-      <c r="B116" s="54"/>
-      <c r="C116" s="58"/>
+      <c r="A116" s="54"/>
+      <c r="B116" s="57"/>
+      <c r="C116" s="61"/>
       <c r="D116" s="17" t="s">
         <v>89</v>
       </c>
@@ -9580,7 +9579,7 @@
       <c r="P116" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q116" s="60"/>
+      <c r="Q116" s="50"/>
       <c r="R116" s="45"/>
       <c r="S116" s="45"/>
       <c r="T116" s="45"/>
@@ -9598,10 +9597,10 @@
       </c>
     </row>
     <row r="117" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="49">
+      <c r="A117" s="52">
         <v>6</v>
       </c>
-      <c r="B117" s="52" t="s">
+      <c r="B117" s="55" t="s">
         <v>11</v>
       </c>
       <c r="C117" s="23" t="s">
@@ -9646,7 +9645,7 @@
       <c r="P117" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q117" s="60"/>
+      <c r="Q117" s="50"/>
       <c r="R117" s="45"/>
       <c r="S117" s="45"/>
       <c r="T117" s="45"/>
@@ -9664,9 +9663,9 @@
       </c>
     </row>
     <row r="118" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A118" s="50"/>
-      <c r="B118" s="53"/>
-      <c r="C118" s="55" t="s">
+      <c r="A118" s="53"/>
+      <c r="B118" s="56"/>
+      <c r="C118" s="58" t="s">
         <v>238</v>
       </c>
       <c r="D118" s="15" t="s">
@@ -9708,7 +9707,7 @@
       <c r="P118" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q118" s="60"/>
+      <c r="Q118" s="50"/>
       <c r="R118" s="45"/>
       <c r="S118" s="45"/>
       <c r="T118" s="45"/>
@@ -9726,9 +9725,9 @@
       </c>
     </row>
     <row r="119" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A119" s="50"/>
-      <c r="B119" s="53"/>
-      <c r="C119" s="55"/>
+      <c r="A119" s="53"/>
+      <c r="B119" s="56"/>
+      <c r="C119" s="58"/>
       <c r="D119" s="15" t="s">
         <v>33</v>
       </c>
@@ -9768,7 +9767,7 @@
       <c r="P119" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q119" s="60"/>
+      <c r="Q119" s="50"/>
       <c r="R119" s="45"/>
       <c r="S119" s="45"/>
       <c r="T119" s="45"/>
@@ -9786,9 +9785,9 @@
       </c>
     </row>
     <row r="120" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A120" s="50"/>
-      <c r="B120" s="53"/>
-      <c r="C120" s="55"/>
+      <c r="A120" s="53"/>
+      <c r="B120" s="56"/>
+      <c r="C120" s="58"/>
       <c r="D120" s="15" t="s">
         <v>36</v>
       </c>
@@ -9828,7 +9827,7 @@
       <c r="P120" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q120" s="60"/>
+      <c r="Q120" s="50"/>
       <c r="R120" s="45"/>
       <c r="S120" s="45"/>
       <c r="T120" s="45"/>
@@ -9846,9 +9845,9 @@
       </c>
     </row>
     <row r="121" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A121" s="50"/>
-      <c r="B121" s="53"/>
-      <c r="C121" s="55"/>
+      <c r="A121" s="53"/>
+      <c r="B121" s="56"/>
+      <c r="C121" s="58"/>
       <c r="D121" s="15" t="s">
         <v>38</v>
       </c>
@@ -9888,7 +9887,7 @@
       <c r="P121" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q121" s="60"/>
+      <c r="Q121" s="50"/>
       <c r="R121" s="45"/>
       <c r="S121" s="45"/>
       <c r="T121" s="45"/>
@@ -9906,9 +9905,9 @@
       </c>
     </row>
     <row r="122" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A122" s="50"/>
-      <c r="B122" s="53"/>
-      <c r="C122" s="55"/>
+      <c r="A122" s="53"/>
+      <c r="B122" s="56"/>
+      <c r="C122" s="58"/>
       <c r="D122" s="15" t="s">
         <v>41</v>
       </c>
@@ -9948,7 +9947,7 @@
       <c r="P122" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q122" s="60"/>
+      <c r="Q122" s="50"/>
       <c r="R122" s="45"/>
       <c r="S122" s="45"/>
       <c r="T122" s="45"/>
@@ -9966,9 +9965,9 @@
       </c>
     </row>
     <row r="123" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A123" s="50"/>
-      <c r="B123" s="53"/>
-      <c r="C123" s="55"/>
+      <c r="A123" s="53"/>
+      <c r="B123" s="56"/>
+      <c r="C123" s="58"/>
       <c r="D123" s="15" t="s">
         <v>44</v>
       </c>
@@ -10008,7 +10007,7 @@
       <c r="P123" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q123" s="60"/>
+      <c r="Q123" s="50"/>
       <c r="R123" s="45"/>
       <c r="S123" s="45"/>
       <c r="T123" s="45"/>
@@ -10026,9 +10025,9 @@
       </c>
     </row>
     <row r="124" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A124" s="50"/>
-      <c r="B124" s="53"/>
-      <c r="C124" s="55"/>
+      <c r="A124" s="53"/>
+      <c r="B124" s="56"/>
+      <c r="C124" s="58"/>
       <c r="D124" s="15" t="s">
         <v>47</v>
       </c>
@@ -10068,7 +10067,7 @@
       <c r="P124" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q124" s="60"/>
+      <c r="Q124" s="50"/>
       <c r="R124" s="45"/>
       <c r="S124" s="45"/>
       <c r="T124" s="45"/>
@@ -10086,9 +10085,9 @@
       </c>
     </row>
     <row r="125" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A125" s="50"/>
-      <c r="B125" s="53"/>
-      <c r="C125" s="55"/>
+      <c r="A125" s="53"/>
+      <c r="B125" s="56"/>
+      <c r="C125" s="58"/>
       <c r="D125" s="15" t="s">
         <v>47</v>
       </c>
@@ -10128,7 +10127,7 @@
       <c r="P125" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q125" s="60"/>
+      <c r="Q125" s="50"/>
       <c r="R125" s="45"/>
       <c r="S125" s="45"/>
       <c r="T125" s="45"/>
@@ -10146,9 +10145,9 @@
       </c>
     </row>
     <row r="126" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A126" s="50"/>
-      <c r="B126" s="53"/>
-      <c r="C126" s="55"/>
+      <c r="A126" s="53"/>
+      <c r="B126" s="56"/>
+      <c r="C126" s="58"/>
       <c r="D126" s="15" t="s">
         <v>47</v>
       </c>
@@ -10188,7 +10187,7 @@
       <c r="P126" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q126" s="60"/>
+      <c r="Q126" s="50"/>
       <c r="R126" s="45"/>
       <c r="S126" s="45"/>
       <c r="T126" s="45"/>
@@ -10206,9 +10205,9 @@
       </c>
     </row>
     <row r="127" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A127" s="50"/>
-      <c r="B127" s="53"/>
-      <c r="C127" s="55"/>
+      <c r="A127" s="53"/>
+      <c r="B127" s="56"/>
+      <c r="C127" s="58"/>
       <c r="D127" s="15" t="s">
         <v>61</v>
       </c>
@@ -10248,7 +10247,7 @@
       <c r="P127" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q127" s="60"/>
+      <c r="Q127" s="50"/>
       <c r="R127" s="45"/>
       <c r="S127" s="45"/>
       <c r="T127" s="45"/>
@@ -10266,9 +10265,9 @@
       </c>
     </row>
     <row r="128" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A128" s="50"/>
-      <c r="B128" s="53"/>
-      <c r="C128" s="55"/>
+      <c r="A128" s="53"/>
+      <c r="B128" s="56"/>
+      <c r="C128" s="58"/>
       <c r="D128" s="15" t="s">
         <v>64</v>
       </c>
@@ -10308,7 +10307,7 @@
       <c r="P128" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q128" s="60"/>
+      <c r="Q128" s="50"/>
       <c r="R128" s="45"/>
       <c r="S128" s="45"/>
       <c r="T128" s="45"/>
@@ -10326,9 +10325,9 @@
       </c>
     </row>
     <row r="129" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A129" s="50"/>
-      <c r="B129" s="53"/>
-      <c r="C129" s="55"/>
+      <c r="A129" s="53"/>
+      <c r="B129" s="56"/>
+      <c r="C129" s="58"/>
       <c r="D129" s="15" t="s">
         <v>67</v>
       </c>
@@ -10368,7 +10367,7 @@
       <c r="P129" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q129" s="60"/>
+      <c r="Q129" s="50"/>
       <c r="R129" s="45"/>
       <c r="S129" s="45"/>
       <c r="T129" s="45"/>
@@ -10386,9 +10385,9 @@
       </c>
     </row>
     <row r="130" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A130" s="50"/>
-      <c r="B130" s="53"/>
-      <c r="C130" s="55"/>
+      <c r="A130" s="53"/>
+      <c r="B130" s="56"/>
+      <c r="C130" s="58"/>
       <c r="D130" s="15" t="s">
         <v>69</v>
       </c>
@@ -10428,7 +10427,7 @@
       <c r="P130" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q130" s="60"/>
+      <c r="Q130" s="50"/>
       <c r="R130" s="45"/>
       <c r="S130" s="45"/>
       <c r="T130" s="45"/>
@@ -10446,9 +10445,9 @@
       </c>
     </row>
     <row r="131" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A131" s="50"/>
-      <c r="B131" s="53"/>
-      <c r="C131" s="55"/>
+      <c r="A131" s="53"/>
+      <c r="B131" s="56"/>
+      <c r="C131" s="58"/>
       <c r="D131" s="15" t="s">
         <v>72</v>
       </c>
@@ -10488,7 +10487,7 @@
       <c r="P131" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q131" s="60"/>
+      <c r="Q131" s="50"/>
       <c r="R131" s="45"/>
       <c r="S131" s="45"/>
       <c r="T131" s="45"/>
@@ -10506,9 +10505,9 @@
       </c>
     </row>
     <row r="132" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="50"/>
-      <c r="B132" s="53"/>
-      <c r="C132" s="55"/>
+      <c r="A132" s="53"/>
+      <c r="B132" s="56"/>
+      <c r="C132" s="58"/>
       <c r="D132" s="15" t="s">
         <v>75</v>
       </c>
@@ -10548,7 +10547,7 @@
       <c r="P132" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q132" s="60"/>
+      <c r="Q132" s="50"/>
       <c r="R132" s="45"/>
       <c r="S132" s="45"/>
       <c r="T132" s="45"/>
@@ -10566,9 +10565,9 @@
       </c>
     </row>
     <row r="133" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A133" s="50"/>
-      <c r="B133" s="53"/>
-      <c r="C133" s="55"/>
+      <c r="A133" s="53"/>
+      <c r="B133" s="56"/>
+      <c r="C133" s="58"/>
       <c r="D133" s="15" t="s">
         <v>78</v>
       </c>
@@ -10606,7 +10605,7 @@
       <c r="P133" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q133" s="60"/>
+      <c r="Q133" s="50"/>
       <c r="R133" s="45"/>
       <c r="S133" s="45"/>
       <c r="T133" s="45"/>
@@ -10624,9 +10623,9 @@
       </c>
     </row>
     <row r="134" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A134" s="50"/>
-      <c r="B134" s="53"/>
-      <c r="C134" s="55"/>
+      <c r="A134" s="53"/>
+      <c r="B134" s="56"/>
+      <c r="C134" s="58"/>
       <c r="D134" s="15" t="s">
         <v>81</v>
       </c>
@@ -10664,7 +10663,7 @@
       <c r="P134" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q134" s="60"/>
+      <c r="Q134" s="50"/>
       <c r="R134" s="45"/>
       <c r="S134" s="45"/>
       <c r="T134" s="45"/>
@@ -10682,9 +10681,9 @@
       </c>
     </row>
     <row r="135" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A135" s="50"/>
-      <c r="B135" s="53"/>
-      <c r="C135" s="56" t="s">
+      <c r="A135" s="53"/>
+      <c r="B135" s="56"/>
+      <c r="C135" s="59" t="s">
         <v>84</v>
       </c>
       <c r="D135" s="15" t="s">
@@ -10726,7 +10725,7 @@
       <c r="P135" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q135" s="60"/>
+      <c r="Q135" s="50"/>
       <c r="R135" s="45"/>
       <c r="S135" s="45"/>
       <c r="T135" s="45"/>
@@ -10744,9 +10743,9 @@
       </c>
     </row>
     <row r="136" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A136" s="50"/>
-      <c r="B136" s="53"/>
-      <c r="C136" s="57"/>
+      <c r="A136" s="53"/>
+      <c r="B136" s="56"/>
+      <c r="C136" s="60"/>
       <c r="D136" s="15" t="s">
         <v>87</v>
       </c>
@@ -10784,7 +10783,7 @@
       <c r="P136" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q136" s="60"/>
+      <c r="Q136" s="50"/>
       <c r="R136" s="45"/>
       <c r="S136" s="45"/>
       <c r="T136" s="45"/>
@@ -10802,9 +10801,9 @@
       </c>
     </row>
     <row r="137" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A137" s="51"/>
-      <c r="B137" s="54"/>
-      <c r="C137" s="58"/>
+      <c r="A137" s="54"/>
+      <c r="B137" s="57"/>
+      <c r="C137" s="61"/>
       <c r="D137" s="17" t="s">
         <v>89</v>
       </c>
@@ -10844,7 +10843,7 @@
       <c r="P137" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q137" s="60"/>
+      <c r="Q137" s="50"/>
       <c r="R137" s="45"/>
       <c r="S137" s="45"/>
       <c r="T137" s="45"/>
@@ -10862,13 +10861,13 @@
       </c>
     </row>
     <row r="138" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A138" s="49">
+      <c r="A138" s="52">
         <v>7</v>
       </c>
-      <c r="B138" s="52" t="s">
+      <c r="B138" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="C138" s="55" t="s">
+      <c r="C138" s="58" t="s">
         <v>235</v>
       </c>
       <c r="D138" s="6" t="s">
@@ -10910,7 +10909,7 @@
       <c r="P138" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q138" s="60"/>
+      <c r="Q138" s="50"/>
       <c r="R138" s="45"/>
       <c r="S138" s="45"/>
       <c r="T138" s="45"/>
@@ -10928,9 +10927,9 @@
       </c>
     </row>
     <row r="139" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A139" s="50"/>
-      <c r="B139" s="53"/>
-      <c r="C139" s="55"/>
+      <c r="A139" s="53"/>
+      <c r="B139" s="56"/>
+      <c r="C139" s="58"/>
       <c r="D139" s="6" t="s">
         <v>198</v>
       </c>
@@ -10970,7 +10969,7 @@
       <c r="P139" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q139" s="60"/>
+      <c r="Q139" s="50"/>
       <c r="R139" s="45"/>
       <c r="S139" s="45"/>
       <c r="T139" s="45"/>
@@ -10988,9 +10987,9 @@
       </c>
     </row>
     <row r="140" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A140" s="50"/>
-      <c r="B140" s="53"/>
-      <c r="C140" s="55"/>
+      <c r="A140" s="53"/>
+      <c r="B140" s="56"/>
+      <c r="C140" s="58"/>
       <c r="D140" s="6" t="s">
         <v>266</v>
       </c>
@@ -11030,7 +11029,7 @@
       <c r="P140" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q140" s="60"/>
+      <c r="Q140" s="50"/>
       <c r="R140" s="45"/>
       <c r="S140" s="45"/>
       <c r="T140" s="45"/>
@@ -11048,9 +11047,9 @@
       </c>
     </row>
     <row r="141" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A141" s="50"/>
-      <c r="B141" s="53"/>
-      <c r="C141" s="55"/>
+      <c r="A141" s="53"/>
+      <c r="B141" s="56"/>
+      <c r="C141" s="58"/>
       <c r="D141" s="6" t="s">
         <v>269</v>
       </c>
@@ -11090,7 +11089,7 @@
       <c r="P141" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q141" s="60"/>
+      <c r="Q141" s="50"/>
       <c r="R141" s="45"/>
       <c r="S141" s="45"/>
       <c r="T141" s="45"/>
@@ -11108,9 +11107,9 @@
       </c>
     </row>
     <row r="142" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A142" s="50"/>
-      <c r="B142" s="53"/>
-      <c r="C142" s="55"/>
+      <c r="A142" s="53"/>
+      <c r="B142" s="56"/>
+      <c r="C142" s="58"/>
       <c r="D142" s="6" t="s">
         <v>272</v>
       </c>
@@ -11150,7 +11149,7 @@
       <c r="P142" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q142" s="60"/>
+      <c r="Q142" s="50"/>
       <c r="R142" s="45"/>
       <c r="S142" s="45"/>
       <c r="T142" s="45"/>
@@ -11168,9 +11167,9 @@
       </c>
     </row>
     <row r="143" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A143" s="50"/>
-      <c r="B143" s="53"/>
-      <c r="C143" s="55" t="s">
+      <c r="A143" s="53"/>
+      <c r="B143" s="56"/>
+      <c r="C143" s="58" t="s">
         <v>275</v>
       </c>
       <c r="D143" s="15" t="s">
@@ -11212,7 +11211,7 @@
       <c r="P143" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q143" s="60"/>
+      <c r="Q143" s="50"/>
       <c r="R143" s="45"/>
       <c r="S143" s="45"/>
       <c r="T143" s="45"/>
@@ -11230,9 +11229,9 @@
       </c>
     </row>
     <row r="144" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A144" s="50"/>
-      <c r="B144" s="53"/>
-      <c r="C144" s="55"/>
+      <c r="A144" s="53"/>
+      <c r="B144" s="56"/>
+      <c r="C144" s="58"/>
       <c r="D144" s="15" t="s">
         <v>33</v>
       </c>
@@ -11272,7 +11271,7 @@
       <c r="P144" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q144" s="60"/>
+      <c r="Q144" s="50"/>
       <c r="R144" s="45"/>
       <c r="S144" s="45"/>
       <c r="T144" s="45"/>
@@ -11290,9 +11289,9 @@
       </c>
     </row>
     <row r="145" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A145" s="50"/>
-      <c r="B145" s="53"/>
-      <c r="C145" s="55"/>
+      <c r="A145" s="53"/>
+      <c r="B145" s="56"/>
+      <c r="C145" s="58"/>
       <c r="D145" s="15" t="s">
         <v>36</v>
       </c>
@@ -11332,7 +11331,7 @@
       <c r="P145" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q145" s="60"/>
+      <c r="Q145" s="50"/>
       <c r="R145" s="45"/>
       <c r="S145" s="45"/>
       <c r="T145" s="45"/>
@@ -11350,9 +11349,9 @@
       </c>
     </row>
     <row r="146" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A146" s="50"/>
-      <c r="B146" s="53"/>
-      <c r="C146" s="55"/>
+      <c r="A146" s="53"/>
+      <c r="B146" s="56"/>
+      <c r="C146" s="58"/>
       <c r="D146" s="15" t="s">
         <v>38</v>
       </c>
@@ -11392,7 +11391,7 @@
       <c r="P146" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q146" s="60"/>
+      <c r="Q146" s="50"/>
       <c r="R146" s="45"/>
       <c r="S146" s="45"/>
       <c r="T146" s="45"/>
@@ -11410,9 +11409,9 @@
       </c>
     </row>
     <row r="147" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A147" s="50"/>
-      <c r="B147" s="53"/>
-      <c r="C147" s="55"/>
+      <c r="A147" s="53"/>
+      <c r="B147" s="56"/>
+      <c r="C147" s="58"/>
       <c r="D147" s="15" t="s">
         <v>41</v>
       </c>
@@ -11452,7 +11451,7 @@
       <c r="P147" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q147" s="60"/>
+      <c r="Q147" s="50"/>
       <c r="R147" s="45"/>
       <c r="S147" s="45"/>
       <c r="T147" s="45"/>
@@ -11470,9 +11469,9 @@
       </c>
     </row>
     <row r="148" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A148" s="50"/>
-      <c r="B148" s="53"/>
-      <c r="C148" s="55"/>
+      <c r="A148" s="53"/>
+      <c r="B148" s="56"/>
+      <c r="C148" s="58"/>
       <c r="D148" s="15" t="s">
         <v>44</v>
       </c>
@@ -11512,7 +11511,7 @@
       <c r="P148" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q148" s="60"/>
+      <c r="Q148" s="50"/>
       <c r="R148" s="45"/>
       <c r="S148" s="45"/>
       <c r="T148" s="45"/>
@@ -11530,9 +11529,9 @@
       </c>
     </row>
     <row r="149" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A149" s="50"/>
-      <c r="B149" s="53"/>
-      <c r="C149" s="55"/>
+      <c r="A149" s="53"/>
+      <c r="B149" s="56"/>
+      <c r="C149" s="58"/>
       <c r="D149" s="15" t="s">
         <v>47</v>
       </c>
@@ -11572,7 +11571,7 @@
       <c r="P149" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q149" s="60"/>
+      <c r="Q149" s="50"/>
       <c r="R149" s="45"/>
       <c r="S149" s="45"/>
       <c r="T149" s="45"/>
@@ -11590,9 +11589,9 @@
       </c>
     </row>
     <row r="150" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A150" s="50"/>
-      <c r="B150" s="53"/>
-      <c r="C150" s="55"/>
+      <c r="A150" s="53"/>
+      <c r="B150" s="56"/>
+      <c r="C150" s="58"/>
       <c r="D150" s="15" t="s">
         <v>47</v>
       </c>
@@ -11632,7 +11631,7 @@
       <c r="P150" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q150" s="60"/>
+      <c r="Q150" s="50"/>
       <c r="R150" s="45"/>
       <c r="S150" s="45"/>
       <c r="T150" s="45"/>
@@ -11650,9 +11649,9 @@
       </c>
     </row>
     <row r="151" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A151" s="50"/>
-      <c r="B151" s="53"/>
-      <c r="C151" s="55"/>
+      <c r="A151" s="53"/>
+      <c r="B151" s="56"/>
+      <c r="C151" s="58"/>
       <c r="D151" s="15" t="s">
         <v>47</v>
       </c>
@@ -11692,7 +11691,7 @@
       <c r="P151" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q151" s="60"/>
+      <c r="Q151" s="50"/>
       <c r="R151" s="45"/>
       <c r="S151" s="45"/>
       <c r="T151" s="45"/>
@@ -11710,9 +11709,9 @@
       </c>
     </row>
     <row r="152" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A152" s="50"/>
-      <c r="B152" s="53"/>
-      <c r="C152" s="55"/>
+      <c r="A152" s="53"/>
+      <c r="B152" s="56"/>
+      <c r="C152" s="58"/>
       <c r="D152" s="15" t="s">
         <v>61</v>
       </c>
@@ -11752,7 +11751,7 @@
       <c r="P152" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q152" s="60"/>
+      <c r="Q152" s="50"/>
       <c r="R152" s="45"/>
       <c r="S152" s="45"/>
       <c r="T152" s="45"/>
@@ -11770,9 +11769,9 @@
       </c>
     </row>
     <row r="153" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A153" s="50"/>
-      <c r="B153" s="53"/>
-      <c r="C153" s="55"/>
+      <c r="A153" s="53"/>
+      <c r="B153" s="56"/>
+      <c r="C153" s="58"/>
       <c r="D153" s="15" t="s">
         <v>64</v>
       </c>
@@ -11812,7 +11811,7 @@
       <c r="P153" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q153" s="60"/>
+      <c r="Q153" s="50"/>
       <c r="R153" s="45"/>
       <c r="S153" s="45"/>
       <c r="T153" s="45"/>
@@ -11830,9 +11829,9 @@
       </c>
     </row>
     <row r="154" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A154" s="50"/>
-      <c r="B154" s="53"/>
-      <c r="C154" s="55"/>
+      <c r="A154" s="53"/>
+      <c r="B154" s="56"/>
+      <c r="C154" s="58"/>
       <c r="D154" s="15" t="s">
         <v>67</v>
       </c>
@@ -11872,7 +11871,7 @@
       <c r="P154" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q154" s="60"/>
+      <c r="Q154" s="50"/>
       <c r="R154" s="45"/>
       <c r="S154" s="45"/>
       <c r="T154" s="45"/>
@@ -11890,9 +11889,9 @@
       </c>
     </row>
     <row r="155" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A155" s="50"/>
-      <c r="B155" s="53"/>
-      <c r="C155" s="55"/>
+      <c r="A155" s="53"/>
+      <c r="B155" s="56"/>
+      <c r="C155" s="58"/>
       <c r="D155" s="15" t="s">
         <v>69</v>
       </c>
@@ -11932,7 +11931,7 @@
       <c r="P155" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q155" s="60"/>
+      <c r="Q155" s="50"/>
       <c r="R155" s="45"/>
       <c r="S155" s="45"/>
       <c r="T155" s="45"/>
@@ -11950,9 +11949,9 @@
       </c>
     </row>
     <row r="156" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A156" s="50"/>
-      <c r="B156" s="53"/>
-      <c r="C156" s="55"/>
+      <c r="A156" s="53"/>
+      <c r="B156" s="56"/>
+      <c r="C156" s="58"/>
       <c r="D156" s="15" t="s">
         <v>72</v>
       </c>
@@ -11992,7 +11991,7 @@
       <c r="P156" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q156" s="60"/>
+      <c r="Q156" s="50"/>
       <c r="R156" s="45"/>
       <c r="S156" s="45"/>
       <c r="T156" s="45"/>
@@ -12010,9 +12009,9 @@
       </c>
     </row>
     <row r="157" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A157" s="50"/>
-      <c r="B157" s="53"/>
-      <c r="C157" s="55"/>
+      <c r="A157" s="53"/>
+      <c r="B157" s="56"/>
+      <c r="C157" s="58"/>
       <c r="D157" s="15" t="s">
         <v>75</v>
       </c>
@@ -12052,7 +12051,7 @@
       <c r="P157" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q157" s="60"/>
+      <c r="Q157" s="50"/>
       <c r="R157" s="45"/>
       <c r="S157" s="45"/>
       <c r="T157" s="45"/>
@@ -12070,9 +12069,9 @@
       </c>
     </row>
     <row r="158" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A158" s="50"/>
-      <c r="B158" s="53"/>
-      <c r="C158" s="55"/>
+      <c r="A158" s="53"/>
+      <c r="B158" s="56"/>
+      <c r="C158" s="58"/>
       <c r="D158" s="15" t="s">
         <v>78</v>
       </c>
@@ -12110,7 +12109,7 @@
       <c r="P158" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q158" s="60"/>
+      <c r="Q158" s="50"/>
       <c r="R158" s="45"/>
       <c r="S158" s="45"/>
       <c r="T158" s="45"/>
@@ -12128,9 +12127,9 @@
       </c>
     </row>
     <row r="159" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A159" s="50"/>
-      <c r="B159" s="53"/>
-      <c r="C159" s="55"/>
+      <c r="A159" s="53"/>
+      <c r="B159" s="56"/>
+      <c r="C159" s="58"/>
       <c r="D159" s="15" t="s">
         <v>81</v>
       </c>
@@ -12168,7 +12167,7 @@
       <c r="P159" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q159" s="60"/>
+      <c r="Q159" s="50"/>
       <c r="R159" s="45"/>
       <c r="S159" s="45"/>
       <c r="T159" s="45"/>
@@ -12186,9 +12185,9 @@
       </c>
     </row>
     <row r="160" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A160" s="50"/>
-      <c r="B160" s="53"/>
-      <c r="C160" s="56" t="s">
+      <c r="A160" s="53"/>
+      <c r="B160" s="56"/>
+      <c r="C160" s="59" t="s">
         <v>84</v>
       </c>
       <c r="D160" s="15" t="s">
@@ -12230,7 +12229,7 @@
       <c r="P160" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q160" s="60"/>
+      <c r="Q160" s="50"/>
       <c r="R160" s="45"/>
       <c r="S160" s="45"/>
       <c r="T160" s="45"/>
@@ -12248,9 +12247,9 @@
       </c>
     </row>
     <row r="161" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A161" s="50"/>
-      <c r="B161" s="53"/>
-      <c r="C161" s="57"/>
+      <c r="A161" s="53"/>
+      <c r="B161" s="56"/>
+      <c r="C161" s="60"/>
       <c r="D161" s="15" t="s">
         <v>87</v>
       </c>
@@ -12288,7 +12287,7 @@
       <c r="P161" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q161" s="60"/>
+      <c r="Q161" s="50"/>
       <c r="R161" s="45"/>
       <c r="S161" s="45"/>
       <c r="T161" s="45"/>
@@ -12306,9 +12305,9 @@
       </c>
     </row>
     <row r="162" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A162" s="51"/>
-      <c r="B162" s="54"/>
-      <c r="C162" s="58"/>
+      <c r="A162" s="54"/>
+      <c r="B162" s="57"/>
+      <c r="C162" s="61"/>
       <c r="D162" s="17" t="s">
         <v>89</v>
       </c>
@@ -12348,7 +12347,7 @@
       <c r="P162" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q162" s="60"/>
+      <c r="Q162" s="50"/>
       <c r="R162" s="45"/>
       <c r="S162" s="45"/>
       <c r="T162" s="45"/>
@@ -12366,13 +12365,13 @@
       </c>
     </row>
     <row r="163" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A163" s="49">
+      <c r="A163" s="52">
         <v>8</v>
       </c>
-      <c r="B163" s="52" t="s">
+      <c r="B163" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C163" s="55" t="s">
+      <c r="C163" s="58" t="s">
         <v>303</v>
       </c>
       <c r="D163" s="6" t="s">
@@ -12414,7 +12413,7 @@
       <c r="P163" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q163" s="60"/>
+      <c r="Q163" s="50"/>
       <c r="R163" s="45"/>
       <c r="S163" s="45"/>
       <c r="T163" s="45"/>
@@ -12432,9 +12431,9 @@
       </c>
     </row>
     <row r="164" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A164" s="50"/>
-      <c r="B164" s="53"/>
-      <c r="C164" s="55"/>
+      <c r="A164" s="53"/>
+      <c r="B164" s="56"/>
+      <c r="C164" s="58"/>
       <c r="D164" s="6" t="s">
         <v>198</v>
       </c>
@@ -12474,7 +12473,7 @@
       <c r="P164" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q164" s="60"/>
+      <c r="Q164" s="50"/>
       <c r="R164" s="45"/>
       <c r="S164" s="45"/>
       <c r="T164" s="45"/>
@@ -12492,9 +12491,9 @@
       </c>
     </row>
     <row r="165" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A165" s="50"/>
-      <c r="B165" s="53"/>
-      <c r="C165" s="55"/>
+      <c r="A165" s="53"/>
+      <c r="B165" s="56"/>
+      <c r="C165" s="58"/>
       <c r="D165" s="6" t="s">
         <v>306</v>
       </c>
@@ -12534,7 +12533,7 @@
       <c r="P165" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q165" s="60"/>
+      <c r="Q165" s="50"/>
       <c r="R165" s="45"/>
       <c r="S165" s="45"/>
       <c r="T165" s="45"/>
@@ -12552,9 +12551,9 @@
       </c>
     </row>
     <row r="166" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A166" s="50"/>
-      <c r="B166" s="53"/>
-      <c r="C166" s="55"/>
+      <c r="A166" s="53"/>
+      <c r="B166" s="56"/>
+      <c r="C166" s="58"/>
       <c r="D166" s="6" t="s">
         <v>309</v>
       </c>
@@ -12594,7 +12593,7 @@
       <c r="P166" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q166" s="60"/>
+      <c r="Q166" s="50"/>
       <c r="R166" s="45"/>
       <c r="S166" s="45"/>
       <c r="T166" s="45"/>
@@ -12612,9 +12611,9 @@
       </c>
     </row>
     <row r="167" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A167" s="50"/>
-      <c r="B167" s="53"/>
-      <c r="C167" s="55"/>
+      <c r="A167" s="53"/>
+      <c r="B167" s="56"/>
+      <c r="C167" s="58"/>
       <c r="D167" s="6" t="s">
         <v>312</v>
       </c>
@@ -12654,7 +12653,7 @@
       <c r="P167" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q167" s="60"/>
+      <c r="Q167" s="50"/>
       <c r="R167" s="45"/>
       <c r="S167" s="45"/>
       <c r="T167" s="45"/>
@@ -12672,9 +12671,9 @@
       </c>
     </row>
     <row r="168" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A168" s="50"/>
-      <c r="B168" s="53"/>
-      <c r="C168" s="55" t="s">
+      <c r="A168" s="53"/>
+      <c r="B168" s="56"/>
+      <c r="C168" s="58" t="s">
         <v>315</v>
       </c>
       <c r="D168" s="15" t="s">
@@ -12716,7 +12715,7 @@
       <c r="P168" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q168" s="60"/>
+      <c r="Q168" s="50"/>
       <c r="R168" s="45"/>
       <c r="S168" s="45"/>
       <c r="T168" s="45"/>
@@ -12734,9 +12733,9 @@
       </c>
     </row>
     <row r="169" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A169" s="50"/>
-      <c r="B169" s="53"/>
-      <c r="C169" s="55"/>
+      <c r="A169" s="53"/>
+      <c r="B169" s="56"/>
+      <c r="C169" s="58"/>
       <c r="D169" s="15" t="s">
         <v>33</v>
       </c>
@@ -12776,7 +12775,7 @@
       <c r="P169" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q169" s="60"/>
+      <c r="Q169" s="50"/>
       <c r="R169" s="45"/>
       <c r="S169" s="45"/>
       <c r="T169" s="45"/>
@@ -12794,9 +12793,9 @@
       </c>
     </row>
     <row r="170" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A170" s="50"/>
-      <c r="B170" s="53"/>
-      <c r="C170" s="55"/>
+      <c r="A170" s="53"/>
+      <c r="B170" s="56"/>
+      <c r="C170" s="58"/>
       <c r="D170" s="15" t="s">
         <v>36</v>
       </c>
@@ -12836,7 +12835,7 @@
       <c r="P170" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q170" s="60"/>
+      <c r="Q170" s="50"/>
       <c r="R170" s="45"/>
       <c r="S170" s="45"/>
       <c r="T170" s="45"/>
@@ -12854,9 +12853,9 @@
       </c>
     </row>
     <row r="171" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A171" s="50"/>
-      <c r="B171" s="53"/>
-      <c r="C171" s="55"/>
+      <c r="A171" s="53"/>
+      <c r="B171" s="56"/>
+      <c r="C171" s="58"/>
       <c r="D171" s="15" t="s">
         <v>38</v>
       </c>
@@ -12896,7 +12895,7 @@
       <c r="P171" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q171" s="60"/>
+      <c r="Q171" s="50"/>
       <c r="R171" s="45"/>
       <c r="S171" s="45"/>
       <c r="T171" s="45"/>
@@ -12914,9 +12913,9 @@
       </c>
     </row>
     <row r="172" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A172" s="50"/>
-      <c r="B172" s="53"/>
-      <c r="C172" s="55"/>
+      <c r="A172" s="53"/>
+      <c r="B172" s="56"/>
+      <c r="C172" s="58"/>
       <c r="D172" s="15" t="s">
         <v>41</v>
       </c>
@@ -12956,7 +12955,7 @@
       <c r="P172" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q172" s="60"/>
+      <c r="Q172" s="50"/>
       <c r="R172" s="45"/>
       <c r="S172" s="45"/>
       <c r="T172" s="45"/>
@@ -12974,9 +12973,9 @@
       </c>
     </row>
     <row r="173" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A173" s="50"/>
-      <c r="B173" s="53"/>
-      <c r="C173" s="55"/>
+      <c r="A173" s="53"/>
+      <c r="B173" s="56"/>
+      <c r="C173" s="58"/>
       <c r="D173" s="15" t="s">
         <v>44</v>
       </c>
@@ -13016,7 +13015,7 @@
       <c r="P173" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q173" s="60"/>
+      <c r="Q173" s="50"/>
       <c r="R173" s="45"/>
       <c r="S173" s="45"/>
       <c r="T173" s="45"/>
@@ -13034,9 +13033,9 @@
       </c>
     </row>
     <row r="174" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A174" s="50"/>
-      <c r="B174" s="53"/>
-      <c r="C174" s="55"/>
+      <c r="A174" s="53"/>
+      <c r="B174" s="56"/>
+      <c r="C174" s="58"/>
       <c r="D174" s="15" t="s">
         <v>47</v>
       </c>
@@ -13076,7 +13075,7 @@
       <c r="P174" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q174" s="60"/>
+      <c r="Q174" s="50"/>
       <c r="R174" s="45"/>
       <c r="S174" s="45"/>
       <c r="T174" s="45"/>
@@ -13094,9 +13093,9 @@
       </c>
     </row>
     <row r="175" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A175" s="50"/>
-      <c r="B175" s="53"/>
-      <c r="C175" s="55"/>
+      <c r="A175" s="53"/>
+      <c r="B175" s="56"/>
+      <c r="C175" s="58"/>
       <c r="D175" s="15" t="s">
         <v>47</v>
       </c>
@@ -13136,7 +13135,7 @@
       <c r="P175" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q175" s="60"/>
+      <c r="Q175" s="50"/>
       <c r="R175" s="45"/>
       <c r="S175" s="45"/>
       <c r="T175" s="45"/>
@@ -13154,9 +13153,9 @@
       </c>
     </row>
     <row r="176" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A176" s="50"/>
-      <c r="B176" s="53"/>
-      <c r="C176" s="55"/>
+      <c r="A176" s="53"/>
+      <c r="B176" s="56"/>
+      <c r="C176" s="58"/>
       <c r="D176" s="15" t="s">
         <v>47</v>
       </c>
@@ -13196,7 +13195,7 @@
       <c r="P176" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q176" s="60"/>
+      <c r="Q176" s="50"/>
       <c r="R176" s="45"/>
       <c r="S176" s="45"/>
       <c r="T176" s="45"/>
@@ -13214,9 +13213,9 @@
       </c>
     </row>
     <row r="177" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A177" s="50"/>
-      <c r="B177" s="53"/>
-      <c r="C177" s="55"/>
+      <c r="A177" s="53"/>
+      <c r="B177" s="56"/>
+      <c r="C177" s="58"/>
       <c r="D177" s="15" t="s">
         <v>61</v>
       </c>
@@ -13256,7 +13255,7 @@
       <c r="P177" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q177" s="60"/>
+      <c r="Q177" s="50"/>
       <c r="R177" s="45"/>
       <c r="S177" s="45"/>
       <c r="T177" s="45"/>
@@ -13274,9 +13273,9 @@
       </c>
     </row>
     <row r="178" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A178" s="50"/>
-      <c r="B178" s="53"/>
-      <c r="C178" s="55"/>
+      <c r="A178" s="53"/>
+      <c r="B178" s="56"/>
+      <c r="C178" s="58"/>
       <c r="D178" s="15" t="s">
         <v>64</v>
       </c>
@@ -13316,7 +13315,7 @@
       <c r="P178" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q178" s="60"/>
+      <c r="Q178" s="50"/>
       <c r="R178" s="45"/>
       <c r="S178" s="45"/>
       <c r="T178" s="45"/>
@@ -13334,9 +13333,9 @@
       </c>
     </row>
     <row r="179" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A179" s="50"/>
-      <c r="B179" s="53"/>
-      <c r="C179" s="55"/>
+      <c r="A179" s="53"/>
+      <c r="B179" s="56"/>
+      <c r="C179" s="58"/>
       <c r="D179" s="15" t="s">
         <v>67</v>
       </c>
@@ -13376,7 +13375,7 @@
       <c r="P179" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q179" s="60"/>
+      <c r="Q179" s="50"/>
       <c r="R179" s="45"/>
       <c r="S179" s="45"/>
       <c r="T179" s="45"/>
@@ -13394,9 +13393,9 @@
       </c>
     </row>
     <row r="180" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A180" s="50"/>
-      <c r="B180" s="53"/>
-      <c r="C180" s="55"/>
+      <c r="A180" s="53"/>
+      <c r="B180" s="56"/>
+      <c r="C180" s="58"/>
       <c r="D180" s="15" t="s">
         <v>69</v>
       </c>
@@ -13436,7 +13435,7 @@
       <c r="P180" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q180" s="60"/>
+      <c r="Q180" s="50"/>
       <c r="R180" s="45"/>
       <c r="S180" s="45"/>
       <c r="T180" s="45"/>
@@ -13454,9 +13453,9 @@
       </c>
     </row>
     <row r="181" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A181" s="50"/>
-      <c r="B181" s="53"/>
-      <c r="C181" s="55"/>
+      <c r="A181" s="53"/>
+      <c r="B181" s="56"/>
+      <c r="C181" s="58"/>
       <c r="D181" s="15" t="s">
         <v>72</v>
       </c>
@@ -13496,7 +13495,7 @@
       <c r="P181" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q181" s="60"/>
+      <c r="Q181" s="50"/>
       <c r="R181" s="45"/>
       <c r="S181" s="45"/>
       <c r="T181" s="45"/>
@@ -13514,9 +13513,9 @@
       </c>
     </row>
     <row r="182" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A182" s="50"/>
-      <c r="B182" s="53"/>
-      <c r="C182" s="55"/>
+      <c r="A182" s="53"/>
+      <c r="B182" s="56"/>
+      <c r="C182" s="58"/>
       <c r="D182" s="15" t="s">
         <v>75</v>
       </c>
@@ -13556,7 +13555,7 @@
       <c r="P182" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q182" s="60"/>
+      <c r="Q182" s="50"/>
       <c r="R182" s="45"/>
       <c r="S182" s="45"/>
       <c r="T182" s="45"/>
@@ -13574,9 +13573,9 @@
       </c>
     </row>
     <row r="183" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A183" s="50"/>
-      <c r="B183" s="53"/>
-      <c r="C183" s="55"/>
+      <c r="A183" s="53"/>
+      <c r="B183" s="56"/>
+      <c r="C183" s="58"/>
       <c r="D183" s="15" t="s">
         <v>78</v>
       </c>
@@ -13614,7 +13613,7 @@
       <c r="P183" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q183" s="60"/>
+      <c r="Q183" s="50"/>
       <c r="R183" s="45"/>
       <c r="S183" s="45"/>
       <c r="T183" s="45"/>
@@ -13632,9 +13631,9 @@
       </c>
     </row>
     <row r="184" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A184" s="50"/>
-      <c r="B184" s="53"/>
-      <c r="C184" s="55"/>
+      <c r="A184" s="53"/>
+      <c r="B184" s="56"/>
+      <c r="C184" s="58"/>
       <c r="D184" s="15" t="s">
         <v>81</v>
       </c>
@@ -13672,7 +13671,7 @@
       <c r="P184" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q184" s="60"/>
+      <c r="Q184" s="50"/>
       <c r="R184" s="45"/>
       <c r="S184" s="45"/>
       <c r="T184" s="45"/>
@@ -13690,9 +13689,9 @@
       </c>
     </row>
     <row r="185" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A185" s="50"/>
-      <c r="B185" s="53"/>
-      <c r="C185" s="56" t="s">
+      <c r="A185" s="53"/>
+      <c r="B185" s="56"/>
+      <c r="C185" s="59" t="s">
         <v>84</v>
       </c>
       <c r="D185" s="15" t="s">
@@ -13734,7 +13733,7 @@
       <c r="P185" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q185" s="60"/>
+      <c r="Q185" s="50"/>
       <c r="R185" s="45"/>
       <c r="S185" s="45"/>
       <c r="T185" s="45"/>
@@ -13752,9 +13751,9 @@
       </c>
     </row>
     <row r="186" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A186" s="50"/>
-      <c r="B186" s="53"/>
-      <c r="C186" s="57"/>
+      <c r="A186" s="53"/>
+      <c r="B186" s="56"/>
+      <c r="C186" s="60"/>
       <c r="D186" s="15" t="s">
         <v>87</v>
       </c>
@@ -13792,7 +13791,7 @@
       <c r="P186" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q186" s="60"/>
+      <c r="Q186" s="50"/>
       <c r="R186" s="45"/>
       <c r="S186" s="45"/>
       <c r="T186" s="45"/>
@@ -13810,9 +13809,9 @@
       </c>
     </row>
     <row r="187" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A187" s="51"/>
-      <c r="B187" s="54"/>
-      <c r="C187" s="58"/>
+      <c r="A187" s="54"/>
+      <c r="B187" s="57"/>
+      <c r="C187" s="61"/>
       <c r="D187" s="17" t="s">
         <v>89</v>
       </c>
@@ -13852,7 +13851,7 @@
       <c r="P187" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q187" s="60"/>
+      <c r="Q187" s="50"/>
       <c r="R187" s="45"/>
       <c r="S187" s="45"/>
       <c r="T187" s="45"/>
@@ -13870,13 +13869,13 @@
       </c>
     </row>
     <row r="188" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A188" s="49">
+      <c r="A188" s="52">
         <v>9</v>
       </c>
-      <c r="B188" s="52" t="s">
+      <c r="B188" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="C188" s="55" t="s">
+      <c r="C188" s="58" t="s">
         <v>381</v>
       </c>
       <c r="D188" s="6" t="s">
@@ -13918,7 +13917,7 @@
       <c r="P188" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q188" s="60"/>
+      <c r="Q188" s="50"/>
       <c r="R188" s="45"/>
       <c r="S188" s="45"/>
       <c r="T188" s="45"/>
@@ -13936,9 +13935,9 @@
       </c>
     </row>
     <row r="189" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A189" s="50"/>
-      <c r="B189" s="53"/>
-      <c r="C189" s="55"/>
+      <c r="A189" s="53"/>
+      <c r="B189" s="56"/>
+      <c r="C189" s="58"/>
       <c r="D189" s="6" t="s">
         <v>198</v>
       </c>
@@ -13978,7 +13977,7 @@
       <c r="P189" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q189" s="60"/>
+      <c r="Q189" s="50"/>
       <c r="R189" s="45"/>
       <c r="S189" s="45"/>
       <c r="T189" s="45"/>
@@ -13996,9 +13995,9 @@
       </c>
     </row>
     <row r="190" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A190" s="50"/>
-      <c r="B190" s="53"/>
-      <c r="C190" s="55"/>
+      <c r="A190" s="53"/>
+      <c r="B190" s="56"/>
+      <c r="C190" s="58"/>
       <c r="D190" s="6" t="s">
         <v>384</v>
       </c>
@@ -14038,7 +14037,7 @@
       <c r="P190" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q190" s="60"/>
+      <c r="Q190" s="50"/>
       <c r="R190" s="45"/>
       <c r="S190" s="45"/>
       <c r="T190" s="45"/>
@@ -14056,9 +14055,9 @@
       </c>
     </row>
     <row r="191" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A191" s="50"/>
-      <c r="B191" s="53"/>
-      <c r="C191" s="55"/>
+      <c r="A191" s="53"/>
+      <c r="B191" s="56"/>
+      <c r="C191" s="58"/>
       <c r="D191" s="6" t="s">
         <v>386</v>
       </c>
@@ -14098,7 +14097,7 @@
       <c r="P191" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q191" s="60"/>
+      <c r="Q191" s="50"/>
       <c r="R191" s="45"/>
       <c r="S191" s="45"/>
       <c r="T191" s="45"/>
@@ -14116,9 +14115,9 @@
       </c>
     </row>
     <row r="192" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A192" s="50"/>
-      <c r="B192" s="53"/>
-      <c r="C192" s="55"/>
+      <c r="A192" s="53"/>
+      <c r="B192" s="56"/>
+      <c r="C192" s="58"/>
       <c r="D192" s="6" t="s">
         <v>388</v>
       </c>
@@ -14158,7 +14157,7 @@
       <c r="P192" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q192" s="60"/>
+      <c r="Q192" s="50"/>
       <c r="R192" s="45"/>
       <c r="S192" s="45"/>
       <c r="T192" s="45"/>
@@ -14176,9 +14175,9 @@
       </c>
     </row>
     <row r="193" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A193" s="50"/>
-      <c r="B193" s="53"/>
-      <c r="C193" s="55" t="s">
+      <c r="A193" s="53"/>
+      <c r="B193" s="56"/>
+      <c r="C193" s="58" t="s">
         <v>390</v>
       </c>
       <c r="D193" s="15" t="s">
@@ -14220,7 +14219,7 @@
       <c r="P193" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q193" s="60"/>
+      <c r="Q193" s="50"/>
       <c r="R193" s="45"/>
       <c r="S193" s="45"/>
       <c r="T193" s="45"/>
@@ -14238,9 +14237,9 @@
       </c>
     </row>
     <row r="194" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A194" s="50"/>
-      <c r="B194" s="53"/>
-      <c r="C194" s="55"/>
+      <c r="A194" s="53"/>
+      <c r="B194" s="56"/>
+      <c r="C194" s="58"/>
       <c r="D194" s="15" t="s">
         <v>33</v>
       </c>
@@ -14280,7 +14279,7 @@
       <c r="P194" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q194" s="60"/>
+      <c r="Q194" s="50"/>
       <c r="R194" s="45"/>
       <c r="S194" s="45"/>
       <c r="T194" s="45"/>
@@ -14298,9 +14297,9 @@
       </c>
     </row>
     <row r="195" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A195" s="50"/>
-      <c r="B195" s="53"/>
-      <c r="C195" s="55"/>
+      <c r="A195" s="53"/>
+      <c r="B195" s="56"/>
+      <c r="C195" s="58"/>
       <c r="D195" s="15" t="s">
         <v>36</v>
       </c>
@@ -14340,7 +14339,7 @@
       <c r="P195" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q195" s="60"/>
+      <c r="Q195" s="50"/>
       <c r="R195" s="45"/>
       <c r="S195" s="45"/>
       <c r="T195" s="45"/>
@@ -14358,9 +14357,9 @@
       </c>
     </row>
     <row r="196" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A196" s="50"/>
-      <c r="B196" s="53"/>
-      <c r="C196" s="55"/>
+      <c r="A196" s="53"/>
+      <c r="B196" s="56"/>
+      <c r="C196" s="58"/>
       <c r="D196" s="15" t="s">
         <v>38</v>
       </c>
@@ -14400,7 +14399,7 @@
       <c r="P196" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q196" s="60"/>
+      <c r="Q196" s="50"/>
       <c r="R196" s="45"/>
       <c r="S196" s="45"/>
       <c r="T196" s="45"/>
@@ -14418,9 +14417,9 @@
       </c>
     </row>
     <row r="197" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A197" s="50"/>
-      <c r="B197" s="53"/>
-      <c r="C197" s="55"/>
+      <c r="A197" s="53"/>
+      <c r="B197" s="56"/>
+      <c r="C197" s="58"/>
       <c r="D197" s="15" t="s">
         <v>41</v>
       </c>
@@ -14460,7 +14459,7 @@
       <c r="P197" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q197" s="60"/>
+      <c r="Q197" s="50"/>
       <c r="R197" s="45"/>
       <c r="S197" s="45"/>
       <c r="T197" s="45"/>
@@ -14478,9 +14477,9 @@
       </c>
     </row>
     <row r="198" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A198" s="50"/>
-      <c r="B198" s="53"/>
-      <c r="C198" s="55"/>
+      <c r="A198" s="53"/>
+      <c r="B198" s="56"/>
+      <c r="C198" s="58"/>
       <c r="D198" s="15" t="s">
         <v>44</v>
       </c>
@@ -14520,7 +14519,7 @@
       <c r="P198" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q198" s="60"/>
+      <c r="Q198" s="50"/>
       <c r="R198" s="45"/>
       <c r="S198" s="45"/>
       <c r="T198" s="45"/>
@@ -14538,9 +14537,9 @@
       </c>
     </row>
     <row r="199" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A199" s="50"/>
-      <c r="B199" s="53"/>
-      <c r="C199" s="55"/>
+      <c r="A199" s="53"/>
+      <c r="B199" s="56"/>
+      <c r="C199" s="58"/>
       <c r="D199" s="15" t="s">
         <v>47</v>
       </c>
@@ -14580,7 +14579,7 @@
       <c r="P199" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q199" s="60"/>
+      <c r="Q199" s="50"/>
       <c r="R199" s="45"/>
       <c r="S199" s="45"/>
       <c r="T199" s="45"/>
@@ -14598,9 +14597,9 @@
       </c>
     </row>
     <row r="200" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A200" s="50"/>
-      <c r="B200" s="53"/>
-      <c r="C200" s="55"/>
+      <c r="A200" s="53"/>
+      <c r="B200" s="56"/>
+      <c r="C200" s="58"/>
       <c r="D200" s="15" t="s">
         <v>47</v>
       </c>
@@ -14640,7 +14639,7 @@
       <c r="P200" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q200" s="60"/>
+      <c r="Q200" s="50"/>
       <c r="R200" s="45"/>
       <c r="S200" s="45"/>
       <c r="T200" s="45"/>
@@ -14658,9 +14657,9 @@
       </c>
     </row>
     <row r="201" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A201" s="50"/>
-      <c r="B201" s="53"/>
-      <c r="C201" s="55"/>
+      <c r="A201" s="53"/>
+      <c r="B201" s="56"/>
+      <c r="C201" s="58"/>
       <c r="D201" s="15" t="s">
         <v>47</v>
       </c>
@@ -14700,7 +14699,7 @@
       <c r="P201" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q201" s="60"/>
+      <c r="Q201" s="50"/>
       <c r="R201" s="45"/>
       <c r="S201" s="45"/>
       <c r="T201" s="45"/>
@@ -14718,9 +14717,9 @@
       </c>
     </row>
     <row r="202" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A202" s="50"/>
-      <c r="B202" s="53"/>
-      <c r="C202" s="55"/>
+      <c r="A202" s="53"/>
+      <c r="B202" s="56"/>
+      <c r="C202" s="58"/>
       <c r="D202" s="15" t="s">
         <v>61</v>
       </c>
@@ -14760,7 +14759,7 @@
       <c r="P202" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q202" s="60"/>
+      <c r="Q202" s="50"/>
       <c r="R202" s="45"/>
       <c r="S202" s="45"/>
       <c r="T202" s="45"/>
@@ -14778,9 +14777,9 @@
       </c>
     </row>
     <row r="203" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A203" s="50"/>
-      <c r="B203" s="53"/>
-      <c r="C203" s="55"/>
+      <c r="A203" s="53"/>
+      <c r="B203" s="56"/>
+      <c r="C203" s="58"/>
       <c r="D203" s="15" t="s">
         <v>64</v>
       </c>
@@ -14820,7 +14819,7 @@
       <c r="P203" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q203" s="60"/>
+      <c r="Q203" s="50"/>
       <c r="R203" s="45"/>
       <c r="S203" s="45"/>
       <c r="T203" s="45"/>
@@ -14838,9 +14837,9 @@
       </c>
     </row>
     <row r="204" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A204" s="50"/>
-      <c r="B204" s="53"/>
-      <c r="C204" s="55"/>
+      <c r="A204" s="53"/>
+      <c r="B204" s="56"/>
+      <c r="C204" s="58"/>
       <c r="D204" s="15" t="s">
         <v>67</v>
       </c>
@@ -14880,7 +14879,7 @@
       <c r="P204" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q204" s="60"/>
+      <c r="Q204" s="50"/>
       <c r="R204" s="45"/>
       <c r="S204" s="45"/>
       <c r="T204" s="45"/>
@@ -14898,9 +14897,9 @@
       </c>
     </row>
     <row r="205" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A205" s="50"/>
-      <c r="B205" s="53"/>
-      <c r="C205" s="55"/>
+      <c r="A205" s="53"/>
+      <c r="B205" s="56"/>
+      <c r="C205" s="58"/>
       <c r="D205" s="15" t="s">
         <v>69</v>
       </c>
@@ -14940,7 +14939,7 @@
       <c r="P205" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q205" s="60"/>
+      <c r="Q205" s="50"/>
       <c r="R205" s="45"/>
       <c r="S205" s="45"/>
       <c r="T205" s="45"/>
@@ -14958,9 +14957,9 @@
       </c>
     </row>
     <row r="206" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A206" s="50"/>
-      <c r="B206" s="53"/>
-      <c r="C206" s="55"/>
+      <c r="A206" s="53"/>
+      <c r="B206" s="56"/>
+      <c r="C206" s="58"/>
       <c r="D206" s="15" t="s">
         <v>72</v>
       </c>
@@ -14998,7 +14997,7 @@
       <c r="P206" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q206" s="60"/>
+      <c r="Q206" s="50"/>
       <c r="R206" s="45"/>
       <c r="S206" s="45"/>
       <c r="T206" s="45"/>
@@ -15016,9 +15015,9 @@
       </c>
     </row>
     <row r="207" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A207" s="50"/>
-      <c r="B207" s="53"/>
-      <c r="C207" s="55"/>
+      <c r="A207" s="53"/>
+      <c r="B207" s="56"/>
+      <c r="C207" s="58"/>
       <c r="D207" s="15" t="s">
         <v>75</v>
       </c>
@@ -15056,7 +15055,7 @@
       <c r="P207" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q207" s="60"/>
+      <c r="Q207" s="50"/>
       <c r="R207" s="45"/>
       <c r="S207" s="45"/>
       <c r="T207" s="45"/>
@@ -15074,9 +15073,9 @@
       </c>
     </row>
     <row r="208" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A208" s="50"/>
-      <c r="B208" s="53"/>
-      <c r="C208" s="55"/>
+      <c r="A208" s="53"/>
+      <c r="B208" s="56"/>
+      <c r="C208" s="58"/>
       <c r="D208" s="15" t="s">
         <v>78</v>
       </c>
@@ -15114,7 +15113,7 @@
       <c r="P208" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q208" s="60"/>
+      <c r="Q208" s="50"/>
       <c r="R208" s="45"/>
       <c r="S208" s="45"/>
       <c r="T208" s="45"/>
@@ -15132,9 +15131,9 @@
       </c>
     </row>
     <row r="209" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A209" s="50"/>
-      <c r="B209" s="53"/>
-      <c r="C209" s="55"/>
+      <c r="A209" s="53"/>
+      <c r="B209" s="56"/>
+      <c r="C209" s="58"/>
       <c r="D209" s="15" t="s">
         <v>81</v>
       </c>
@@ -15172,7 +15171,7 @@
       <c r="P209" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q209" s="60"/>
+      <c r="Q209" s="50"/>
       <c r="R209" s="45"/>
       <c r="S209" s="45"/>
       <c r="T209" s="45"/>
@@ -15190,9 +15189,9 @@
       </c>
     </row>
     <row r="210" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A210" s="50"/>
-      <c r="B210" s="53"/>
-      <c r="C210" s="56" t="s">
+      <c r="A210" s="53"/>
+      <c r="B210" s="56"/>
+      <c r="C210" s="59" t="s">
         <v>377</v>
       </c>
       <c r="D210" s="15" t="s">
@@ -15234,7 +15233,7 @@
       <c r="P210" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q210" s="60"/>
+      <c r="Q210" s="50"/>
       <c r="R210" s="45"/>
       <c r="S210" s="45"/>
       <c r="T210" s="45"/>
@@ -15252,9 +15251,9 @@
       </c>
     </row>
     <row r="211" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A211" s="50"/>
-      <c r="B211" s="53"/>
-      <c r="C211" s="57"/>
+      <c r="A211" s="53"/>
+      <c r="B211" s="56"/>
+      <c r="C211" s="60"/>
       <c r="D211" s="15" t="s">
         <v>87</v>
       </c>
@@ -15292,7 +15291,7 @@
       <c r="P211" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q211" s="60"/>
+      <c r="Q211" s="50"/>
       <c r="R211" s="45"/>
       <c r="S211" s="45"/>
       <c r="T211" s="45"/>
@@ -15310,9 +15309,9 @@
       </c>
     </row>
     <row r="212" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A212" s="51"/>
-      <c r="B212" s="54"/>
-      <c r="C212" s="58"/>
+      <c r="A212" s="54"/>
+      <c r="B212" s="57"/>
+      <c r="C212" s="61"/>
       <c r="D212" s="17" t="s">
         <v>89</v>
       </c>
@@ -15352,7 +15351,7 @@
       <c r="P212" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="Q212" s="60"/>
+      <c r="Q212" s="50"/>
       <c r="R212" s="45"/>
       <c r="S212" s="45"/>
       <c r="T212" s="45"/>
@@ -15370,13 +15369,13 @@
       </c>
     </row>
     <row r="213" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A213" s="49">
+      <c r="A213" s="52">
         <v>10</v>
       </c>
-      <c r="B213" s="52" t="s">
+      <c r="B213" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="C213" s="55" t="s">
+      <c r="C213" s="58" t="s">
         <v>343</v>
       </c>
       <c r="D213" s="6" t="s">
@@ -15418,7 +15417,7 @@
       <c r="P213" s="19">
         <v>1</v>
       </c>
-      <c r="Q213" s="60"/>
+      <c r="Q213" s="50"/>
       <c r="R213" s="45"/>
       <c r="S213" s="45"/>
       <c r="T213" s="45"/>
@@ -15436,9 +15435,9 @@
       </c>
     </row>
     <row r="214" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A214" s="50"/>
-      <c r="B214" s="53"/>
-      <c r="C214" s="55"/>
+      <c r="A214" s="53"/>
+      <c r="B214" s="56"/>
+      <c r="C214" s="58"/>
       <c r="D214" s="6" t="s">
         <v>198</v>
       </c>
@@ -15478,7 +15477,7 @@
       <c r="P214" s="19">
         <v>12</v>
       </c>
-      <c r="Q214" s="60"/>
+      <c r="Q214" s="50"/>
       <c r="R214" s="45"/>
       <c r="S214" s="45"/>
       <c r="T214" s="45"/>
@@ -15496,9 +15495,9 @@
       </c>
     </row>
     <row r="215" spans="1:30" ht="45" x14ac:dyDescent="0.25">
-      <c r="A215" s="50"/>
-      <c r="B215" s="53"/>
-      <c r="C215" s="55"/>
+      <c r="A215" s="53"/>
+      <c r="B215" s="56"/>
+      <c r="C215" s="58"/>
       <c r="D215" s="6" t="s">
         <v>346</v>
       </c>
@@ -15538,7 +15537,7 @@
       <c r="P215" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="Q215" s="60"/>
+      <c r="Q215" s="50"/>
       <c r="R215" s="45"/>
       <c r="S215" s="45"/>
       <c r="T215" s="45"/>
@@ -15556,9 +15555,9 @@
       </c>
     </row>
     <row r="216" spans="1:30" ht="45" x14ac:dyDescent="0.25">
-      <c r="A216" s="50"/>
-      <c r="B216" s="53"/>
-      <c r="C216" s="55"/>
+      <c r="A216" s="53"/>
+      <c r="B216" s="56"/>
+      <c r="C216" s="58"/>
       <c r="D216" s="6" t="s">
         <v>349</v>
       </c>
@@ -15598,7 +15597,7 @@
       <c r="P216" s="22" t="s">
         <v>351</v>
       </c>
-      <c r="Q216" s="60"/>
+      <c r="Q216" s="50"/>
       <c r="R216" s="45"/>
       <c r="S216" s="45"/>
       <c r="T216" s="45"/>
@@ -15616,9 +15615,9 @@
       </c>
     </row>
     <row r="217" spans="1:30" ht="45" x14ac:dyDescent="0.25">
-      <c r="A217" s="50"/>
-      <c r="B217" s="53"/>
-      <c r="C217" s="55"/>
+      <c r="A217" s="53"/>
+      <c r="B217" s="56"/>
+      <c r="C217" s="58"/>
       <c r="D217" s="6" t="s">
         <v>352</v>
       </c>
@@ -15658,7 +15657,7 @@
       <c r="P217" s="22" t="s">
         <v>354</v>
       </c>
-      <c r="Q217" s="60"/>
+      <c r="Q217" s="50"/>
       <c r="R217" s="45"/>
       <c r="S217" s="45"/>
       <c r="T217" s="45"/>
@@ -15676,9 +15675,9 @@
       </c>
     </row>
     <row r="218" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A218" s="50"/>
-      <c r="B218" s="53"/>
-      <c r="C218" s="55" t="s">
+      <c r="A218" s="53"/>
+      <c r="B218" s="56"/>
+      <c r="C218" s="58" t="s">
         <v>355</v>
       </c>
       <c r="D218" s="15" t="s">
@@ -15720,7 +15719,7 @@
       <c r="P218" s="19" t="s">
         <v>357</v>
       </c>
-      <c r="Q218" s="60"/>
+      <c r="Q218" s="50"/>
       <c r="R218" s="45"/>
       <c r="S218" s="45"/>
       <c r="T218" s="45"/>
@@ -15738,9 +15737,9 @@
       </c>
     </row>
     <row r="219" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A219" s="50"/>
-      <c r="B219" s="53"/>
-      <c r="C219" s="55"/>
+      <c r="A219" s="53"/>
+      <c r="B219" s="56"/>
+      <c r="C219" s="58"/>
       <c r="D219" s="15" t="s">
         <v>33</v>
       </c>
@@ -15780,7 +15779,7 @@
       <c r="P219" s="19" t="s">
         <v>359</v>
       </c>
-      <c r="Q219" s="60"/>
+      <c r="Q219" s="50"/>
       <c r="R219" s="45"/>
       <c r="S219" s="45"/>
       <c r="T219" s="45"/>
@@ -15798,9 +15797,9 @@
       </c>
     </row>
     <row r="220" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A220" s="50"/>
-      <c r="B220" s="53"/>
-      <c r="C220" s="55"/>
+      <c r="A220" s="53"/>
+      <c r="B220" s="56"/>
+      <c r="C220" s="58"/>
       <c r="D220" s="15" t="s">
         <v>36</v>
       </c>
@@ -15840,7 +15839,7 @@
       <c r="P220" s="19">
         <v>9876543210</v>
       </c>
-      <c r="Q220" s="60"/>
+      <c r="Q220" s="50"/>
       <c r="R220" s="45"/>
       <c r="S220" s="45"/>
       <c r="T220" s="45"/>
@@ -15858,9 +15857,9 @@
       </c>
     </row>
     <row r="221" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A221" s="50"/>
-      <c r="B221" s="53"/>
-      <c r="C221" s="55"/>
+      <c r="A221" s="53"/>
+      <c r="B221" s="56"/>
+      <c r="C221" s="58"/>
       <c r="D221" s="15" t="s">
         <v>38</v>
       </c>
@@ -15900,7 +15899,7 @@
       <c r="P221" s="19" t="s">
         <v>362</v>
       </c>
-      <c r="Q221" s="60"/>
+      <c r="Q221" s="50"/>
       <c r="R221" s="45"/>
       <c r="S221" s="45"/>
       <c r="T221" s="45"/>
@@ -15918,9 +15917,9 @@
       </c>
     </row>
     <row r="222" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A222" s="50"/>
-      <c r="B222" s="53"/>
-      <c r="C222" s="55"/>
+      <c r="A222" s="53"/>
+      <c r="B222" s="56"/>
+      <c r="C222" s="58"/>
       <c r="D222" s="15" t="s">
         <v>41</v>
       </c>
@@ -15960,7 +15959,7 @@
       <c r="P222" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="Q222" s="60"/>
+      <c r="Q222" s="50"/>
       <c r="R222" s="45"/>
       <c r="S222" s="45"/>
       <c r="T222" s="45"/>
@@ -15978,9 +15977,9 @@
       </c>
     </row>
     <row r="223" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A223" s="50"/>
-      <c r="B223" s="53"/>
-      <c r="C223" s="55"/>
+      <c r="A223" s="53"/>
+      <c r="B223" s="56"/>
+      <c r="C223" s="58"/>
       <c r="D223" s="15" t="s">
         <v>44</v>
       </c>
@@ -16020,7 +16019,7 @@
       <c r="P223" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="Q223" s="60"/>
+      <c r="Q223" s="50"/>
       <c r="R223" s="45"/>
       <c r="S223" s="45"/>
       <c r="T223" s="45"/>
@@ -16038,9 +16037,9 @@
       </c>
     </row>
     <row r="224" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A224" s="50"/>
-      <c r="B224" s="53"/>
-      <c r="C224" s="55"/>
+      <c r="A224" s="53"/>
+      <c r="B224" s="56"/>
+      <c r="C224" s="58"/>
       <c r="D224" s="15" t="s">
         <v>47</v>
       </c>
@@ -16080,7 +16079,7 @@
       <c r="P224" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="Q224" s="60"/>
+      <c r="Q224" s="50"/>
       <c r="R224" s="45"/>
       <c r="S224" s="45"/>
       <c r="T224" s="45"/>
@@ -16098,9 +16097,9 @@
       </c>
     </row>
     <row r="225" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A225" s="50"/>
-      <c r="B225" s="53"/>
-      <c r="C225" s="55"/>
+      <c r="A225" s="53"/>
+      <c r="B225" s="56"/>
+      <c r="C225" s="58"/>
       <c r="D225" s="15" t="s">
         <v>47</v>
       </c>
@@ -16140,7 +16139,7 @@
       <c r="P225" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="Q225" s="60"/>
+      <c r="Q225" s="50"/>
       <c r="R225" s="45"/>
       <c r="S225" s="45"/>
       <c r="T225" s="45"/>
@@ -16158,9 +16157,9 @@
       </c>
     </row>
     <row r="226" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A226" s="50"/>
-      <c r="B226" s="53"/>
-      <c r="C226" s="55"/>
+      <c r="A226" s="53"/>
+      <c r="B226" s="56"/>
+      <c r="C226" s="58"/>
       <c r="D226" s="15" t="s">
         <v>47</v>
       </c>
@@ -16200,7 +16199,7 @@
       <c r="P226" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="Q226" s="60"/>
+      <c r="Q226" s="50"/>
       <c r="R226" s="45"/>
       <c r="S226" s="45"/>
       <c r="T226" s="45"/>
@@ -16218,9 +16217,9 @@
       </c>
     </row>
     <row r="227" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A227" s="50"/>
-      <c r="B227" s="53"/>
-      <c r="C227" s="55"/>
+      <c r="A227" s="53"/>
+      <c r="B227" s="56"/>
+      <c r="C227" s="58"/>
       <c r="D227" s="15" t="s">
         <v>61</v>
       </c>
@@ -16260,7 +16259,7 @@
       <c r="P227" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="Q227" s="60"/>
+      <c r="Q227" s="50"/>
       <c r="R227" s="45"/>
       <c r="S227" s="45"/>
       <c r="T227" s="45"/>
@@ -16278,9 +16277,9 @@
       </c>
     </row>
     <row r="228" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A228" s="50"/>
-      <c r="B228" s="53"/>
-      <c r="C228" s="55"/>
+      <c r="A228" s="53"/>
+      <c r="B228" s="56"/>
+      <c r="C228" s="58"/>
       <c r="D228" s="15" t="s">
         <v>64</v>
       </c>
@@ -16320,7 +16319,7 @@
       <c r="P228" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="Q228" s="60"/>
+      <c r="Q228" s="50"/>
       <c r="R228" s="45"/>
       <c r="S228" s="45"/>
       <c r="T228" s="45"/>
@@ -16338,9 +16337,9 @@
       </c>
     </row>
     <row r="229" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A229" s="50"/>
-      <c r="B229" s="53"/>
-      <c r="C229" s="55"/>
+      <c r="A229" s="53"/>
+      <c r="B229" s="56"/>
+      <c r="C229" s="58"/>
       <c r="D229" s="15" t="s">
         <v>67</v>
       </c>
@@ -16380,7 +16379,7 @@
       <c r="P229" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="Q229" s="60"/>
+      <c r="Q229" s="50"/>
       <c r="R229" s="45"/>
       <c r="S229" s="45"/>
       <c r="T229" s="45"/>
@@ -16398,9 +16397,9 @@
       </c>
     </row>
     <row r="230" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A230" s="50"/>
-      <c r="B230" s="53"/>
-      <c r="C230" s="55"/>
+      <c r="A230" s="53"/>
+      <c r="B230" s="56"/>
+      <c r="C230" s="58"/>
       <c r="D230" s="15" t="s">
         <v>69</v>
       </c>
@@ -16440,7 +16439,7 @@
       <c r="P230" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="Q230" s="60"/>
+      <c r="Q230" s="50"/>
       <c r="R230" s="45"/>
       <c r="S230" s="45"/>
       <c r="T230" s="45"/>
@@ -16458,9 +16457,9 @@
       </c>
     </row>
     <row r="231" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A231" s="50"/>
-      <c r="B231" s="53"/>
-      <c r="C231" s="55"/>
+      <c r="A231" s="53"/>
+      <c r="B231" s="56"/>
+      <c r="C231" s="58"/>
       <c r="D231" s="15" t="s">
         <v>72</v>
       </c>
@@ -16500,7 +16499,7 @@
       <c r="P231" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="Q231" s="60"/>
+      <c r="Q231" s="50"/>
       <c r="R231" s="45"/>
       <c r="S231" s="45"/>
       <c r="T231" s="45"/>
@@ -16518,9 +16517,9 @@
       </c>
     </row>
     <row r="232" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A232" s="50"/>
-      <c r="B232" s="53"/>
-      <c r="C232" s="55"/>
+      <c r="A232" s="53"/>
+      <c r="B232" s="56"/>
+      <c r="C232" s="58"/>
       <c r="D232" s="15" t="s">
         <v>75</v>
       </c>
@@ -16560,7 +16559,7 @@
       <c r="P232" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="Q232" s="60"/>
+      <c r="Q232" s="50"/>
       <c r="R232" s="45"/>
       <c r="S232" s="45"/>
       <c r="T232" s="45"/>
@@ -16578,9 +16577,9 @@
       </c>
     </row>
     <row r="233" spans="1:30" ht="30" x14ac:dyDescent="0.25">
-      <c r="A233" s="50"/>
-      <c r="B233" s="53"/>
-      <c r="C233" s="55"/>
+      <c r="A233" s="53"/>
+      <c r="B233" s="56"/>
+      <c r="C233" s="58"/>
       <c r="D233" s="15" t="s">
         <v>78</v>
       </c>
@@ -16618,7 +16617,7 @@
       <c r="P233" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="Q233" s="60"/>
+      <c r="Q233" s="50"/>
       <c r="R233" s="45"/>
       <c r="S233" s="45"/>
       <c r="T233" s="45"/>
@@ -16636,9 +16635,9 @@
       </c>
     </row>
     <row r="234" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A234" s="50"/>
-      <c r="B234" s="53"/>
-      <c r="C234" s="55"/>
+      <c r="A234" s="53"/>
+      <c r="B234" s="56"/>
+      <c r="C234" s="58"/>
       <c r="D234" s="15" t="s">
         <v>81</v>
       </c>
@@ -16676,7 +16675,7 @@
       <c r="P234" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="Q234" s="60"/>
+      <c r="Q234" s="50"/>
       <c r="R234" s="45"/>
       <c r="S234" s="45"/>
       <c r="T234" s="45"/>
@@ -16694,9 +16693,9 @@
       </c>
     </row>
     <row r="235" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A235" s="50"/>
-      <c r="B235" s="53"/>
-      <c r="C235" s="56" t="s">
+      <c r="A235" s="53"/>
+      <c r="B235" s="56"/>
+      <c r="C235" s="59" t="s">
         <v>377</v>
       </c>
       <c r="D235" s="15" t="s">
@@ -16738,7 +16737,7 @@
       <c r="P235" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="Q235" s="60"/>
+      <c r="Q235" s="50"/>
       <c r="R235" s="45"/>
       <c r="S235" s="45"/>
       <c r="T235" s="45"/>
@@ -16756,9 +16755,9 @@
       </c>
     </row>
     <row r="236" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A236" s="50"/>
-      <c r="B236" s="53"/>
-      <c r="C236" s="57"/>
+      <c r="A236" s="53"/>
+      <c r="B236" s="56"/>
+      <c r="C236" s="60"/>
       <c r="D236" s="15" t="s">
         <v>87</v>
       </c>
@@ -16796,7 +16795,7 @@
         <v>28</v>
       </c>
       <c r="P236" s="19"/>
-      <c r="Q236" s="60"/>
+      <c r="Q236" s="50"/>
       <c r="R236" s="45"/>
       <c r="S236" s="45"/>
       <c r="T236" s="45"/>
@@ -16814,9 +16813,9 @@
       </c>
     </row>
     <row r="237" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A237" s="51"/>
-      <c r="B237" s="54"/>
-      <c r="C237" s="58"/>
+      <c r="A237" s="54"/>
+      <c r="B237" s="57"/>
+      <c r="C237" s="61"/>
       <c r="D237" s="17" t="s">
         <v>89</v>
       </c>
@@ -16856,7 +16855,7 @@
       <c r="P237" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="Q237" s="61"/>
+      <c r="Q237" s="51"/>
       <c r="R237" s="45"/>
       <c r="S237" s="45"/>
       <c r="T237" s="45"/>
@@ -16875,6 +16874,36 @@
     </row>
   </sheetData>
   <mergeCells count="46">
+    <mergeCell ref="A213:A237"/>
+    <mergeCell ref="B213:B237"/>
+    <mergeCell ref="C213:C217"/>
+    <mergeCell ref="C218:C234"/>
+    <mergeCell ref="C235:C237"/>
+    <mergeCell ref="A92:A116"/>
+    <mergeCell ref="A188:A212"/>
+    <mergeCell ref="B188:B212"/>
+    <mergeCell ref="C188:C192"/>
+    <mergeCell ref="C193:C209"/>
+    <mergeCell ref="C210:C212"/>
+    <mergeCell ref="B92:B116"/>
+    <mergeCell ref="C92:C96"/>
+    <mergeCell ref="C97:C113"/>
+    <mergeCell ref="C89:C91"/>
+    <mergeCell ref="C114:C116"/>
+    <mergeCell ref="A163:A187"/>
+    <mergeCell ref="B163:B187"/>
+    <mergeCell ref="C163:C167"/>
+    <mergeCell ref="C168:C184"/>
+    <mergeCell ref="C185:C187"/>
+    <mergeCell ref="A138:A162"/>
+    <mergeCell ref="B138:B162"/>
+    <mergeCell ref="C138:C142"/>
+    <mergeCell ref="C143:C159"/>
+    <mergeCell ref="C160:C162"/>
+    <mergeCell ref="A117:A137"/>
+    <mergeCell ref="B117:B137"/>
+    <mergeCell ref="C118:C134"/>
+    <mergeCell ref="C135:C137"/>
     <mergeCell ref="Q1:Q237"/>
     <mergeCell ref="A47:A67"/>
     <mergeCell ref="B47:B67"/>
@@ -16891,46 +16920,16 @@
     <mergeCell ref="C44:C46"/>
     <mergeCell ref="B68:B91"/>
     <mergeCell ref="C69:C88"/>
-    <mergeCell ref="C89:C91"/>
-    <mergeCell ref="C114:C116"/>
-    <mergeCell ref="A163:A187"/>
-    <mergeCell ref="B163:B187"/>
-    <mergeCell ref="C163:C167"/>
-    <mergeCell ref="C168:C184"/>
-    <mergeCell ref="C185:C187"/>
-    <mergeCell ref="A138:A162"/>
-    <mergeCell ref="B138:B162"/>
-    <mergeCell ref="C138:C142"/>
-    <mergeCell ref="C143:C159"/>
-    <mergeCell ref="C160:C162"/>
-    <mergeCell ref="A117:A137"/>
-    <mergeCell ref="B117:B137"/>
-    <mergeCell ref="C118:C134"/>
-    <mergeCell ref="C135:C137"/>
-    <mergeCell ref="A92:A116"/>
-    <mergeCell ref="A188:A212"/>
-    <mergeCell ref="B188:B212"/>
-    <mergeCell ref="C188:C192"/>
-    <mergeCell ref="C193:C209"/>
-    <mergeCell ref="C210:C212"/>
-    <mergeCell ref="B92:B116"/>
-    <mergeCell ref="C92:C96"/>
-    <mergeCell ref="C97:C113"/>
-    <mergeCell ref="A213:A237"/>
-    <mergeCell ref="B213:B237"/>
-    <mergeCell ref="C213:C217"/>
-    <mergeCell ref="C218:C234"/>
-    <mergeCell ref="C235:C237"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E237" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E237">
       <formula1>"Valid,Invalid"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="O199" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="O202" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="O203" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="O199" r:id="rId1"/>
+    <hyperlink ref="O202" r:id="rId2"/>
+    <hyperlink ref="O203" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
